--- a/tests/test7/ММП 0.3.xlsx
+++ b/tests/test7/ММП 0.3.xlsx
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.003180699999973058</v>
+        <v>0.004486199999973906</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002638300000000982</v>
+        <v>0.002177000000017415</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.001949999999965257</v>
+        <v>0.002068000000008396</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002832500000010896</v>
+        <v>0.002406300000018291</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.003306899999984125</v>
+        <v>0.003141599999992195</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002341699999988123</v>
+        <v>0.003907499999968422</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.003330600000026607</v>
+        <v>0.002928699999984019</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002609299999960513</v>
+        <v>0.002884800000003906</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002233300000000327</v>
+        <v>0.00210650000002488</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002853200000004108</v>
+        <v>0.003022400000020298</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002063700000007884</v>
+        <v>0.003341499999976349</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.001884300000028816</v>
+        <v>0.001940699999977369</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002782200000012836</v>
+        <v>0.002812700000049517</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002605799999969349</v>
+        <v>0.002621700000020155</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003835700000024644</v>
+        <v>0.003194300000018302</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002409000000000106</v>
+        <v>0.00331860000000006</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.003175499999997555</v>
+        <v>0.002792699999986326</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002991800000017975</v>
+        <v>0.002694299999973282</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.003359100000011495</v>
+        <v>0.003018499999996038</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.003197000000000116</v>
+        <v>0.002503799999999501</v>
       </c>
       <c r="Y21" t="n">
         <v>10</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002882699999986471</v>
+        <v>0.003567699999962315</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002765500000009524</v>
+        <v>0.002514700000006087</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002593499999989035</v>
+        <v>0.002998200000035922</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002386300000011943</v>
+        <v>0.002373399999953563</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003293900000016947</v>
+        <v>0.003321800000037456</v>
       </c>
       <c r="Y26" t="n">
         <v>14</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003120700000010856</v>
+        <v>0.002853300000026593</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.003037599999970553</v>
+        <v>0.003223400000024412</v>
       </c>
       <c r="Y28" t="n">
         <v>13</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002983500000027561</v>
+        <v>0.003028299999982664</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002269200000000637</v>
+        <v>0.004478800000015326</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.001773200000002362</v>
+        <v>0.00176589999995258</v>
       </c>
       <c r="Y31" t="n">
         <v>7</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002677600000026814</v>
+        <v>0.003125199999999495</v>
       </c>
       <c r="Y32" t="n">
         <v>12</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.00235200000003033</v>
+        <v>0.00229410000002872</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002840300000002571</v>
+        <v>0.002892099999996844</v>
       </c>
       <c r="Y34" t="n">
         <v>12</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.003331100000025344</v>
+        <v>0.004734800000051109</v>
       </c>
       <c r="Y35" t="n">
         <v>11</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.00245150000000649</v>
+        <v>0.002081399999951827</v>
       </c>
       <c r="Y36" t="n">
         <v>9</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002172700000016903</v>
+        <v>0.002305200000023433</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003319299999986924</v>
+        <v>0.002969400000040423</v>
       </c>
       <c r="Y38" t="n">
         <v>13</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002414299999998093</v>
+        <v>0.002453900000034537</v>
       </c>
       <c r="Y39" t="n">
         <v>10</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003483599999981379</v>
+        <v>0.005694200000050387</v>
       </c>
       <c r="Y40" t="n">
         <v>13</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002957799999990129</v>
+        <v>0.002966999999955533</v>
       </c>
       <c r="Y41" t="n">
         <v>13</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.001990599999999176</v>
+        <v>0.00199609999998529</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.001995799999974679</v>
+        <v>0.001918400000022302</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002278499999988526</v>
+        <v>0.002271299999961229</v>
       </c>
       <c r="Y44" t="n">
         <v>9</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002944300000024214</v>
+        <v>0.002780600000050981</v>
       </c>
       <c r="Y45" t="n">
         <v>10</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002261400000008962</v>
+        <v>0.002147200000024441</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002556400000003123</v>
+        <v>0.002485399999955007</v>
       </c>
       <c r="Y47" t="n">
         <v>10</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002478899999971418</v>
+        <v>0.003419100000030539</v>
       </c>
       <c r="Y48" t="n">
         <v>10</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002175099999988106</v>
+        <v>0.002208999999993466</v>
       </c>
       <c r="Y49" t="n">
         <v>9</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002151900000001206</v>
+        <v>0.002806399999997211</v>
       </c>
       <c r="Y50" t="n">
         <v>9</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.00294429999996737</v>
+        <v>0.00290580000000773</v>
       </c>
       <c r="Y51" t="n">
         <v>12</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001950000000022101</v>
+        <v>0.002001800000016374</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003901400000017929</v>
+        <v>0.001985000000047421</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002896899999996094</v>
+        <v>0.001939099999958671</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002950499999997191</v>
+        <v>0.004187800000011066</v>
       </c>
       <c r="Y55" t="n">
         <v>12</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.001988500000038584</v>
+        <v>0.001958000000001903</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002007600000013099</v>
+        <v>0.002043200000002798</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.00283319999999776</v>
+        <v>0.004192200000034063</v>
       </c>
       <c r="Y58" t="n">
         <v>12</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.00516749999997046</v>
+        <v>0.002573199999972076</v>
       </c>
       <c r="Y59" t="n">
         <v>10</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002837800000008883</v>
+        <v>0.002924800000016603</v>
       </c>
       <c r="Y60" t="n">
         <v>12</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002462399999956233</v>
+        <v>0.002449100000035287</v>
       </c>
       <c r="Y61" t="n">
         <v>10</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.003719399999965844</v>
+        <v>0.002079200000025594</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002693699999952059</v>
+        <v>0.003241500000001452</v>
       </c>
       <c r="Y63" t="n">
         <v>11</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.003647300000011455</v>
+        <v>0.003050000000030195</v>
       </c>
       <c r="Y64" t="n">
         <v>13</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002301699999975426</v>
+        <v>0.002258999999980915</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003161199999965447</v>
+        <v>0.002732400000013513</v>
       </c>
       <c r="Y66" t="n">
         <v>12</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002025100000025759</v>
+        <v>0.002039400000001024</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002188600000010865</v>
+        <v>0.003454499999975269</v>
       </c>
       <c r="Y68" t="n">
         <v>9</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002846800000043004</v>
+        <v>0.002591899999970337</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.001985300000001189</v>
+        <v>0.001973700000007739</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002064800000027844</v>
+        <v>0.001871800000003532</v>
       </c>
       <c r="Y71" t="n">
         <v>8</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.003262300000017149</v>
+        <v>0.002492499999959819</v>
       </c>
       <c r="Y72" t="n">
         <v>10</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002809700000000248</v>
+        <v>0.003619899999989684</v>
       </c>
       <c r="Y73" t="n">
         <v>12</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002895800000032978</v>
+        <v>0.002972899999974743</v>
       </c>
       <c r="Y74" t="n">
         <v>12</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002746300000012525</v>
+        <v>0.003120400000000245</v>
       </c>
       <c r="Y75" t="n">
         <v>12</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.003086199999984274</v>
+        <v>0.002955500000041411</v>
       </c>
       <c r="Y76" t="n">
         <v>13</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001895600000011655</v>
+        <v>0.002032700000029308</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002238099999999577</v>
+        <v>0.003293699999971977</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003742199999976492</v>
+        <v>0.003009700000006887</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.003339299999993273</v>
+        <v>0.003242499999998927</v>
       </c>
       <c r="Y80" t="n">
         <v>13</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003031599999985701</v>
+        <v>0.002772400000026209</v>
       </c>
       <c r="Y81" t="n">
         <v>12</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002403800000024603</v>
+        <v>0.002438299999994342</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002917300000035539</v>
+        <v>0.004717599999992217</v>
       </c>
       <c r="Y83" t="n">
         <v>12</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.003061899999977413</v>
+        <v>0.00314650000001393</v>
       </c>
       <c r="Y84" t="n">
         <v>13</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003065499999991061</v>
+        <v>0.003104300000018156</v>
       </c>
       <c r="Y85" t="n">
         <v>13</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002984900000001289</v>
+        <v>0.002375900000004094</v>
       </c>
       <c r="Y86" t="n">
         <v>10</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002647299999978259</v>
+        <v>0.002592400000025918</v>
       </c>
       <c r="Y87" t="n">
         <v>11</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002464599999996153</v>
+        <v>0.002250699999990502</v>
       </c>
       <c r="Y88" t="n">
         <v>9</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002325600000006034</v>
+        <v>0.002305499999977201</v>
       </c>
       <c r="Y89" t="n">
         <v>10</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.003302099999984875</v>
+        <v>0.003026400000010199</v>
       </c>
       <c r="Y90" t="n">
         <v>12</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001718600000003789</v>
+        <v>0.001756000000000313</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002437000000043099</v>
+        <v>0.002382999999952062</v>
       </c>
       <c r="Y92" t="n">
         <v>10</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002813600000024508</v>
+        <v>0.004034099999955743</v>
       </c>
       <c r="Y93" t="n">
         <v>10</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002470899999991616</v>
+        <v>0.002443200000016077</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003481200000010176</v>
+        <v>0.002763099999981478</v>
       </c>
       <c r="Y95" t="n">
         <v>11</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003132700000037403</v>
+        <v>0.002999499999987165</v>
       </c>
       <c r="Y96" t="n">
         <v>13</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002910100000008242</v>
+        <v>0.002635399999974197</v>
       </c>
       <c r="Y97" t="n">
         <v>11</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002335099999982049</v>
+        <v>0.004771599999969567</v>
       </c>
       <c r="Y98" t="n">
         <v>10</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.001942600000006678</v>
+        <v>0.001995000000022173</v>
       </c>
       <c r="Y99" t="n">
         <v>8</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002544300000010935</v>
+        <v>0.002941700000008041</v>
       </c>
       <c r="Y100" t="n">
         <v>11</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003236099999980979</v>
+        <v>0.002985500000022512</v>
       </c>
       <c r="Y101" t="n">
         <v>13</v>
@@ -8838,7 +8838,7 @@
         </is>
       </c>
       <c r="X102" t="n">
-        <v>0.00279870000002802</v>
+        <v>0.002377699999954075</v>
       </c>
       <c r="Y102" t="n">
         <v>10</v>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="X103" t="n">
-        <v>0.001966100000004189</v>
+        <v>0.003368599999987509</v>
       </c>
       <c r="Y103" t="n">
         <v>8</v>
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="X104" t="n">
-        <v>0.003240899999980229</v>
+        <v>0.002556899999945017</v>
       </c>
       <c r="Y104" t="n">
         <v>11</v>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="X105" t="n">
-        <v>0.002146400000015092</v>
+        <v>0.002761999999961517</v>
       </c>
       <c r="Y105" t="n">
         <v>9</v>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="X106" t="n">
-        <v>0.002714099999991504</v>
+        <v>0.002514099999984865</v>
       </c>
       <c r="Y106" t="n">
         <v>11</v>
@@ -9248,7 +9248,7 @@
         </is>
       </c>
       <c r="X107" t="n">
-        <v>0.004058400000019446</v>
+        <v>0.002865600000006907</v>
       </c>
       <c r="Y107" t="n">
         <v>12</v>
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="X108" t="n">
-        <v>0.002252399999974841</v>
+        <v>0.003545099999996637</v>
       </c>
       <c r="Y108" t="n">
         <v>9</v>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="X109" t="n">
-        <v>0.003458299999977044</v>
+        <v>0.00256629999995539</v>
       </c>
       <c r="Y109" t="n">
         <v>11</v>
@@ -9494,7 +9494,7 @@
         </is>
       </c>
       <c r="X110" t="n">
-        <v>0.002006699999981265</v>
+        <v>0.002143400000022666</v>
       </c>
       <c r="Y110" t="n">
         <v>8</v>
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="X111" t="n">
-        <v>0.003297400000008111</v>
+        <v>0.002937299999985044</v>
       </c>
       <c r="Y111" t="n">
         <v>13</v>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="X112" t="n">
-        <v>0.002654899999981808</v>
+        <v>0.002629599999977472</v>
       </c>
       <c r="Y112" t="n">
         <v>11</v>
@@ -9740,7 +9740,7 @@
         </is>
       </c>
       <c r="X113" t="n">
-        <v>0.002252800000007937</v>
+        <v>0.002492500000016662</v>
       </c>
       <c r="Y113" t="n">
         <v>9</v>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="X114" t="n">
-        <v>0.00559210000000121</v>
+        <v>0.003274099999998725</v>
       </c>
       <c r="Y114" t="n">
         <v>14</v>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="X115" t="n">
-        <v>0.002172400000006292</v>
+        <v>0.002005600000018148</v>
       </c>
       <c r="Y115" t="n">
         <v>8</v>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="X116" t="n">
-        <v>0.002857399999982135</v>
+        <v>0.002797100000009323</v>
       </c>
       <c r="Y116" t="n">
         <v>12</v>
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="X117" t="n">
-        <v>0.003352199999994809</v>
+        <v>0.002609800000016094</v>
       </c>
       <c r="Y117" t="n">
         <v>11</v>
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="X118" t="n">
-        <v>0.002943500000014865</v>
+        <v>0.003824399999984962</v>
       </c>
       <c r="Y118" t="n">
         <v>12</v>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="X119" t="n">
-        <v>0.002631300000018655</v>
+        <v>0.002416900000014266</v>
       </c>
       <c r="Y119" t="n">
         <v>10</v>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="X120" t="n">
-        <v>0.002459499999986292</v>
+        <v>0.002464599999996153</v>
       </c>
       <c r="Y120" t="n">
         <v>10</v>
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="X121" t="n">
-        <v>0.002471799999966606</v>
+        <v>0.002403000000015254</v>
       </c>
       <c r="Y121" t="n">
         <v>10</v>
@@ -10478,7 +10478,7 @@
         </is>
       </c>
       <c r="X122" t="n">
-        <v>0.003961899999978868</v>
+        <v>0.002814600000021983</v>
       </c>
       <c r="Y122" t="n">
         <v>12</v>
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="X123" t="n">
-        <v>0.002254499999992277</v>
+        <v>0.002491000000020449</v>
       </c>
       <c r="Y123" t="n">
         <v>9</v>
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="X124" t="n">
-        <v>0.00237409999999727</v>
+        <v>0.002227899999979854</v>
       </c>
       <c r="Y124" t="n">
         <v>9</v>
@@ -10724,7 +10724,7 @@
         </is>
       </c>
       <c r="X125" t="n">
-        <v>0.002431899999976395</v>
+        <v>0.002803499999970427</v>
       </c>
       <c r="Y125" t="n">
         <v>10</v>
@@ -10806,7 +10806,7 @@
         </is>
       </c>
       <c r="X126" t="n">
-        <v>0.003007900000000063</v>
+        <v>0.002752299999997376</v>
       </c>
       <c r="Y126" t="n">
         <v>12</v>
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="X127" t="n">
-        <v>0.00201249999997799</v>
+        <v>0.001983100000018112</v>
       </c>
       <c r="Y127" t="n">
         <v>8</v>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="X128" t="n">
-        <v>0.00195539999998573</v>
+        <v>0.003137199999969198</v>
       </c>
       <c r="Y128" t="n">
         <v>8</v>
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="X129" t="n">
-        <v>0.002292000000011285</v>
+        <v>0.001866300000017418</v>
       </c>
       <c r="Y129" t="n">
         <v>8</v>
@@ -11134,7 +11134,7 @@
         </is>
       </c>
       <c r="X130" t="n">
-        <v>0.002097100000014507</v>
+        <v>0.002027599999962604</v>
       </c>
       <c r="Y130" t="n">
         <v>8</v>
@@ -11216,7 +11216,7 @@
         </is>
       </c>
       <c r="X131" t="n">
-        <v>0.003489600000023074</v>
+        <v>0.002621999999973923</v>
       </c>
       <c r="Y131" t="n">
         <v>11</v>
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="X132" t="n">
-        <v>0.002524800000003324</v>
+        <v>0.002963500000021213</v>
       </c>
       <c r="Y132" t="n">
         <v>11</v>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="X133" t="n">
-        <v>0.001920799999993505</v>
+        <v>0.002924000000007254</v>
       </c>
       <c r="Y133" t="n">
         <v>8</v>
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="X134" t="n">
-        <v>0.002750700000035522</v>
+        <v>0.002958499999976993</v>
       </c>
       <c r="Y134" t="n">
         <v>12</v>
@@ -11544,7 +11544,7 @@
         </is>
       </c>
       <c r="X135" t="n">
-        <v>0.001940600000011727</v>
+        <v>0.002023599999972703</v>
       </c>
       <c r="Y135" t="n">
         <v>8</v>
@@ -11626,7 +11626,7 @@
         </is>
       </c>
       <c r="X136" t="n">
-        <v>0.002894400000002406</v>
+        <v>0.002793699999983801</v>
       </c>
       <c r="Y136" t="n">
         <v>12</v>
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="X137" t="n">
-        <v>0.002356399999996484</v>
+        <v>0.002417999999977383</v>
       </c>
       <c r="Y137" t="n">
         <v>10</v>
@@ -11790,7 +11790,7 @@
         </is>
       </c>
       <c r="X138" t="n">
-        <v>0.002782799999977215</v>
+        <v>0.002988399999992453</v>
       </c>
       <c r="Y138" t="n">
         <v>9</v>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="X139" t="n">
-        <v>0.00192439999995031</v>
+        <v>0.001961200000039298</v>
       </c>
       <c r="Y139" t="n">
         <v>8</v>
@@ -11954,7 +11954,7 @@
         </is>
       </c>
       <c r="X140" t="n">
-        <v>0.002876600000035978</v>
+        <v>0.003154699999981858</v>
       </c>
       <c r="Y140" t="n">
         <v>11</v>
@@ -12036,7 +12036,7 @@
         </is>
       </c>
       <c r="X141" t="n">
-        <v>0.004686500000047999</v>
+        <v>0.002993399999979829</v>
       </c>
       <c r="Y141" t="n">
         <v>13</v>
@@ -12118,7 +12118,7 @@
         </is>
       </c>
       <c r="X142" t="n">
-        <v>0.001953200000002653</v>
+        <v>0.002034900000012385</v>
       </c>
       <c r="Y142" t="n">
         <v>8</v>
@@ -12200,7 +12200,7 @@
         </is>
       </c>
       <c r="X143" t="n">
-        <v>0.001831700000025194</v>
+        <v>0.001801800000009735</v>
       </c>
       <c r="Y143" t="n">
         <v>7</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="X144" t="n">
-        <v>0.003755500000011125</v>
+        <v>0.002893400000004931</v>
       </c>
       <c r="Y144" t="n">
         <v>12</v>
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="X145" t="n">
-        <v>0.002714699999955883</v>
+        <v>0.004253699999992477</v>
       </c>
       <c r="Y145" t="n">
         <v>11</v>
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="X146" t="n">
-        <v>0.002904000000000906</v>
+        <v>0.002346600000009857</v>
       </c>
       <c r="Y146" t="n">
         <v>10</v>
@@ -12528,7 +12528,7 @@
         </is>
       </c>
       <c r="X147" t="n">
-        <v>0.002755199999967317</v>
+        <v>0.002109900000050402</v>
       </c>
       <c r="Y147" t="n">
         <v>8</v>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="X148" t="n">
-        <v>0.002593900000022131</v>
+        <v>0.002668400000004567</v>
       </c>
       <c r="Y148" t="n">
         <v>11</v>
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="X149" t="n">
-        <v>0.002212400000018988</v>
+        <v>0.002317399999981262</v>
       </c>
       <c r="Y149" t="n">
         <v>9</v>
@@ -12774,7 +12774,7 @@
         </is>
       </c>
       <c r="X150" t="n">
-        <v>0.002006600000015624</v>
+        <v>0.002319300000010571</v>
       </c>
       <c r="Y150" t="n">
         <v>8</v>
@@ -12856,7 +12856,7 @@
         </is>
       </c>
       <c r="X151" t="n">
-        <v>0.001970400000004702</v>
+        <v>0.002233699999976579</v>
       </c>
       <c r="Y151" t="n">
         <v>8</v>
@@ -12938,7 +12938,7 @@
         </is>
       </c>
       <c r="X152" t="n">
-        <v>0.002895200000011755</v>
+        <v>0.003214299999967807</v>
       </c>
       <c r="Y152" t="n">
         <v>12</v>
@@ -13020,7 +13020,7 @@
         </is>
       </c>
       <c r="X153" t="n">
-        <v>0.002662500000042201</v>
+        <v>0.002218299999981355</v>
       </c>
       <c r="Y153" t="n">
         <v>9</v>
@@ -13102,7 +13102,7 @@
         </is>
       </c>
       <c r="X154" t="n">
-        <v>0.002413400000023103</v>
+        <v>0.002256699999975353</v>
       </c>
       <c r="Y154" t="n">
         <v>9</v>
@@ -13184,7 +13184,7 @@
         </is>
       </c>
       <c r="X155" t="n">
-        <v>0.002872699999954875</v>
+        <v>0.003351199999997334</v>
       </c>
       <c r="Y155" t="n">
         <v>12</v>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="X156" t="n">
-        <v>0.003160600000001068</v>
+        <v>0.003158000000041739</v>
       </c>
       <c r="Y156" t="n">
         <v>13</v>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="X157" t="n">
-        <v>0.00197859999997263</v>
+        <v>0.002322000000049229</v>
       </c>
       <c r="Y157" t="n">
         <v>8</v>
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="X158" t="n">
-        <v>0.002438400000016827</v>
+        <v>0.002478699999983291</v>
       </c>
       <c r="Y158" t="n">
         <v>10</v>
@@ -13512,7 +13512,7 @@
         </is>
       </c>
       <c r="X159" t="n">
-        <v>0.00274640000003501</v>
+        <v>0.002749199999982466</v>
       </c>
       <c r="Y159" t="n">
         <v>11</v>
@@ -13594,7 +13594,7 @@
         </is>
       </c>
       <c r="X160" t="n">
-        <v>0.003364599999997608</v>
+        <v>0.002156599999977971</v>
       </c>
       <c r="Y160" t="n">
         <v>9</v>
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="X161" t="n">
-        <v>0.002185899999972207</v>
+        <v>0.002328099999999722</v>
       </c>
       <c r="Y161" t="n">
         <v>9</v>
@@ -13758,7 +13758,7 @@
         </is>
       </c>
       <c r="X162" t="n">
-        <v>0.002850899999998546</v>
+        <v>0.003708299999971132</v>
       </c>
       <c r="Y162" t="n">
         <v>11</v>
@@ -13840,7 +13840,7 @@
         </is>
       </c>
       <c r="X163" t="n">
-        <v>0.002651900000046226</v>
+        <v>0.002680299999951785</v>
       </c>
       <c r="Y163" t="n">
         <v>11</v>
@@ -13922,7 +13922,7 @@
         </is>
       </c>
       <c r="X164" t="n">
-        <v>0.00312509999997701</v>
+        <v>0.00310300000001007</v>
       </c>
       <c r="Y164" t="n">
         <v>13</v>
@@ -14004,7 +14004,7 @@
         </is>
       </c>
       <c r="X165" t="n">
-        <v>0.002865600000006907</v>
+        <v>0.002731100000005426</v>
       </c>
       <c r="Y165" t="n">
         <v>12</v>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="X166" t="n">
-        <v>0.002329799999984061</v>
+        <v>0.002580500000021857</v>
       </c>
       <c r="Y166" t="n">
         <v>10</v>
@@ -14168,7 +14168,7 @@
         </is>
       </c>
       <c r="X167" t="n">
-        <v>0.004345699999987573</v>
+        <v>0.003419400000041151</v>
       </c>
       <c r="Y167" t="n">
         <v>13</v>
@@ -14250,7 +14250,7 @@
         </is>
       </c>
       <c r="X168" t="n">
-        <v>0.002725300000008701</v>
+        <v>0.002929000000051474</v>
       </c>
       <c r="Y168" t="n">
         <v>12</v>
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="X169" t="n">
-        <v>0.001995299999975941</v>
+        <v>0.002053900000021258</v>
       </c>
       <c r="Y169" t="n">
         <v>8</v>
@@ -14414,7 +14414,7 @@
         </is>
       </c>
       <c r="X170" t="n">
-        <v>0.00262750000001688</v>
+        <v>0.004140299999960462</v>
       </c>
       <c r="Y170" t="n">
         <v>11</v>
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="X171" t="n">
-        <v>0.002580599999987498</v>
+        <v>0.002469399999995403</v>
       </c>
       <c r="Y171" t="n">
         <v>10</v>
@@ -14578,7 +14578,7 @@
         </is>
       </c>
       <c r="X172" t="n">
-        <v>0.002055900000016209</v>
+        <v>0.002258800000049632</v>
       </c>
       <c r="Y172" t="n">
         <v>9</v>
@@ -14660,7 +14660,7 @@
         </is>
       </c>
       <c r="X173" t="n">
-        <v>0.00234330000000682</v>
+        <v>0.002260199999966517</v>
       </c>
       <c r="Y173" t="n">
         <v>9</v>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="X174" t="n">
-        <v>0.001884200000006331</v>
+        <v>0.001972300000034011</v>
       </c>
       <c r="Y174" t="n">
         <v>8</v>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="X175" t="n">
-        <v>0.002847300000041741</v>
+        <v>0.002925599999969108</v>
       </c>
       <c r="Y175" t="n">
         <v>12</v>
@@ -14906,7 +14906,7 @@
         </is>
       </c>
       <c r="X176" t="n">
-        <v>0.002028999999993175</v>
+        <v>0.002290299999970102</v>
       </c>
       <c r="Y176" t="n">
         <v>9</v>
@@ -14988,7 +14988,7 @@
         </is>
       </c>
       <c r="X177" t="n">
-        <v>0.002611699999988559</v>
+        <v>0.003096499999969637</v>
       </c>
       <c r="Y177" t="n">
         <v>11</v>
@@ -15070,7 +15070,7 @@
         </is>
       </c>
       <c r="X178" t="n">
-        <v>0.002060500000027332</v>
+        <v>0.002163800000005267</v>
       </c>
       <c r="Y178" t="n">
         <v>9</v>
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="X179" t="n">
-        <v>0.002959700000019438</v>
+        <v>0.002662199999974746</v>
       </c>
       <c r="Y179" t="n">
         <v>11</v>
@@ -15234,7 +15234,7 @@
         </is>
       </c>
       <c r="X180" t="n">
-        <v>0.002922899999987294</v>
+        <v>0.001884599999982584</v>
       </c>
       <c r="Y180" t="n">
         <v>8</v>
@@ -15316,7 +15316,7 @@
         </is>
       </c>
       <c r="X181" t="n">
-        <v>0.002675400000043737</v>
+        <v>0.00297530000000279</v>
       </c>
       <c r="Y181" t="n">
         <v>12</v>
@@ -15398,7 +15398,7 @@
         </is>
       </c>
       <c r="X182" t="n">
-        <v>0.002380200000004606</v>
+        <v>0.003787100000010923</v>
       </c>
       <c r="Y182" t="n">
         <v>8</v>
@@ -15480,7 +15480,7 @@
         </is>
       </c>
       <c r="X183" t="n">
-        <v>0.001871800000003532</v>
+        <v>0.003152699999986908</v>
       </c>
       <c r="Y183" t="n">
         <v>8</v>
@@ -15562,7 +15562,7 @@
         </is>
       </c>
       <c r="X184" t="n">
-        <v>0.002255800000000363</v>
+        <v>0.002040800000031595</v>
       </c>
       <c r="Y184" t="n">
         <v>8</v>
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="X185" t="n">
-        <v>0.002529900000013185</v>
+        <v>0.002792600000020684</v>
       </c>
       <c r="Y185" t="n">
         <v>11</v>
@@ -15726,7 +15726,7 @@
         </is>
       </c>
       <c r="X186" t="n">
-        <v>0.003157600000008642</v>
+        <v>0.003310399999975289</v>
       </c>
       <c r="Y186" t="n">
         <v>13</v>
@@ -15808,7 +15808,7 @@
         </is>
       </c>
       <c r="X187" t="n">
-        <v>0.002487400000006801</v>
+        <v>0.003475599999944734</v>
       </c>
       <c r="Y187" t="n">
         <v>11</v>
@@ -15890,7 +15890,7 @@
         </is>
       </c>
       <c r="X188" t="n">
-        <v>0.002849400000002333</v>
+        <v>0.003101300000025731</v>
       </c>
       <c r="Y188" t="n">
         <v>12</v>
@@ -15972,7 +15972,7 @@
         </is>
       </c>
       <c r="X189" t="n">
-        <v>0.001684800000020914</v>
+        <v>0.001990999999975429</v>
       </c>
       <c r="Y189" t="n">
         <v>7</v>
@@ -16054,7 +16054,7 @@
         </is>
       </c>
       <c r="X190" t="n">
-        <v>0.002891599999998107</v>
+        <v>0.003345200000012483</v>
       </c>
       <c r="Y190" t="n">
         <v>12</v>
@@ -16136,7 +16136,7 @@
         </is>
       </c>
       <c r="X191" t="n">
-        <v>0.002735900000004676</v>
+        <v>0.003032700000005661</v>
       </c>
       <c r="Y191" t="n">
         <v>12</v>
@@ -16218,7 +16218,7 @@
         </is>
       </c>
       <c r="X192" t="n">
-        <v>0.003022099999952843</v>
+        <v>0.003698899999960759</v>
       </c>
       <c r="Y192" t="n">
         <v>13</v>
@@ -16300,7 +16300,7 @@
         </is>
       </c>
       <c r="X193" t="n">
-        <v>0.002256900000020323</v>
+        <v>0.002276900000026671</v>
       </c>
       <c r="Y193" t="n">
         <v>9</v>
@@ -16382,7 +16382,7 @@
         </is>
       </c>
       <c r="X194" t="n">
-        <v>0.002605300000027455</v>
+        <v>0.002727400000026137</v>
       </c>
       <c r="Y194" t="n">
         <v>11</v>
@@ -16464,7 +16464,7 @@
         </is>
       </c>
       <c r="X195" t="n">
-        <v>0.003567299999986062</v>
+        <v>0.003465599999969982</v>
       </c>
       <c r="Y195" t="n">
         <v>11</v>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="X196" t="n">
-        <v>0.002701399999978094</v>
+        <v>0.00288239999997586</v>
       </c>
       <c r="Y196" t="n">
         <v>12</v>
@@ -16628,7 +16628,7 @@
         </is>
       </c>
       <c r="X197" t="n">
-        <v>0.002000599999973929</v>
+        <v>0.002109399999994821</v>
       </c>
       <c r="Y197" t="n">
         <v>8</v>
@@ -16710,7 +16710,7 @@
         </is>
       </c>
       <c r="X198" t="n">
-        <v>0.002258299999994051</v>
+        <v>0.002121600000009494</v>
       </c>
       <c r="Y198" t="n">
         <v>9</v>
@@ -16792,7 +16792,7 @@
         </is>
       </c>
       <c r="X199" t="n">
-        <v>0.003201599999954396</v>
+        <v>0.003359699999975874</v>
       </c>
       <c r="Y199" t="n">
         <v>13</v>
@@ -16874,7 +16874,7 @@
         </is>
       </c>
       <c r="X200" t="n">
-        <v>0.001835899999946378</v>
+        <v>0.002688200000022789</v>
       </c>
       <c r="Y200" t="n">
         <v>8</v>
@@ -16956,7 +16956,7 @@
         </is>
       </c>
       <c r="X201" t="n">
-        <v>0.00212439999995695</v>
+        <v>0.002039500000023509</v>
       </c>
       <c r="Y201" t="n">
         <v>8</v>
@@ -17038,7 +17038,7 @@
         </is>
       </c>
       <c r="X202" t="n">
-        <v>0.002538499999957367</v>
+        <v>0.004059999999981301</v>
       </c>
       <c r="Y202" t="n">
         <v>11</v>
@@ -17120,7 +17120,7 @@
         </is>
       </c>
       <c r="X203" t="n">
-        <v>0.002788500000008298</v>
+        <v>0.002868700000021818</v>
       </c>
       <c r="Y203" t="n">
         <v>12</v>
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="X204" t="n">
-        <v>0.002675399999986894</v>
+        <v>0.003090700000029756</v>
       </c>
       <c r="Y204" t="n">
         <v>12</v>
@@ -17284,7 +17284,7 @@
         </is>
       </c>
       <c r="X205" t="n">
-        <v>0.002415100000007442</v>
+        <v>0.004538799999977527</v>
       </c>
       <c r="Y205" t="n">
         <v>10</v>
@@ -17366,7 +17366,7 @@
         </is>
       </c>
       <c r="X206" t="n">
-        <v>0.003387299999985771</v>
+        <v>0.002837399999975787</v>
       </c>
       <c r="Y206" t="n">
         <v>12</v>
@@ -17448,7 +17448,7 @@
         </is>
       </c>
       <c r="X207" t="n">
-        <v>0.003248400000018137</v>
+        <v>0.003669099999967784</v>
       </c>
       <c r="Y207" t="n">
         <v>14</v>
@@ -17530,7 +17530,7 @@
         </is>
       </c>
       <c r="X208" t="n">
-        <v>0.002834199999995235</v>
+        <v>0.002202799999963645</v>
       </c>
       <c r="Y208" t="n">
         <v>9</v>
@@ -17612,7 +17612,7 @@
         </is>
       </c>
       <c r="X209" t="n">
-        <v>0.002469599999983529</v>
+        <v>0.002753499999982978</v>
       </c>
       <c r="Y209" t="n">
         <v>11</v>
@@ -17694,7 +17694,7 @@
         </is>
       </c>
       <c r="X210" t="n">
-        <v>0.002249000000006163</v>
+        <v>0.003111300000000483</v>
       </c>
       <c r="Y210" t="n">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="X211" t="n">
-        <v>0.00269700000001194</v>
+        <v>0.002902899999980946</v>
       </c>
       <c r="Y211" t="n">
         <v>12</v>
@@ -17858,7 +17858,7 @@
         </is>
       </c>
       <c r="X212" t="n">
-        <v>0.002916099999993094</v>
+        <v>0.002733599999999115</v>
       </c>
       <c r="Y212" t="n">
         <v>11</v>
@@ -17940,7 +17940,7 @@
         </is>
       </c>
       <c r="X213" t="n">
-        <v>0.00313490000002048</v>
+        <v>0.004232599999966169</v>
       </c>
       <c r="Y213" t="n">
         <v>14</v>
@@ -18022,7 +18022,7 @@
         </is>
       </c>
       <c r="X214" t="n">
-        <v>0.002099899999961963</v>
+        <v>0.001982800000007501</v>
       </c>
       <c r="Y214" t="n">
         <v>8</v>
@@ -18104,7 +18104,7 @@
         </is>
       </c>
       <c r="X215" t="n">
-        <v>0.002516399999990426</v>
+        <v>0.002709900000013477</v>
       </c>
       <c r="Y215" t="n">
         <v>10</v>
@@ -18186,7 +18186,7 @@
         </is>
       </c>
       <c r="X216" t="n">
-        <v>0.002790199999992637</v>
+        <v>0.002868400000011206</v>
       </c>
       <c r="Y216" t="n">
         <v>12</v>
@@ -18268,7 +18268,7 @@
         </is>
       </c>
       <c r="X217" t="n">
-        <v>0.003555300000016359</v>
+        <v>0.002474699999993391</v>
       </c>
       <c r="Y217" t="n">
         <v>10</v>
@@ -18350,7 +18350,7 @@
         </is>
       </c>
       <c r="X218" t="n">
-        <v>0.003069499999980962</v>
+        <v>0.004135300000029929</v>
       </c>
       <c r="Y218" t="n">
         <v>13</v>
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="X219" t="n">
-        <v>0.002254499999992277</v>
+        <v>0.002342899999973724</v>
       </c>
       <c r="Y219" t="n">
         <v>9</v>
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="X220" t="n">
-        <v>0.00363950000001978</v>
+        <v>0.002584899999988011</v>
       </c>
       <c r="Y220" t="n">
         <v>10</v>
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="X221" t="n">
-        <v>0.002308399999947142</v>
+        <v>0.002187699999979031</v>
       </c>
       <c r="Y221" t="n">
         <v>9</v>
@@ -18678,7 +18678,7 @@
         </is>
       </c>
       <c r="X222" t="n">
-        <v>0.002952599999957783</v>
+        <v>0.002947000000006028</v>
       </c>
       <c r="Y222" t="n">
         <v>12</v>
@@ -18760,7 +18760,7 @@
         </is>
       </c>
       <c r="X223" t="n">
-        <v>0.002111399999989771</v>
+        <v>0.001952900000048885</v>
       </c>
       <c r="Y223" t="n">
         <v>8</v>
@@ -18842,7 +18842,7 @@
         </is>
       </c>
       <c r="X224" t="n">
-        <v>0.009533900000008089</v>
+        <v>0.003205799999989267</v>
       </c>
       <c r="Y224" t="n">
         <v>13</v>
@@ -18924,7 +18924,7 @@
         </is>
       </c>
       <c r="X225" t="n">
-        <v>0.0030767999999739</v>
+        <v>0.003449600000010378</v>
       </c>
       <c r="Y225" t="n">
         <v>13</v>
@@ -19006,7 +19006,7 @@
         </is>
       </c>
       <c r="X226" t="n">
-        <v>0.002400899999997819</v>
+        <v>0.002142600000013317</v>
       </c>
       <c r="Y226" t="n">
         <v>9</v>
@@ -19088,7 +19088,7 @@
         </is>
       </c>
       <c r="X227" t="n">
-        <v>0.005519200000037472</v>
+        <v>0.002700900000036199</v>
       </c>
       <c r="Y227" t="n">
         <v>11</v>
@@ -19170,7 +19170,7 @@
         </is>
       </c>
       <c r="X228" t="n">
-        <v>0.005341600000008384</v>
+        <v>0.003584899999964364</v>
       </c>
       <c r="Y228" t="n">
         <v>12</v>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="X229" t="n">
-        <v>0.009522199999992154</v>
+        <v>0.002998200000035922</v>
       </c>
       <c r="Y229" t="n">
         <v>12</v>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="X230" t="n">
-        <v>0.005792899999960355</v>
+        <v>0.003287399999976515</v>
       </c>
       <c r="Y230" t="n">
         <v>13</v>
@@ -19416,7 +19416,7 @@
         </is>
       </c>
       <c r="X231" t="n">
-        <v>0.004209100000025501</v>
+        <v>0.003054800000029445</v>
       </c>
       <c r="Y231" t="n">
         <v>13</v>
@@ -19498,7 +19498,7 @@
         </is>
       </c>
       <c r="X232" t="n">
-        <v>0.002430899999978919</v>
+        <v>0.002228000000002339</v>
       </c>
       <c r="Y232" t="n">
         <v>9</v>
@@ -19580,7 +19580,7 @@
         </is>
       </c>
       <c r="X233" t="n">
-        <v>0.003095000000030268</v>
+        <v>0.004249800000025061</v>
       </c>
       <c r="Y233" t="n">
         <v>12</v>
@@ -19662,7 +19662,7 @@
         </is>
       </c>
       <c r="X234" t="n">
-        <v>0.002788299999963328</v>
+        <v>0.00227090000004182</v>
       </c>
       <c r="Y234" t="n">
         <v>9</v>
@@ -19744,7 +19744,7 @@
         </is>
       </c>
       <c r="X235" t="n">
-        <v>0.001975899999990816</v>
+        <v>0.002121299999998882</v>
       </c>
       <c r="Y235" t="n">
         <v>8</v>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="X236" t="n">
-        <v>0.006352199999980712</v>
+        <v>0.005173100000035902</v>
       </c>
       <c r="Y236" t="n">
         <v>12</v>
@@ -19908,7 +19908,7 @@
         </is>
       </c>
       <c r="X237" t="n">
-        <v>0.00216160000002219</v>
+        <v>0.002131599999984246</v>
       </c>
       <c r="Y237" t="n">
         <v>9</v>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="X238" t="n">
-        <v>0.002181300000017927</v>
+        <v>0.002346799999997984</v>
       </c>
       <c r="Y238" t="n">
         <v>9</v>
@@ -20072,7 +20072,7 @@
         </is>
       </c>
       <c r="X239" t="n">
-        <v>0.002316600000028757</v>
+        <v>0.001995499999964068</v>
       </c>
       <c r="Y239" t="n">
         <v>8</v>
@@ -20154,7 +20154,7 @@
         </is>
       </c>
       <c r="X240" t="n">
-        <v>0.005254700000023149</v>
+        <v>0.002660699999978533</v>
       </c>
       <c r="Y240" t="n">
         <v>11</v>
@@ -20236,7 +20236,7 @@
         </is>
       </c>
       <c r="X241" t="n">
-        <v>0.001759499999991476</v>
+        <v>0.002483900000015637</v>
       </c>
       <c r="Y241" t="n">
         <v>7</v>
@@ -20318,7 +20318,7 @@
         </is>
       </c>
       <c r="X242" t="n">
-        <v>0.003331500000001597</v>
+        <v>0.003077199999950153</v>
       </c>
       <c r="Y242" t="n">
         <v>13</v>
@@ -20400,7 +20400,7 @@
         </is>
       </c>
       <c r="X243" t="n">
-        <v>0.00271930000002385</v>
+        <v>0.002513200000009874</v>
       </c>
       <c r="Y243" t="n">
         <v>10</v>
@@ -20482,7 +20482,7 @@
         </is>
       </c>
       <c r="X244" t="n">
-        <v>0.003466699999989942</v>
+        <v>0.001987400000018624</v>
       </c>
       <c r="Y244" t="n">
         <v>8</v>
@@ -20564,7 +20564,7 @@
         </is>
       </c>
       <c r="X245" t="n">
-        <v>0.003713899999979731</v>
+        <v>0.002914500000031239</v>
       </c>
       <c r="Y245" t="n">
         <v>12</v>
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="X246" t="n">
-        <v>0.002133499999956712</v>
+        <v>0.002223700000001827</v>
       </c>
       <c r="Y246" t="n">
         <v>8</v>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="X247" t="n">
-        <v>0.003714999999999691</v>
+        <v>0.001960299999950621</v>
       </c>
       <c r="Y247" t="n">
         <v>8</v>
@@ -20810,7 +20810,7 @@
         </is>
       </c>
       <c r="X248" t="n">
-        <v>0.00493490000002339</v>
+        <v>0.003515999999990527</v>
       </c>
       <c r="Y248" t="n">
         <v>10</v>
@@ -20892,7 +20892,7 @@
         </is>
       </c>
       <c r="X249" t="n">
-        <v>0.002897399999994832</v>
+        <v>0.002196499999968182</v>
       </c>
       <c r="Y249" t="n">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         </is>
       </c>
       <c r="X250" t="n">
-        <v>0.002388700000039989</v>
+        <v>0.002721900000040023</v>
       </c>
       <c r="Y250" t="n">
         <v>9</v>
@@ -21056,7 +21056,7 @@
         </is>
       </c>
       <c r="X251" t="n">
-        <v>0.003349899999989248</v>
+        <v>0.003046299999994062</v>
       </c>
       <c r="Y251" t="n">
         <v>13</v>
@@ -21138,7 +21138,7 @@
         </is>
       </c>
       <c r="X252" t="n">
-        <v>0.002773100000013073</v>
+        <v>0.0024478000000272</v>
       </c>
       <c r="Y252" t="n">
         <v>10</v>
@@ -21220,7 +21220,7 @@
         </is>
       </c>
       <c r="X253" t="n">
-        <v>0.002190600000005816</v>
+        <v>0.002169200000025739</v>
       </c>
       <c r="Y253" t="n">
         <v>8</v>
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="X254" t="n">
-        <v>0.002378099999987171</v>
+        <v>0.002704200000039236</v>
       </c>
       <c r="Y254" t="n">
         <v>10</v>
@@ -21384,7 +21384,7 @@
         </is>
       </c>
       <c r="X255" t="n">
-        <v>0.005406999999991058</v>
+        <v>0.002987099999984366</v>
       </c>
       <c r="Y255" t="n">
         <v>12</v>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="X256" t="n">
-        <v>0.002466400000002977</v>
+        <v>0.004751199999986966</v>
       </c>
       <c r="Y256" t="n">
         <v>10</v>
@@ -21548,7 +21548,7 @@
         </is>
       </c>
       <c r="X257" t="n">
-        <v>0.002396800000042276</v>
+        <v>0.002505299999995714</v>
       </c>
       <c r="Y257" t="n">
         <v>10</v>
@@ -21630,7 +21630,7 @@
         </is>
       </c>
       <c r="X258" t="n">
-        <v>0.003067500000042855</v>
+        <v>0.0027896999999939</v>
       </c>
       <c r="Y258" t="n">
         <v>11</v>
@@ -21712,7 +21712,7 @@
         </is>
       </c>
       <c r="X259" t="n">
-        <v>0.004653200000007018</v>
+        <v>0.005461700000012115</v>
       </c>
       <c r="Y259" t="n">
         <v>11</v>
@@ -21794,7 +21794,7 @@
         </is>
       </c>
       <c r="X260" t="n">
-        <v>0.002771999999993113</v>
+        <v>0.002677899999980582</v>
       </c>
       <c r="Y260" t="n">
         <v>11</v>
@@ -21876,7 +21876,7 @@
         </is>
       </c>
       <c r="X261" t="n">
-        <v>0.001922200000024077</v>
+        <v>0.001952600000038274</v>
       </c>
       <c r="Y261" t="n">
         <v>8</v>
@@ -21958,7 +21958,7 @@
         </is>
       </c>
       <c r="X262" t="n">
-        <v>0.006126400000027843</v>
+        <v>0.00193730000000869</v>
       </c>
       <c r="Y262" t="n">
         <v>8</v>
@@ -22040,7 +22040,7 @@
         </is>
       </c>
       <c r="X263" t="n">
-        <v>0.003007000000025073</v>
+        <v>0.003126099999974485</v>
       </c>
       <c r="Y263" t="n">
         <v>13</v>
@@ -22122,7 +22122,7 @@
         </is>
       </c>
       <c r="X264" t="n">
-        <v>0.00302190000002156</v>
+        <v>0.004100800000003346</v>
       </c>
       <c r="Y264" t="n">
         <v>12</v>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="X265" t="n">
-        <v>0.003157500000043001</v>
+        <v>0.002852200000006633</v>
       </c>
       <c r="Y265" t="n">
         <v>12</v>
@@ -22286,7 +22286,7 @@
         </is>
       </c>
       <c r="X266" t="n">
-        <v>0.003857200000027206</v>
+        <v>0.00265919999998232</v>
       </c>
       <c r="Y266" t="n">
         <v>11</v>
@@ -22368,7 +22368,7 @@
         </is>
       </c>
       <c r="X267" t="n">
-        <v>0.002473300000019663</v>
+        <v>0.002468600000042898</v>
       </c>
       <c r="Y267" t="n">
         <v>9</v>
@@ -22450,7 +22450,7 @@
         </is>
       </c>
       <c r="X268" t="n">
-        <v>0.002039899999999761</v>
+        <v>0.001947900000004665</v>
       </c>
       <c r="Y268" t="n">
         <v>8</v>
@@ -22532,7 +22532,7 @@
         </is>
       </c>
       <c r="X269" t="n">
-        <v>0.005295799999998962</v>
+        <v>0.004080799999996998</v>
       </c>
       <c r="Y269" t="n">
         <v>13</v>
@@ -22614,7 +22614,7 @@
         </is>
       </c>
       <c r="X270" t="n">
-        <v>0.004732600000011189</v>
+        <v>0.003343699999959426</v>
       </c>
       <c r="Y270" t="n">
         <v>14</v>
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="X271" t="n">
-        <v>0.002398200000016004</v>
+        <v>0.00218280000001414</v>
       </c>
       <c r="Y271" t="n">
         <v>9</v>
@@ -22778,7 +22778,7 @@
         </is>
       </c>
       <c r="X272" t="n">
-        <v>0.003041700000039782</v>
+        <v>0.003636200000016743</v>
       </c>
       <c r="Y272" t="n">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="X273" t="n">
-        <v>0.001972499999965294</v>
+        <v>0.001977099999976417</v>
       </c>
       <c r="Y273" t="n">
         <v>8</v>
@@ -22942,7 +22942,7 @@
         </is>
       </c>
       <c r="X274" t="n">
-        <v>0.002952300000004016</v>
+        <v>0.002919099999985519</v>
       </c>
       <c r="Y274" t="n">
         <v>12</v>
@@ -23024,7 +23024,7 @@
         </is>
       </c>
       <c r="X275" t="n">
-        <v>0.003623300000015206</v>
+        <v>0.001905000000022028</v>
       </c>
       <c r="Y275" t="n">
         <v>8</v>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="X276" t="n">
-        <v>0.00235090000001037</v>
+        <v>0.00219240000001264</v>
       </c>
       <c r="Y276" t="n">
         <v>9</v>
@@ -23188,7 +23188,7 @@
         </is>
       </c>
       <c r="X277" t="n">
-        <v>0.003552700000000186</v>
+        <v>0.004420999999979358</v>
       </c>
       <c r="Y277" t="n">
         <v>14</v>
@@ -23270,7 +23270,7 @@
         </is>
       </c>
       <c r="X278" t="n">
-        <v>0.001924900000005891</v>
+        <v>0.001907000000016978</v>
       </c>
       <c r="Y278" t="n">
         <v>8</v>
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="X279" t="n">
-        <v>0.003595899999993435</v>
+        <v>0.002211799999997766</v>
       </c>
       <c r="Y279" t="n">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         </is>
       </c>
       <c r="X280" t="n">
-        <v>0.004084499999976288</v>
+        <v>0.002329099999997197</v>
       </c>
       <c r="Y280" t="n">
         <v>10</v>
@@ -23516,7 +23516,7 @@
         </is>
       </c>
       <c r="X281" t="n">
-        <v>0.003104699999994409</v>
+        <v>0.003069600000003447</v>
       </c>
       <c r="Y281" t="n">
         <v>13</v>
@@ -23598,7 +23598,7 @@
         </is>
       </c>
       <c r="X282" t="n">
-        <v>0.002533599999992475</v>
+        <v>0.00234810000000607</v>
       </c>
       <c r="Y282" t="n">
         <v>10</v>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="X283" t="n">
-        <v>0.002171799999985069</v>
+        <v>0.001939600000014252</v>
       </c>
       <c r="Y283" t="n">
         <v>8</v>
@@ -23762,7 +23762,7 @@
         </is>
       </c>
       <c r="X284" t="n">
-        <v>0.002119600000014543</v>
+        <v>0.003266999999993914</v>
       </c>
       <c r="Y284" t="n">
         <v>9</v>
@@ -23844,7 +23844,7 @@
         </is>
       </c>
       <c r="X285" t="n">
-        <v>0.002868799999987459</v>
+        <v>0.002724899999975605</v>
       </c>
       <c r="Y285" t="n">
         <v>12</v>
@@ -23926,7 +23926,7 @@
         </is>
       </c>
       <c r="X286" t="n">
-        <v>0.005074999999976626</v>
+        <v>0.001983100000018112</v>
       </c>
       <c r="Y286" t="n">
         <v>8</v>
@@ -24008,7 +24008,7 @@
         </is>
       </c>
       <c r="X287" t="n">
-        <v>0.001953000000014526</v>
+        <v>0.002128700000014305</v>
       </c>
       <c r="Y287" t="n">
         <v>8</v>
@@ -24090,7 +24090,7 @@
         </is>
       </c>
       <c r="X288" t="n">
-        <v>0.002405400000043301</v>
+        <v>0.002451800000017101</v>
       </c>
       <c r="Y288" t="n">
         <v>10</v>
@@ -24172,7 +24172,7 @@
         </is>
       </c>
       <c r="X289" t="n">
-        <v>0.005142000000034841</v>
+        <v>0.004479100000025937</v>
       </c>
       <c r="Y289" t="n">
         <v>13</v>
@@ -24254,7 +24254,7 @@
         </is>
       </c>
       <c r="X290" t="n">
-        <v>0.00303260000004002</v>
+        <v>0.003064900000026682</v>
       </c>
       <c r="Y290" t="n">
         <v>13</v>
@@ -24336,7 +24336,7 @@
         </is>
       </c>
       <c r="X291" t="n">
-        <v>0.002431600000022627</v>
+        <v>0.002500999999995202</v>
       </c>
       <c r="Y291" t="n">
         <v>10</v>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="X292" t="n">
-        <v>0.004103600000007646</v>
+        <v>0.002809500000012122</v>
       </c>
       <c r="Y292" t="n">
         <v>12</v>
@@ -24500,7 +24500,7 @@
         </is>
       </c>
       <c r="X293" t="n">
-        <v>0.003255900000056045</v>
+        <v>0.003108100000019931</v>
       </c>
       <c r="Y293" t="n">
         <v>13</v>
@@ -24582,7 +24582,7 @@
         </is>
       </c>
       <c r="X294" t="n">
-        <v>0.002959500000031312</v>
+        <v>0.003145799999970222</v>
       </c>
       <c r="Y294" t="n">
         <v>12</v>
@@ -24664,7 +24664,7 @@
         </is>
       </c>
       <c r="X295" t="n">
-        <v>0.0045114000000126</v>
+        <v>0.003020700000035959</v>
       </c>
       <c r="Y295" t="n">
         <v>13</v>
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="X296" t="n">
-        <v>0.0022031000000311</v>
+        <v>0.002220500000021275</v>
       </c>
       <c r="Y296" t="n">
         <v>9</v>
@@ -24828,7 +24828,7 @@
         </is>
       </c>
       <c r="X297" t="n">
-        <v>0.003795900000000074</v>
+        <v>0.004144699999983459</v>
       </c>
       <c r="Y297" t="n">
         <v>12</v>
@@ -24910,7 +24910,7 @@
         </is>
       </c>
       <c r="X298" t="n">
-        <v>0.00321579999996402</v>
+        <v>0.003402199999982258</v>
       </c>
       <c r="Y298" t="n">
         <v>14</v>
@@ -24992,7 +24992,7 @@
         </is>
       </c>
       <c r="X299" t="n">
-        <v>0.001931500000011965</v>
+        <v>0.002048600000023271</v>
       </c>
       <c r="Y299" t="n">
         <v>8</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="X300" t="n">
-        <v>0.003961699999990742</v>
+        <v>0.003014500000006137</v>
       </c>
       <c r="Y300" t="n">
         <v>13</v>
@@ -25156,7 +25156,7 @@
         </is>
       </c>
       <c r="X301" t="n">
-        <v>0.002796799999998711</v>
+        <v>0.002971999999999753</v>
       </c>
       <c r="Y301" t="n">
         <v>12</v>
@@ -25238,7 +25238,7 @@
         </is>
       </c>
       <c r="X302" t="n">
-        <v>0.003165400000000318</v>
+        <v>0.004484199999978955</v>
       </c>
       <c r="Y302" t="n">
         <v>9</v>
@@ -25320,7 +25320,7 @@
         </is>
       </c>
       <c r="X303" t="n">
-        <v>0.003231499999969856</v>
+        <v>0.003002900000012687</v>
       </c>
       <c r="Y303" t="n">
         <v>13</v>
@@ -25402,7 +25402,7 @@
         </is>
       </c>
       <c r="X304" t="n">
-        <v>0.002028800000005049</v>
+        <v>0.002060499999970489</v>
       </c>
       <c r="Y304" t="n">
         <v>8</v>
@@ -25484,7 +25484,7 @@
         </is>
       </c>
       <c r="X305" t="n">
-        <v>0.002519600000027822</v>
+        <v>0.002512899999999263</v>
       </c>
       <c r="Y305" t="n">
         <v>11</v>
@@ -25566,7 +25566,7 @@
         </is>
       </c>
       <c r="X306" t="n">
-        <v>0.003113300000052277</v>
+        <v>0.003086300000006759</v>
       </c>
       <c r="Y306" t="n">
         <v>13</v>
@@ -25648,7 +25648,7 @@
         </is>
       </c>
       <c r="X307" t="n">
-        <v>0.003283099999976002</v>
+        <v>0.003006699999957618</v>
       </c>
       <c r="Y307" t="n">
         <v>10</v>
@@ -25730,7 +25730,7 @@
         </is>
       </c>
       <c r="X308" t="n">
-        <v>0.002072300000008909</v>
+        <v>0.001903700000013941</v>
       </c>
       <c r="Y308" t="n">
         <v>8</v>
@@ -25812,7 +25812,7 @@
         </is>
       </c>
       <c r="X309" t="n">
-        <v>0.005184399999961897</v>
+        <v>0.002899500000012267</v>
       </c>
       <c r="Y309" t="n">
         <v>11</v>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="X310" t="n">
-        <v>0.002251099999966755</v>
+        <v>0.002113699999995333</v>
       </c>
       <c r="Y310" t="n">
         <v>9</v>
@@ -25976,7 +25976,7 @@
         </is>
       </c>
       <c r="X311" t="n">
-        <v>0.002930500000047687</v>
+        <v>0.002857400000038979</v>
       </c>
       <c r="Y311" t="n">
         <v>12</v>
@@ -26058,7 +26058,7 @@
         </is>
       </c>
       <c r="X312" t="n">
-        <v>0.005348099999991973</v>
+        <v>0.004626099999995859</v>
       </c>
       <c r="Y312" t="n">
         <v>14</v>
@@ -26140,7 +26140,7 @@
         </is>
       </c>
       <c r="X313" t="n">
-        <v>0.002980500000035136</v>
+        <v>0.002807700000005298</v>
       </c>
       <c r="Y313" t="n">
         <v>12</v>
@@ -26222,7 +26222,7 @@
         </is>
       </c>
       <c r="X314" t="n">
-        <v>0.002759799999978441</v>
+        <v>0.002679600000021765</v>
       </c>
       <c r="Y314" t="n">
         <v>11</v>
@@ -26304,7 +26304,7 @@
         </is>
       </c>
       <c r="X315" t="n">
-        <v>0.005550599999992301</v>
+        <v>0.004222700000013901</v>
       </c>
       <c r="Y315" t="n">
         <v>13</v>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="X316" t="n">
-        <v>0.002560899999991761</v>
+        <v>0.002598399999953926</v>
       </c>
       <c r="Y316" t="n">
         <v>11</v>
@@ -26468,7 +26468,7 @@
         </is>
       </c>
       <c r="X317" t="n">
-        <v>0.002688499999976557</v>
+        <v>0.002225500000008651</v>
       </c>
       <c r="Y317" t="n">
         <v>9</v>
@@ -26550,7 +26550,7 @@
         </is>
       </c>
       <c r="X318" t="n">
-        <v>0.003469499999994241</v>
+        <v>0.002804400000002261</v>
       </c>
       <c r="Y318" t="n">
         <v>12</v>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="X319" t="n">
-        <v>0.003182799999990493</v>
+        <v>0.00311460000000352</v>
       </c>
       <c r="Y319" t="n">
         <v>13</v>
@@ -26714,7 +26714,7 @@
         </is>
       </c>
       <c r="X320" t="n">
-        <v>0.002901500000007218</v>
+        <v>0.003891400000043177</v>
       </c>
       <c r="Y320" t="n">
         <v>10</v>
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="X321" t="n">
-        <v>0.001850300000000971</v>
+        <v>0.001912199999992481</v>
       </c>
       <c r="Y321" t="n">
         <v>8</v>
@@ -26878,7 +26878,7 @@
         </is>
       </c>
       <c r="X322" t="n">
-        <v>0.003058599999974376</v>
+        <v>0.002897500000017317</v>
       </c>
       <c r="Y322" t="n">
         <v>12</v>
@@ -26960,7 +26960,7 @@
         </is>
       </c>
       <c r="X323" t="n">
-        <v>0.003800200000000586</v>
+        <v>0.001976299999967068</v>
       </c>
       <c r="Y323" t="n">
         <v>8</v>
@@ -27042,7 +27042,7 @@
         </is>
       </c>
       <c r="X324" t="n">
-        <v>0.001978199999996377</v>
+        <v>0.00207260000001952</v>
       </c>
       <c r="Y324" t="n">
         <v>8</v>
@@ -27124,7 +27124,7 @@
         </is>
       </c>
       <c r="X325" t="n">
-        <v>0.0025421999999935</v>
+        <v>0.003199999999992542</v>
       </c>
       <c r="Y325" t="n">
         <v>9</v>
@@ -27206,7 +27206,7 @@
         </is>
       </c>
       <c r="X326" t="n">
-        <v>0.002085899999997309</v>
+        <v>0.002178399999991143</v>
       </c>
       <c r="Y326" t="n">
         <v>9</v>
@@ -27288,7 +27288,7 @@
         </is>
       </c>
       <c r="X327" t="n">
-        <v>0.001774399999987963</v>
+        <v>0.001810299999988274</v>
       </c>
       <c r="Y327" t="n">
         <v>7</v>
@@ -27370,7 +27370,7 @@
         </is>
       </c>
       <c r="X328" t="n">
-        <v>0.001667600000018865</v>
+        <v>0.001650400000016816</v>
       </c>
       <c r="Y328" t="n">
         <v>7</v>
@@ -27452,7 +27452,7 @@
         </is>
       </c>
       <c r="X329" t="n">
-        <v>0.002420100000051661</v>
+        <v>0.002568699999983437</v>
       </c>
       <c r="Y329" t="n">
         <v>10</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="X330" t="n">
-        <v>0.002068700000052104</v>
+        <v>0.0022031000000311</v>
       </c>
       <c r="Y330" t="n">
         <v>9</v>
@@ -27616,7 +27616,7 @@
         </is>
       </c>
       <c r="X331" t="n">
-        <v>0.002185100000019702</v>
+        <v>0.002277199999980439</v>
       </c>
       <c r="Y331" t="n">
         <v>9</v>
@@ -27698,7 +27698,7 @@
         </is>
       </c>
       <c r="X332" t="n">
-        <v>0.00360190000003513</v>
+        <v>0.003579199999990124</v>
       </c>
       <c r="Y332" t="n">
         <v>11</v>
@@ -27780,7 +27780,7 @@
         </is>
       </c>
       <c r="X333" t="n">
-        <v>0.002189499999985856</v>
+        <v>0.002264500000023872</v>
       </c>
       <c r="Y333" t="n">
         <v>9</v>
@@ -27862,7 +27862,7 @@
         </is>
       </c>
       <c r="X334" t="n">
-        <v>0.004237100000011651</v>
+        <v>0.002386199999989458</v>
       </c>
       <c r="Y334" t="n">
         <v>9</v>
@@ -27944,7 +27944,7 @@
         </is>
       </c>
       <c r="X335" t="n">
-        <v>0.002240300000039497</v>
+        <v>0.002225599999974293</v>
       </c>
       <c r="Y335" t="n">
         <v>9</v>
@@ -28026,7 +28026,7 @@
         </is>
       </c>
       <c r="X336" t="n">
-        <v>0.001913699999988694</v>
+        <v>0.001879900000005819</v>
       </c>
       <c r="Y336" t="n">
         <v>7</v>
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="X337" t="n">
-        <v>0.00186159999998381</v>
+        <v>0.00275579999998854</v>
       </c>
       <c r="Y337" t="n">
         <v>8</v>
@@ -28190,7 +28190,7 @@
         </is>
       </c>
       <c r="X338" t="n">
-        <v>0.00241539999996121</v>
+        <v>0.002490099999988615</v>
       </c>
       <c r="Y338" t="n">
         <v>10</v>
@@ -28272,7 +28272,7 @@
         </is>
       </c>
       <c r="X339" t="n">
-        <v>0.006651400000009744</v>
+        <v>0.002584500000011758</v>
       </c>
       <c r="Y339" t="n">
         <v>9</v>
@@ -28354,7 +28354,7 @@
         </is>
       </c>
       <c r="X340" t="n">
-        <v>0.002994499999999789</v>
+        <v>0.002889700000025641</v>
       </c>
       <c r="Y340" t="n">
         <v>12</v>
@@ -28436,7 +28436,7 @@
         </is>
       </c>
       <c r="X341" t="n">
-        <v>0.002158099999974183</v>
+        <v>0.002105599999993046</v>
       </c>
       <c r="Y341" t="n">
         <v>8</v>
@@ -28518,7 +28518,7 @@
         </is>
       </c>
       <c r="X342" t="n">
-        <v>0.003225899999961257</v>
+        <v>0.001985799999999927</v>
       </c>
       <c r="Y342" t="n">
         <v>8</v>
@@ -28600,7 +28600,7 @@
         </is>
       </c>
       <c r="X343" t="n">
-        <v>0.002360000000010132</v>
+        <v>0.002492099999983566</v>
       </c>
       <c r="Y343" t="n">
         <v>10</v>
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="X344" t="n">
-        <v>0.002224000000012438</v>
+        <v>0.003258599999981016</v>
       </c>
       <c r="Y344" t="n">
         <v>9</v>
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="X345" t="n">
-        <v>0.002970000000004802</v>
+        <v>0.003123799999968924</v>
       </c>
       <c r="Y345" t="n">
         <v>13</v>
@@ -28846,7 +28846,7 @@
         </is>
       </c>
       <c r="X346" t="n">
-        <v>0.002477600000020175</v>
+        <v>0.00256059999998115</v>
       </c>
       <c r="Y346" t="n">
         <v>10</v>
@@ -28928,7 +28928,7 @@
         </is>
       </c>
       <c r="X347" t="n">
-        <v>0.003101700000001983</v>
+        <v>0.003448900000023514</v>
       </c>
       <c r="Y347" t="n">
         <v>12</v>
@@ -29010,7 +29010,7 @@
         </is>
       </c>
       <c r="X348" t="n">
-        <v>0.001969699999960994</v>
+        <v>0.002005300000007537</v>
       </c>
       <c r="Y348" t="n">
         <v>8</v>
@@ -29092,7 +29092,7 @@
         </is>
       </c>
       <c r="X349" t="n">
-        <v>0.002855199999999058</v>
+        <v>0.00338329999999587</v>
       </c>
       <c r="Y349" t="n">
         <v>12</v>
@@ -29174,7 +29174,7 @@
         </is>
       </c>
       <c r="X350" t="n">
-        <v>0.005319299999996474</v>
+        <v>0.002547600000013972</v>
       </c>
       <c r="Y350" t="n">
         <v>11</v>
@@ -29256,7 +29256,7 @@
         </is>
       </c>
       <c r="X351" t="n">
-        <v>0.00199740000005022</v>
+        <v>0.002038500000026033</v>
       </c>
       <c r="Y351" t="n">
         <v>8</v>
@@ -29338,7 +29338,7 @@
         </is>
       </c>
       <c r="X352" t="n">
-        <v>0.003100200000005771</v>
+        <v>0.004254000000003089</v>
       </c>
       <c r="Y352" t="n">
         <v>13</v>
@@ -29420,7 +29420,7 @@
         </is>
       </c>
       <c r="X353" t="n">
-        <v>0.00275299999998424</v>
+        <v>0.00219809999998688</v>
       </c>
       <c r="Y353" t="n">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         </is>
       </c>
       <c r="X354" t="n">
-        <v>0.002536099999986163</v>
+        <v>0.0026817000000392</v>
       </c>
       <c r="Y354" t="n">
         <v>10</v>
@@ -29584,7 +29584,7 @@
         </is>
       </c>
       <c r="X355" t="n">
-        <v>0.00269900000000689</v>
+        <v>0.002566800000010971</v>
       </c>
       <c r="Y355" t="n">
         <v>11</v>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="X356" t="n">
-        <v>0.005097300000045379</v>
+        <v>0.003172799999958897</v>
       </c>
       <c r="Y356" t="n">
         <v>13</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="X357" t="n">
-        <v>0.003120899999998983</v>
+        <v>0.005382800000006682</v>
       </c>
       <c r="Y357" t="n">
         <v>13</v>
@@ -29830,7 +29830,7 @@
         </is>
       </c>
       <c r="X358" t="n">
-        <v>0.002709100000004128</v>
+        <v>0.002638900000022204</v>
       </c>
       <c r="Y358" t="n">
         <v>11</v>
@@ -29912,7 +29912,7 @@
         </is>
       </c>
       <c r="X359" t="n">
-        <v>0.002516600000035396</v>
+        <v>0.002665700000022753</v>
       </c>
       <c r="Y359" t="n">
         <v>11</v>
@@ -29994,7 +29994,7 @@
         </is>
       </c>
       <c r="X360" t="n">
-        <v>0.002228800000011688</v>
+        <v>0.002179699999999229</v>
       </c>
       <c r="Y360" t="n">
         <v>9</v>
@@ -30076,7 +30076,7 @@
         </is>
       </c>
       <c r="X361" t="n">
-        <v>0.003905299999985345</v>
+        <v>0.002634999999997945</v>
       </c>
       <c r="Y361" t="n">
         <v>11</v>
@@ -30158,7 +30158,7 @@
         </is>
       </c>
       <c r="X362" t="n">
-        <v>0.001948900000002141</v>
+        <v>0.00349850000003471</v>
       </c>
       <c r="Y362" t="n">
         <v>8</v>
@@ -30240,7 +30240,7 @@
         </is>
       </c>
       <c r="X363" t="n">
-        <v>0.003560300000003735</v>
+        <v>0.003032099999984439</v>
       </c>
       <c r="Y363" t="n">
         <v>13</v>
@@ -30322,7 +30322,7 @@
         </is>
       </c>
       <c r="X364" t="n">
-        <v>0.002981500000032611</v>
+        <v>0.003192399999988993</v>
       </c>
       <c r="Y364" t="n">
         <v>13</v>
@@ -30404,7 +30404,7 @@
         </is>
       </c>
       <c r="X365" t="n">
-        <v>0.002814899999975751</v>
+        <v>0.002775999999983014</v>
       </c>
       <c r="Y365" t="n">
         <v>12</v>
@@ -30486,7 +30486,7 @@
         </is>
       </c>
       <c r="X366" t="n">
-        <v>0.001841599999977461</v>
+        <v>0.00205230000000256</v>
       </c>
       <c r="Y366" t="n">
         <v>8</v>
@@ -30568,7 +30568,7 @@
         </is>
       </c>
       <c r="X367" t="n">
-        <v>0.003203400000018064</v>
+        <v>0.004462999999987005</v>
       </c>
       <c r="Y367" t="n">
         <v>13</v>
@@ -30650,7 +30650,7 @@
         </is>
       </c>
       <c r="X368" t="n">
-        <v>0.003633500000034928</v>
+        <v>0.002761000000020886</v>
       </c>
       <c r="Y368" t="n">
         <v>12</v>
@@ -30732,7 +30732,7 @@
         </is>
       </c>
       <c r="X369" t="n">
-        <v>0.001973500000019612</v>
+        <v>0.002061999999966702</v>
       </c>
       <c r="Y369" t="n">
         <v>8</v>
@@ -30814,7 +30814,7 @@
         </is>
       </c>
       <c r="X370" t="n">
-        <v>0.001751299999966704</v>
+        <v>0.001662500000009004</v>
       </c>
       <c r="Y370" t="n">
         <v>7</v>
@@ -30896,7 +30896,7 @@
         </is>
       </c>
       <c r="X371" t="n">
-        <v>0.002798600000005536</v>
+        <v>0.002665800000045238</v>
       </c>
       <c r="Y371" t="n">
         <v>11</v>
@@ -30978,7 +30978,7 @@
         </is>
       </c>
       <c r="X372" t="n">
-        <v>0.002867899999955625</v>
+        <v>0.004247099999986403</v>
       </c>
       <c r="Y372" t="n">
         <v>12</v>
@@ -31060,7 +31060,7 @@
         </is>
       </c>
       <c r="X373" t="n">
-        <v>0.003079999999954453</v>
+        <v>0.002636800000004769</v>
       </c>
       <c r="Y373" t="n">
         <v>11</v>
@@ -31142,7 +31142,7 @@
         </is>
       </c>
       <c r="X374" t="n">
-        <v>0.002139899999974659</v>
+        <v>0.002698899999984405</v>
       </c>
       <c r="Y374" t="n">
         <v>9</v>
@@ -31224,7 +31224,7 @@
         </is>
       </c>
       <c r="X375" t="n">
-        <v>0.003730300000029274</v>
+        <v>0.003034599999978127</v>
       </c>
       <c r="Y375" t="n">
         <v>13</v>
@@ -31306,7 +31306,7 @@
         </is>
       </c>
       <c r="X376" t="n">
-        <v>0.002383399999985159</v>
+        <v>0.002438100000006216</v>
       </c>
       <c r="Y376" t="n">
         <v>10</v>
@@ -31388,7 +31388,7 @@
         </is>
       </c>
       <c r="X377" t="n">
-        <v>0.002154399999994894</v>
+        <v>0.003550899999993362</v>
       </c>
       <c r="Y377" t="n">
         <v>8</v>
@@ -31470,7 +31470,7 @@
         </is>
       </c>
       <c r="X378" t="n">
-        <v>0.002974600000015926</v>
+        <v>0.003084099999966838</v>
       </c>
       <c r="Y378" t="n">
         <v>13</v>
@@ -31552,7 +31552,7 @@
         </is>
       </c>
       <c r="X379" t="n">
-        <v>0.003029800000035721</v>
+        <v>0.003072400000007747</v>
       </c>
       <c r="Y379" t="n">
         <v>12</v>
@@ -31634,7 +31634,7 @@
         </is>
       </c>
       <c r="X380" t="n">
-        <v>0.001904700000011417</v>
+        <v>0.001904699999954573</v>
       </c>
       <c r="Y380" t="n">
         <v>8</v>
@@ -31716,7 +31716,7 @@
         </is>
       </c>
       <c r="X381" t="n">
-        <v>0.002491299999974217</v>
+        <v>0.002469299999972918</v>
       </c>
       <c r="Y381" t="n">
         <v>10</v>
@@ -31798,7 +31798,7 @@
         </is>
       </c>
       <c r="X382" t="n">
-        <v>0.003028900000003887</v>
+        <v>0.004678799999965122</v>
       </c>
       <c r="Y382" t="n">
         <v>13</v>
@@ -31880,7 +31880,7 @@
         </is>
       </c>
       <c r="X383" t="n">
-        <v>0.002709300000049097</v>
+        <v>0.002588500000001659</v>
       </c>
       <c r="Y383" t="n">
         <v>11</v>
@@ -31962,7 +31962,7 @@
         </is>
       </c>
       <c r="X384" t="n">
-        <v>0.002657999999996719</v>
+        <v>0.002487400000006801</v>
       </c>
       <c r="Y384" t="n">
         <v>10</v>
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="X385" t="n">
-        <v>0.00239750000002914</v>
+        <v>0.002070199999991473</v>
       </c>
       <c r="Y385" t="n">
         <v>9</v>
@@ -32126,7 +32126,7 @@
         </is>
       </c>
       <c r="X386" t="n">
-        <v>0.004957100000012815</v>
+        <v>0.002919500000018616</v>
       </c>
       <c r="Y386" t="n">
         <v>12</v>
@@ -32208,7 +32208,7 @@
         </is>
       </c>
       <c r="X387" t="n">
-        <v>0.002231499999993503</v>
+        <v>0.003157199999975546</v>
       </c>
       <c r="Y387" t="n">
         <v>9</v>
@@ -32290,7 +32290,7 @@
         </is>
       </c>
       <c r="X388" t="n">
-        <v>0.003076700000008259</v>
+        <v>0.003301799999974264</v>
       </c>
       <c r="Y388" t="n">
         <v>13</v>
@@ -32372,7 +32372,7 @@
         </is>
       </c>
       <c r="X389" t="n">
-        <v>0.002065000000015971</v>
+        <v>0.002277999999989788</v>
       </c>
       <c r="Y389" t="n">
         <v>9</v>
@@ -32454,7 +32454,7 @@
         </is>
       </c>
       <c r="X390" t="n">
-        <v>0.002876799999967261</v>
+        <v>0.00336320000002388</v>
       </c>
       <c r="Y390" t="n">
         <v>12</v>
@@ -32536,7 +32536,7 @@
         </is>
       </c>
       <c r="X391" t="n">
-        <v>0.002361899999982597</v>
+        <v>0.002035299999988638</v>
       </c>
       <c r="Y391" t="n">
         <v>8</v>
@@ -32618,7 +32618,7 @@
         </is>
       </c>
       <c r="X392" t="n">
-        <v>0.003047999999978401</v>
+        <v>0.00381729999998015</v>
       </c>
       <c r="Y392" t="n">
         <v>13</v>
@@ -32700,7 +32700,7 @@
         </is>
       </c>
       <c r="X393" t="n">
-        <v>0.002526200000033896</v>
+        <v>0.002225099999975555</v>
       </c>
       <c r="Y393" t="n">
         <v>9</v>
@@ -32782,7 +32782,7 @@
         </is>
       </c>
       <c r="X394" t="n">
-        <v>0.002108000000021093</v>
+        <v>0.002132200000005469</v>
       </c>
       <c r="Y394" t="n">
         <v>8</v>
@@ -32864,7 +32864,7 @@
         </is>
       </c>
       <c r="X395" t="n">
-        <v>0.002523199999984627</v>
+        <v>0.002348900000015419</v>
       </c>
       <c r="Y395" t="n">
         <v>10</v>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="X396" t="n">
-        <v>0.00459670000003598</v>
+        <v>0.002517500000010386</v>
       </c>
       <c r="Y396" t="n">
         <v>10</v>
@@ -33028,7 +33028,7 @@
         </is>
       </c>
       <c r="X397" t="n">
-        <v>0.002149699999961285</v>
+        <v>0.003723899999954483</v>
       </c>
       <c r="Y397" t="n">
         <v>9</v>
@@ -33110,7 +33110,7 @@
         </is>
       </c>
       <c r="X398" t="n">
-        <v>0.003104699999994409</v>
+        <v>0.003040799999951105</v>
       </c>
       <c r="Y398" t="n">
         <v>13</v>
@@ -33192,7 +33192,7 @@
         </is>
       </c>
       <c r="X399" t="n">
-        <v>0.002039200000012897</v>
+        <v>0.001969900000005964</v>
       </c>
       <c r="Y399" t="n">
         <v>8</v>
@@ -33274,7 +33274,7 @@
         </is>
       </c>
       <c r="X400" t="n">
-        <v>0.001990999999975429</v>
+        <v>0.004540599999984352</v>
       </c>
       <c r="Y400" t="n">
         <v>8</v>
@@ -33356,7 +33356,7 @@
         </is>
       </c>
       <c r="X401" t="n">
-        <v>0.004087099999992461</v>
+        <v>0.002182500000003529</v>
       </c>
       <c r="Y401" t="n">
         <v>9</v>
@@ -33520,7 +33520,7 @@
         </is>
       </c>
       <c r="X403" t="n">
-        <v>0.002638799999999719</v>
+        <v>0.002598100000000159</v>
       </c>
       <c r="Y403" t="n">
         <v>11</v>
@@ -33602,7 +33602,7 @@
         </is>
       </c>
       <c r="X404" t="n">
-        <v>0.002563600000030419</v>
+        <v>0.002754700000025423</v>
       </c>
       <c r="Y404" t="n">
         <v>11</v>
@@ -33684,7 +33684,7 @@
         </is>
       </c>
       <c r="X405" t="n">
-        <v>0.003556000000003223</v>
+        <v>0.004436199999986457</v>
       </c>
       <c r="Y405" t="n">
         <v>12</v>
@@ -33766,7 +33766,7 @@
         </is>
       </c>
       <c r="X406" t="n">
-        <v>0.004597300000000359</v>
+        <v>0.002817500000048767</v>
       </c>
       <c r="Y406" t="n">
         <v>12</v>
@@ -33848,7 +33848,7 @@
         </is>
       </c>
       <c r="X407" t="n">
-        <v>0.00219720000001189</v>
+        <v>0.002379200000007131</v>
       </c>
       <c r="Y407" t="n">
         <v>9</v>
@@ -33930,7 +33930,7 @@
         </is>
       </c>
       <c r="X408" t="n">
-        <v>0.003113799999994171</v>
+        <v>0.002828999999962889</v>
       </c>
       <c r="Y408" t="n">
         <v>12</v>
@@ -34012,7 +34012,7 @@
         </is>
       </c>
       <c r="X409" t="n">
-        <v>0.002552799999989475</v>
+        <v>0.00281089999998585</v>
       </c>
       <c r="Y409" t="n">
         <v>11</v>
@@ -34094,7 +34094,7 @@
         </is>
       </c>
       <c r="X410" t="n">
-        <v>0.003236200000003464</v>
+        <v>0.00323219999995672</v>
       </c>
       <c r="Y410" t="n">
         <v>13</v>
@@ -34176,7 +34176,7 @@
         </is>
       </c>
       <c r="X411" t="n">
-        <v>0.002312000000017633</v>
+        <v>0.00200790000002371</v>
       </c>
       <c r="Y411" t="n">
         <v>8</v>
@@ -34258,7 +34258,7 @@
         </is>
       </c>
       <c r="X412" t="n">
-        <v>0.003151600000023791</v>
+        <v>0.003349599999978636</v>
       </c>
       <c r="Y412" t="n">
         <v>14</v>
@@ -34340,7 +34340,7 @@
         </is>
       </c>
       <c r="X413" t="n">
-        <v>0.002729400000021087</v>
+        <v>0.004336899999998423</v>
       </c>
       <c r="Y413" t="n">
         <v>11</v>
@@ -34422,7 +34422,7 @@
         </is>
       </c>
       <c r="X414" t="n">
-        <v>0.00184519999999111</v>
+        <v>0.002060900000003585</v>
       </c>
       <c r="Y414" t="n">
         <v>8</v>
@@ -34504,7 +34504,7 @@
         </is>
       </c>
       <c r="X415" t="n">
-        <v>0.002163499999994656</v>
+        <v>0.002724300000011226</v>
       </c>
       <c r="Y415" t="n">
         <v>9</v>
@@ -34586,7 +34586,7 @@
         </is>
       </c>
       <c r="X416" t="n">
-        <v>0.002940099999989343</v>
+        <v>0.00327420000002121</v>
       </c>
       <c r="Y416" t="n">
         <v>13</v>
@@ -34668,7 +34668,7 @@
         </is>
       </c>
       <c r="X417" t="n">
-        <v>0.002202800000020488</v>
+        <v>0.002249800000015512</v>
       </c>
       <c r="Y417" t="n">
         <v>9</v>
@@ -34750,7 +34750,7 @@
         </is>
       </c>
       <c r="X418" t="n">
-        <v>0.004147900000020854</v>
+        <v>0.003547099999991588</v>
       </c>
       <c r="Y418" t="n">
         <v>10</v>
@@ -34832,7 +34832,7 @@
         </is>
       </c>
       <c r="X419" t="n">
-        <v>0.002062200000011671</v>
+        <v>0.002065000000015971</v>
       </c>
       <c r="Y419" t="n">
         <v>8</v>
@@ -34914,7 +34914,7 @@
         </is>
       </c>
       <c r="X420" t="n">
-        <v>0.002726300000006177</v>
+        <v>0.002744499999948857</v>
       </c>
       <c r="Y420" t="n">
         <v>11</v>
@@ -34996,7 +34996,7 @@
         </is>
       </c>
       <c r="X421" t="n">
-        <v>0.00222719999999299</v>
+        <v>0.002201899999988655</v>
       </c>
       <c r="Y421" t="n">
         <v>9</v>
@@ -35078,7 +35078,7 @@
         </is>
       </c>
       <c r="X422" t="n">
-        <v>0.002707400000019788</v>
+        <v>0.002788500000008298</v>
       </c>
       <c r="Y422" t="n">
         <v>11</v>
@@ -35160,7 +35160,7 @@
         </is>
       </c>
       <c r="X423" t="n">
-        <v>0.00312619999999697</v>
+        <v>0.002792400000032558</v>
       </c>
       <c r="Y423" t="n">
         <v>9</v>
@@ -35242,7 +35242,7 @@
         </is>
       </c>
       <c r="X424" t="n">
-        <v>0.001999500000010812</v>
+        <v>0.002081000000032418</v>
       </c>
       <c r="Y424" t="n">
         <v>8</v>
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="X425" t="n">
-        <v>0.003615499999966687</v>
+        <v>0.003566199999966102</v>
       </c>
       <c r="Y425" t="n">
         <v>13</v>
@@ -35406,7 +35406,7 @@
         </is>
       </c>
       <c r="X426" t="n">
-        <v>0.002281399999958467</v>
+        <v>0.002487599999994927</v>
       </c>
       <c r="Y426" t="n">
         <v>10</v>
@@ -35488,7 +35488,7 @@
         </is>
       </c>
       <c r="X427" t="n">
-        <v>0.002958100000000741</v>
+        <v>0.002919300000030489</v>
       </c>
       <c r="Y427" t="n">
         <v>12</v>
@@ -35570,7 +35570,7 @@
         </is>
       </c>
       <c r="X428" t="n">
-        <v>0.002768800000012561</v>
+        <v>0.003729099999986829</v>
       </c>
       <c r="Y428" t="n">
         <v>11</v>
@@ -35652,7 +35652,7 @@
         </is>
       </c>
       <c r="X429" t="n">
-        <v>0.002392899999961173</v>
+        <v>0.002554999999972551</v>
       </c>
       <c r="Y429" t="n">
         <v>10</v>
@@ -35734,7 +35734,7 @@
         </is>
       </c>
       <c r="X430" t="n">
-        <v>0.001901999999972759</v>
+        <v>0.002264900000000125</v>
       </c>
       <c r="Y430" t="n">
         <v>8</v>
@@ -35816,7 +35816,7 @@
         </is>
       </c>
       <c r="X431" t="n">
-        <v>0.002820100000008097</v>
+        <v>0.002794400000027508</v>
       </c>
       <c r="Y431" t="n">
         <v>12</v>
@@ -35898,7 +35898,7 @@
         </is>
       </c>
       <c r="X432" t="n">
-        <v>0.003473100000007889</v>
+        <v>0.003296599999998762</v>
       </c>
       <c r="Y432" t="n">
         <v>14</v>
@@ -35980,7 +35980,7 @@
         </is>
       </c>
       <c r="X433" t="n">
-        <v>0.002981400000010126</v>
+        <v>0.004166699999984758</v>
       </c>
       <c r="Y433" t="n">
         <v>13</v>
@@ -36062,7 +36062,7 @@
         </is>
       </c>
       <c r="X434" t="n">
-        <v>0.002847899999949277</v>
+        <v>0.002144499999985783</v>
       </c>
       <c r="Y434" t="n">
         <v>9</v>
@@ -36144,7 +36144,7 @@
         </is>
       </c>
       <c r="X435" t="n">
-        <v>0.002008100000011837</v>
+        <v>0.00218369999998913</v>
       </c>
       <c r="Y435" t="n">
         <v>8</v>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="X436" t="n">
-        <v>0.003119900000001508</v>
+        <v>0.002494200000001001</v>
       </c>
       <c r="Y436" t="n">
         <v>11</v>
@@ -36308,7 +36308,7 @@
         </is>
       </c>
       <c r="X437" t="n">
-        <v>0.002315599999974438</v>
+        <v>0.00246110000000499</v>
       </c>
       <c r="Y437" t="n">
         <v>10</v>
@@ -36390,7 +36390,7 @@
         </is>
       </c>
       <c r="X438" t="n">
-        <v>0.002501999999992677</v>
+        <v>0.003313300000002073</v>
       </c>
       <c r="Y438" t="n">
         <v>10</v>
@@ -36472,7 +36472,7 @@
         </is>
       </c>
       <c r="X439" t="n">
-        <v>0.002961199999958808</v>
+        <v>0.003035399999987476</v>
       </c>
       <c r="Y439" t="n">
         <v>13</v>
@@ -36554,7 +36554,7 @@
         </is>
       </c>
       <c r="X440" t="n">
-        <v>0.00196019999998498</v>
+        <v>0.002013700000020435</v>
       </c>
       <c r="Y440" t="n">
         <v>8</v>
@@ -36636,7 +36636,7 @@
         </is>
       </c>
       <c r="X441" t="n">
-        <v>0.002203899999983605</v>
+        <v>0.002322499999991123</v>
       </c>
       <c r="Y441" t="n">
         <v>9</v>
@@ -36718,7 +36718,7 @@
         </is>
       </c>
       <c r="X442" t="n">
-        <v>0.00228140000001531</v>
+        <v>0.002228000000002339</v>
       </c>
       <c r="Y442" t="n">
         <v>9</v>
@@ -36800,7 +36800,7 @@
         </is>
       </c>
       <c r="X443" t="n">
-        <v>0.002044099999977789</v>
+        <v>0.002818099999956303</v>
       </c>
       <c r="Y443" t="n">
         <v>9</v>
@@ -36882,7 +36882,7 @@
         </is>
       </c>
       <c r="X444" t="n">
-        <v>0.002035299999988638</v>
+        <v>0.002028399999971953</v>
       </c>
       <c r="Y444" t="n">
         <v>8</v>
@@ -36964,7 +36964,7 @@
         </is>
       </c>
       <c r="X445" t="n">
-        <v>0.001997899999992114</v>
+        <v>0.002506499999981315</v>
       </c>
       <c r="Y445" t="n">
         <v>8</v>
@@ -37046,7 +37046,7 @@
         </is>
       </c>
       <c r="X446" t="n">
-        <v>0.002613100000019131</v>
+        <v>0.00257350000003953</v>
       </c>
       <c r="Y446" t="n">
         <v>11</v>
@@ -37128,7 +37128,7 @@
         </is>
       </c>
       <c r="X447" t="n">
-        <v>0.002130700000009256</v>
+        <v>0.002010300000051757</v>
       </c>
       <c r="Y447" t="n">
         <v>8</v>
@@ -37210,7 +37210,7 @@
         </is>
       </c>
       <c r="X448" t="n">
-        <v>0.00311260000000857</v>
+        <v>0.003125699999998233</v>
       </c>
       <c r="Y448" t="n">
         <v>13</v>
@@ -37292,7 +37292,7 @@
         </is>
       </c>
       <c r="X449" t="n">
-        <v>0.003735500000004777</v>
+        <v>0.003297299999985626</v>
       </c>
       <c r="Y449" t="n">
         <v>13</v>
@@ -37374,7 +37374,7 @@
         </is>
       </c>
       <c r="X450" t="n">
-        <v>0.002957299999991392</v>
+        <v>0.003221100000018851</v>
       </c>
       <c r="Y450" t="n">
         <v>13</v>
@@ -37456,7 +37456,7 @@
         </is>
       </c>
       <c r="X451" t="n">
-        <v>0.003189200000008441</v>
+        <v>0.003241399999978967</v>
       </c>
       <c r="Y451" t="n">
         <v>13</v>
@@ -37538,7 +37538,7 @@
         </is>
       </c>
       <c r="X452" t="n">
-        <v>0.002960700000016914</v>
+        <v>0.003122299999972711</v>
       </c>
       <c r="Y452" t="n">
         <v>13</v>
@@ -37620,7 +37620,7 @@
         </is>
       </c>
       <c r="X453" t="n">
-        <v>0.002819499999986874</v>
+        <v>0.004353600000001734</v>
       </c>
       <c r="Y453" t="n">
         <v>12</v>
@@ -37702,7 +37702,7 @@
         </is>
       </c>
       <c r="X454" t="n">
-        <v>0.002961599999991904</v>
+        <v>0.003014699999994264</v>
       </c>
       <c r="Y454" t="n">
         <v>13</v>
@@ -37784,7 +37784,7 @@
         </is>
       </c>
       <c r="X455" t="n">
-        <v>0.003009700000006887</v>
+        <v>0.003111899999964862</v>
       </c>
       <c r="Y455" t="n">
         <v>13</v>
@@ -37866,7 +37866,7 @@
         </is>
       </c>
       <c r="X456" t="n">
-        <v>0.003823000000011234</v>
+        <v>0.005049799999994775</v>
       </c>
       <c r="Y456" t="n">
         <v>13</v>
@@ -37948,7 +37948,7 @@
         </is>
       </c>
       <c r="X457" t="n">
-        <v>0.002492599999982303</v>
+        <v>0.002669500000024527</v>
       </c>
       <c r="Y457" t="n">
         <v>11</v>
@@ -38030,7 +38030,7 @@
         </is>
       </c>
       <c r="X458" t="n">
-        <v>0.002540400000043519</v>
+        <v>0.002451300000018364</v>
       </c>
       <c r="Y458" t="n">
         <v>10</v>
@@ -38112,7 +38112,7 @@
         </is>
       </c>
       <c r="X459" t="n">
-        <v>0.001970499999970343</v>
+        <v>0.00191499999999678</v>
       </c>
       <c r="Y459" t="n">
         <v>8</v>
@@ -38194,7 +38194,7 @@
         </is>
       </c>
       <c r="X460" t="n">
-        <v>0.001997399999993377</v>
+        <v>0.001993900000002213</v>
       </c>
       <c r="Y460" t="n">
         <v>8</v>
@@ -38276,7 +38276,7 @@
         </is>
       </c>
       <c r="X461" t="n">
-        <v>0.003098099999988335</v>
+        <v>0.003097000000025218</v>
       </c>
       <c r="Y461" t="n">
         <v>13</v>
@@ -38358,7 +38358,7 @@
         </is>
       </c>
       <c r="X462" t="n">
-        <v>0.002319499999998698</v>
+        <v>0.002193900000008853</v>
       </c>
       <c r="Y462" t="n">
         <v>9</v>
@@ -38440,7 +38440,7 @@
         </is>
       </c>
       <c r="X463" t="n">
-        <v>0.00171579999999949</v>
+        <v>0.002563100000031682</v>
       </c>
       <c r="Y463" t="n">
         <v>7</v>
@@ -38522,7 +38522,7 @@
         </is>
       </c>
       <c r="X464" t="n">
-        <v>0.002262200000018311</v>
+        <v>0.002196400000002541</v>
       </c>
       <c r="Y464" t="n">
         <v>9</v>
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="X465" t="n">
-        <v>0.002178299999968658</v>
+        <v>0.002267900000049394</v>
       </c>
       <c r="Y465" t="n">
         <v>9</v>
@@ -38686,7 +38686,7 @@
         </is>
       </c>
       <c r="X466" t="n">
-        <v>0.002980000000036398</v>
+        <v>0.002750000000048658</v>
       </c>
       <c r="Y466" t="n">
         <v>12</v>
@@ -38768,7 +38768,7 @@
         </is>
       </c>
       <c r="X467" t="n">
-        <v>0.003183700000022327</v>
+        <v>0.003145099999983358</v>
       </c>
       <c r="Y467" t="n">
         <v>13</v>
@@ -38850,7 +38850,7 @@
         </is>
       </c>
       <c r="X468" t="n">
-        <v>0.002952499999992142</v>
+        <v>0.004683300000010604</v>
       </c>
       <c r="Y468" t="n">
         <v>12</v>
@@ -38932,7 +38932,7 @@
         </is>
       </c>
       <c r="X469" t="n">
-        <v>0.002254100000016024</v>
+        <v>0.002107200000011744</v>
       </c>
       <c r="Y469" t="n">
         <v>9</v>
@@ -39014,7 +39014,7 @@
         </is>
       </c>
       <c r="X470" t="n">
-        <v>0.002948200000048473</v>
+        <v>0.003231000000027962</v>
       </c>
       <c r="Y470" t="n">
         <v>13</v>
@@ -39096,7 +39096,7 @@
         </is>
       </c>
       <c r="X471" t="n">
-        <v>0.001938600000016777</v>
+        <v>0.001936600000021826</v>
       </c>
       <c r="Y471" t="n">
         <v>8</v>
@@ -39178,7 +39178,7 @@
         </is>
       </c>
       <c r="X472" t="n">
-        <v>0.002768800000012561</v>
+        <v>0.002832899999987148</v>
       </c>
       <c r="Y472" t="n">
         <v>12</v>
@@ -39260,7 +39260,7 @@
         </is>
       </c>
       <c r="X473" t="n">
-        <v>0.002652800000021216</v>
+        <v>0.004703700000050048</v>
       </c>
       <c r="Y473" t="n">
         <v>11</v>
@@ -39342,7 +39342,7 @@
         </is>
       </c>
       <c r="X474" t="n">
-        <v>0.002470299999970393</v>
+        <v>0.002580999999963751</v>
       </c>
       <c r="Y474" t="n">
         <v>11</v>
@@ -39424,7 +39424,7 @@
         </is>
       </c>
       <c r="X475" t="n">
-        <v>0.00280040000001236</v>
+        <v>0.002972400000032849</v>
       </c>
       <c r="Y475" t="n">
         <v>12</v>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="X476" t="n">
-        <v>0.002302799999995386</v>
+        <v>0.00241190000002689</v>
       </c>
       <c r="Y476" t="n">
         <v>10</v>
@@ -39588,7 +39588,7 @@
         </is>
       </c>
       <c r="X477" t="n">
-        <v>0.00248119999997698</v>
+        <v>0.00245260000002645</v>
       </c>
       <c r="Y477" t="n">
         <v>10</v>
@@ -39670,7 +39670,7 @@
         </is>
       </c>
       <c r="X478" t="n">
-        <v>0.002365199999985634</v>
+        <v>0.003451400000017202</v>
       </c>
       <c r="Y478" t="n">
         <v>9</v>
@@ -39752,7 +39752,7 @@
         </is>
       </c>
       <c r="X479" t="n">
-        <v>0.002929800000003979</v>
+        <v>0.002922500000011041</v>
       </c>
       <c r="Y479" t="n">
         <v>12</v>
@@ -39834,7 +39834,7 @@
         </is>
       </c>
       <c r="X480" t="n">
-        <v>0.002246099999979378</v>
+        <v>0.002071199999988949</v>
       </c>
       <c r="Y480" t="n">
         <v>8</v>
@@ -39916,7 +39916,7 @@
         </is>
       </c>
       <c r="X481" t="n">
-        <v>0.003077300000029481</v>
+        <v>0.003186800000037238</v>
       </c>
       <c r="Y481" t="n">
         <v>13</v>
@@ -39998,7 +39998,7 @@
         </is>
       </c>
       <c r="X482" t="n">
-        <v>0.002447099999983493</v>
+        <v>0.00243879999999308</v>
       </c>
       <c r="Y482" t="n">
         <v>10</v>
@@ -40080,7 +40080,7 @@
         </is>
       </c>
       <c r="X483" t="n">
-        <v>0.003212200000007215</v>
+        <v>0.005097599999999147</v>
       </c>
       <c r="Y483" t="n">
         <v>14</v>
@@ -40162,7 +40162,7 @@
         </is>
       </c>
       <c r="X484" t="n">
-        <v>0.002188300000000254</v>
+        <v>0.002105700000015531</v>
       </c>
       <c r="Y484" t="n">
         <v>9</v>
@@ -40244,7 +40244,7 @@
         </is>
       </c>
       <c r="X485" t="n">
-        <v>0.002986099999986891</v>
+        <v>0.003305500000010397</v>
       </c>
       <c r="Y485" t="n">
         <v>13</v>
@@ -40326,7 +40326,7 @@
         </is>
       </c>
       <c r="X486" t="n">
-        <v>0.002618799999993371</v>
+        <v>0.003087599999958002</v>
       </c>
       <c r="Y486" t="n">
         <v>11</v>
@@ -40408,7 +40408,7 @@
         </is>
       </c>
       <c r="X487" t="n">
-        <v>0.003241099999968355</v>
+        <v>0.002472599999975955</v>
       </c>
       <c r="Y487" t="n">
         <v>10</v>
@@ -40490,7 +40490,7 @@
         </is>
       </c>
       <c r="X488" t="n">
-        <v>0.001914900000031139</v>
+        <v>0.002425799999969058</v>
       </c>
       <c r="Y488" t="n">
         <v>8</v>
@@ -40572,7 +40572,7 @@
         </is>
       </c>
       <c r="X489" t="n">
-        <v>0.003535699999986264</v>
+        <v>0.002749800000003688</v>
       </c>
       <c r="Y489" t="n">
         <v>12</v>
@@ -40654,7 +40654,7 @@
         </is>
       </c>
       <c r="X490" t="n">
-        <v>0.002328299999987848</v>
+        <v>0.002364400000033129</v>
       </c>
       <c r="Y490" t="n">
         <v>10</v>
@@ -40736,7 +40736,7 @@
         </is>
       </c>
       <c r="X491" t="n">
-        <v>0.002542699999992237</v>
+        <v>0.003097100000047703</v>
       </c>
       <c r="Y491" t="n">
         <v>9</v>
@@ -40818,7 +40818,7 @@
         </is>
       </c>
       <c r="X492" t="n">
-        <v>0.001891199999988658</v>
+        <v>0.001961200000039298</v>
       </c>
       <c r="Y492" t="n">
         <v>8</v>
@@ -40900,7 +40900,7 @@
         </is>
       </c>
       <c r="X493" t="n">
-        <v>0.00206279999997605</v>
+        <v>0.002552500000035707</v>
       </c>
       <c r="Y493" t="n">
         <v>8</v>
@@ -40982,7 +40982,7 @@
         </is>
       </c>
       <c r="X494" t="n">
-        <v>0.002759500000024673</v>
+        <v>0.002779099999997925</v>
       </c>
       <c r="Y494" t="n">
         <v>12</v>
@@ -41064,7 +41064,7 @@
         </is>
       </c>
       <c r="X495" t="n">
-        <v>0.002236400000015237</v>
+        <v>0.002342599999963113</v>
       </c>
       <c r="Y495" t="n">
         <v>9</v>
@@ -41146,7 +41146,7 @@
         </is>
       </c>
       <c r="X496" t="n">
-        <v>0.001866699999993671</v>
+        <v>0.001856900000007045</v>
       </c>
       <c r="Y496" t="n">
         <v>8</v>
@@ -41228,7 +41228,7 @@
         </is>
       </c>
       <c r="X497" t="n">
-        <v>0.002214699999967706</v>
+        <v>0.002362199999993209</v>
       </c>
       <c r="Y497" t="n">
         <v>9</v>
@@ -41310,7 +41310,7 @@
         </is>
       </c>
       <c r="X498" t="n">
-        <v>0.002941599999985556</v>
+        <v>0.004524000000003525</v>
       </c>
       <c r="Y498" t="n">
         <v>13</v>
@@ -41392,7 +41392,7 @@
         </is>
       </c>
       <c r="X499" t="n">
-        <v>0.002236499999980879</v>
+        <v>0.002207100000021001</v>
       </c>
       <c r="Y499" t="n">
         <v>9</v>
@@ -41474,7 +41474,7 @@
         </is>
       </c>
       <c r="X500" t="n">
-        <v>0.001900900000009642</v>
+        <v>0.002060599999992974</v>
       </c>
       <c r="Y500" t="n">
         <v>8</v>
@@ -41556,7 +41556,7 @@
         </is>
       </c>
       <c r="X501" t="n">
-        <v>0.002657400000032339</v>
+        <v>0.002639800000054038</v>
       </c>
       <c r="Y501" t="n">
         <v>11</v>
@@ -41638,7 +41638,7 @@
         </is>
       </c>
       <c r="X502" t="n">
-        <v>0.001908500000013191</v>
+        <v>0.002039700000011635</v>
       </c>
       <c r="Y502" t="n">
         <v>8</v>
@@ -41720,7 +41720,7 @@
         </is>
       </c>
       <c r="X503" t="n">
-        <v>0.001974599999982729</v>
+        <v>0.002529799999990701</v>
       </c>
       <c r="Y503" t="n">
         <v>8</v>
@@ -41802,7 +41802,7 @@
         </is>
       </c>
       <c r="X504" t="n">
-        <v>0.002918899999997393</v>
+        <v>0.003122600000040165</v>
       </c>
       <c r="Y504" t="n">
         <v>13</v>
@@ -41884,7 +41884,7 @@
         </is>
       </c>
       <c r="X505" t="n">
-        <v>0.00288460000001578</v>
+        <v>0.003077599999983249</v>
       </c>
       <c r="Y505" t="n">
         <v>12</v>
@@ -41966,7 +41966,7 @@
         </is>
       </c>
       <c r="X506" t="n">
-        <v>0.002228600000023562</v>
+        <v>0.002446200000008503</v>
       </c>
       <c r="Y506" t="n">
         <v>10</v>
@@ -42048,7 +42048,7 @@
         </is>
       </c>
       <c r="X507" t="n">
-        <v>0.002179399999988618</v>
+        <v>0.002335899999991398</v>
       </c>
       <c r="Y507" t="n">
         <v>9</v>
@@ -42130,7 +42130,7 @@
         </is>
       </c>
       <c r="X508" t="n">
-        <v>0.001967400000012276</v>
+        <v>0.002493600000036622</v>
       </c>
       <c r="Y508" t="n">
         <v>8</v>
@@ -42212,7 +42212,7 @@
         </is>
       </c>
       <c r="X509" t="n">
-        <v>0.001939199999981156</v>
+        <v>0.002048300000012659</v>
       </c>
       <c r="Y509" t="n">
         <v>8</v>
@@ -42294,7 +42294,7 @@
         </is>
       </c>
       <c r="X510" t="n">
-        <v>0.00238089999999147</v>
+        <v>0.003731200000004264</v>
       </c>
       <c r="Y510" t="n">
         <v>9</v>
@@ -42376,7 +42376,7 @@
         </is>
       </c>
       <c r="X511" t="n">
-        <v>0.002586099999973612</v>
+        <v>0.003009700000006887</v>
       </c>
       <c r="Y511" t="n">
         <v>11</v>
@@ -42458,7 +42458,7 @@
         </is>
       </c>
       <c r="X512" t="n">
-        <v>0.002498800000012125</v>
+        <v>0.002151599999990594</v>
       </c>
       <c r="Y512" t="n">
         <v>8</v>
@@ -42540,7 +42540,7 @@
         </is>
       </c>
       <c r="X513" t="n">
-        <v>0.002072999999995773</v>
+        <v>0.002120200000035766</v>
       </c>
       <c r="Y513" t="n">
         <v>9</v>
@@ -42622,7 +42622,7 @@
         </is>
       </c>
       <c r="X514" t="n">
-        <v>0.002664900000013404</v>
+        <v>0.002262499999972079</v>
       </c>
       <c r="Y514" t="n">
         <v>9</v>
@@ -42704,7 +42704,7 @@
         </is>
       </c>
       <c r="X515" t="n">
-        <v>0.001875600000005306</v>
+        <v>0.003217299999960233</v>
       </c>
       <c r="Y515" t="n">
         <v>8</v>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="X516" t="n">
-        <v>0.002435400000024401</v>
+        <v>0.001968700000020362</v>
       </c>
       <c r="Y516" t="n">
         <v>8</v>
@@ -42868,7 +42868,7 @@
         </is>
       </c>
       <c r="X517" t="n">
-        <v>0.003029500000025109</v>
+        <v>0.003281500000014148</v>
       </c>
       <c r="Y517" t="n">
         <v>13</v>
@@ -42950,7 +42950,7 @@
         </is>
       </c>
       <c r="X518" t="n">
-        <v>0.002254100000016024</v>
+        <v>0.002076200000033168</v>
       </c>
       <c r="Y518" t="n">
         <v>9</v>
@@ -43032,7 +43032,7 @@
         </is>
       </c>
       <c r="X519" t="n">
-        <v>0.002011499999980515</v>
+        <v>0.001936099999966245</v>
       </c>
       <c r="Y519" t="n">
         <v>8</v>
@@ -43114,7 +43114,7 @@
         </is>
       </c>
       <c r="X520" t="n">
-        <v>0.002747499999998126</v>
+        <v>0.002554300000042531</v>
       </c>
       <c r="Y520" t="n">
         <v>11</v>
@@ -43196,7 +43196,7 @@
         </is>
       </c>
       <c r="X521" t="n">
-        <v>0.002295600000024933</v>
+        <v>0.002394899999956124</v>
       </c>
       <c r="Y521" t="n">
         <v>10</v>
@@ -43278,7 +43278,7 @@
         </is>
       </c>
       <c r="X522" t="n">
-        <v>0.002018300000031559</v>
+        <v>0.003702900000007503</v>
       </c>
       <c r="Y522" t="n">
         <v>8</v>
@@ -43360,7 +43360,7 @@
         </is>
       </c>
       <c r="X523" t="n">
-        <v>0.002976500000045235</v>
+        <v>0.003078500000015083</v>
       </c>
       <c r="Y523" t="n">
         <v>13</v>
@@ -43442,7 +43442,7 @@
         </is>
       </c>
       <c r="X524" t="n">
-        <v>0.002152600000044913</v>
+        <v>0.002299300000004223</v>
       </c>
       <c r="Y524" t="n">
         <v>9</v>
@@ -43524,7 +43524,7 @@
         </is>
       </c>
       <c r="X525" t="n">
-        <v>0.001921999999979107</v>
+        <v>0.001866799999959312</v>
       </c>
       <c r="Y525" t="n">
         <v>8</v>
@@ -43606,7 +43606,7 @@
         </is>
       </c>
       <c r="X526" t="n">
-        <v>0.002546900000027108</v>
+        <v>0.00278859999997394</v>
       </c>
       <c r="Y526" t="n">
         <v>10</v>
@@ -43688,7 +43688,7 @@
         </is>
       </c>
       <c r="X527" t="n">
-        <v>0.002905499999997119</v>
+        <v>0.004644100000007256</v>
       </c>
       <c r="Y527" t="n">
         <v>13</v>
@@ -43770,7 +43770,7 @@
         </is>
       </c>
       <c r="X528" t="n">
-        <v>0.002192499999978281</v>
+        <v>0.002104400000007445</v>
       </c>
       <c r="Y528" t="n">
         <v>9</v>
@@ -43852,7 +43852,7 @@
         </is>
       </c>
       <c r="X529" t="n">
-        <v>0.00306430000000546</v>
+        <v>0.002690900000004603</v>
       </c>
       <c r="Y529" t="n">
         <v>11</v>
@@ -43934,7 +43934,7 @@
         </is>
       </c>
       <c r="X530" t="n">
-        <v>0.002459899999962545</v>
+        <v>0.002300600000012309</v>
       </c>
       <c r="Y530" t="n">
         <v>10</v>
@@ -44016,7 +44016,7 @@
         </is>
       </c>
       <c r="X531" t="n">
-        <v>0.003838599999994585</v>
+        <v>0.003166899999996531</v>
       </c>
       <c r="Y531" t="n">
         <v>13</v>
@@ -44098,7 +44098,7 @@
         </is>
       </c>
       <c r="X532" t="n">
-        <v>0.002523300000007112</v>
+        <v>0.004154199999959474</v>
       </c>
       <c r="Y532" t="n">
         <v>11</v>
@@ -44180,7 +44180,7 @@
         </is>
       </c>
       <c r="X533" t="n">
-        <v>0.003309100000024046</v>
+        <v>0.002984700000013163</v>
       </c>
       <c r="Y533" t="n">
         <v>13</v>
@@ -44262,7 +44262,7 @@
         </is>
       </c>
       <c r="X534" t="n">
-        <v>0.00280240000000731</v>
+        <v>0.002908199999978933</v>
       </c>
       <c r="Y534" t="n">
         <v>12</v>
@@ -44344,7 +44344,7 @@
         </is>
       </c>
       <c r="X535" t="n">
-        <v>0.002872099999990496</v>
+        <v>0.003375199999993583</v>
       </c>
       <c r="Y535" t="n">
         <v>12</v>
@@ -44426,7 +44426,7 @@
         </is>
       </c>
       <c r="X536" t="n">
-        <v>0.001980400000036298</v>
+        <v>0.001929200000006404</v>
       </c>
       <c r="Y536" t="n">
         <v>8</v>
@@ -44508,7 +44508,7 @@
         </is>
       </c>
       <c r="X537" t="n">
-        <v>0.00218649999999343</v>
+        <v>0.003949300000044786</v>
       </c>
       <c r="Y537" t="n">
         <v>9</v>
@@ -44590,7 +44590,7 @@
         </is>
       </c>
       <c r="X538" t="n">
-        <v>0.002528500000039458</v>
+        <v>0.003388900000004469</v>
       </c>
       <c r="Y538" t="n">
         <v>11</v>
@@ -44672,7 +44672,7 @@
         </is>
       </c>
       <c r="X539" t="n">
-        <v>0.003067699999974138</v>
+        <v>0.003194799999960196</v>
       </c>
       <c r="Y539" t="n">
         <v>13</v>
@@ -44754,7 +44754,7 @@
         </is>
       </c>
       <c r="X540" t="n">
-        <v>0.002469899999994141</v>
+        <v>0.003548500000022159</v>
       </c>
       <c r="Y540" t="n">
         <v>11</v>
@@ -44836,7 +44836,7 @@
         </is>
       </c>
       <c r="X541" t="n">
-        <v>0.002174499999966883</v>
+        <v>0.002205599999967944</v>
       </c>
       <c r="Y541" t="n">
         <v>9</v>
@@ -44918,7 +44918,7 @@
         </is>
       </c>
       <c r="X542" t="n">
-        <v>0.002328000000034081</v>
+        <v>0.002614200000039091</v>
       </c>
       <c r="Y542" t="n">
         <v>10</v>
@@ -45000,7 +45000,7 @@
         </is>
       </c>
       <c r="X543" t="n">
-        <v>0.001762200000030134</v>
+        <v>0.001710700000046472</v>
       </c>
       <c r="Y543" t="n">
         <v>7</v>
@@ -45082,7 +45082,7 @@
         </is>
       </c>
       <c r="X544" t="n">
-        <v>0.003037500000004911</v>
+        <v>0.00303830000001426</v>
       </c>
       <c r="Y544" t="n">
         <v>12</v>
@@ -45164,7 +45164,7 @@
         </is>
       </c>
       <c r="X545" t="n">
-        <v>0.001915500000052361</v>
+        <v>0.003134199999976772</v>
       </c>
       <c r="Y545" t="n">
         <v>8</v>
@@ -45246,7 +45246,7 @@
         </is>
       </c>
       <c r="X546" t="n">
-        <v>0.002354199999956563</v>
+        <v>0.002144499999985783</v>
       </c>
       <c r="Y546" t="n">
         <v>9</v>
@@ -45328,7 +45328,7 @@
         </is>
       </c>
       <c r="X547" t="n">
-        <v>0.00199150000003101</v>
+        <v>0.002295399999979963</v>
       </c>
       <c r="Y547" t="n">
         <v>8</v>
@@ -45410,7 +45410,7 @@
         </is>
       </c>
       <c r="X548" t="n">
-        <v>0.002868199999966237</v>
+        <v>0.002524300000004587</v>
       </c>
       <c r="Y548" t="n">
         <v>10</v>
@@ -45492,7 +45492,7 @@
         </is>
       </c>
       <c r="X549" t="n">
-        <v>0.002614600000015344</v>
+        <v>0.002788099999975202</v>
       </c>
       <c r="Y549" t="n">
         <v>11</v>
@@ -45574,7 +45574,7 @@
         </is>
       </c>
       <c r="X550" t="n">
-        <v>0.003469300000006115</v>
+        <v>0.00363360000000057</v>
       </c>
       <c r="Y550" t="n">
         <v>11</v>
@@ -45656,7 +45656,7 @@
         </is>
       </c>
       <c r="X551" t="n">
-        <v>0.002968399999986104</v>
+        <v>0.003062199999988025</v>
       </c>
       <c r="Y551" t="n">
         <v>13</v>
@@ -45738,7 +45738,7 @@
         </is>
       </c>
       <c r="X552" t="n">
-        <v>0.002229300000010426</v>
+        <v>0.002376299999980347</v>
       </c>
       <c r="Y552" t="n">
         <v>9</v>
@@ -45820,7 +45820,7 @@
         </is>
       </c>
       <c r="X553" t="n">
-        <v>0.001875299999994695</v>
+        <v>0.001883500000019467</v>
       </c>
       <c r="Y553" t="n">
         <v>8</v>
@@ -45902,7 +45902,7 @@
         </is>
       </c>
       <c r="X554" t="n">
-        <v>0.002771999999993113</v>
+        <v>0.002586400000041067</v>
       </c>
       <c r="Y554" t="n">
         <v>11</v>
@@ -45984,7 +45984,7 @@
         </is>
       </c>
       <c r="X555" t="n">
-        <v>0.00273349999997663</v>
+        <v>0.003828100000021095</v>
       </c>
       <c r="Y555" t="n">
         <v>12</v>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="X556" t="n">
-        <v>0.002214799999990191</v>
+        <v>0.002132099999982984</v>
       </c>
       <c r="Y556" t="n">
         <v>9</v>
@@ -46148,7 +46148,7 @@
         </is>
       </c>
       <c r="X557" t="n">
-        <v>0.001824800000008509</v>
+        <v>0.002091899999982161</v>
       </c>
       <c r="Y557" t="n">
         <v>8</v>
@@ -46230,7 +46230,7 @@
         </is>
       </c>
       <c r="X558" t="n">
-        <v>0.002636199999983546</v>
+        <v>0.002541899999982888</v>
       </c>
       <c r="Y558" t="n">
         <v>11</v>
@@ -46312,7 +46312,7 @@
         </is>
       </c>
       <c r="X559" t="n">
-        <v>0.002766500000006999</v>
+        <v>0.003182500000036725</v>
       </c>
       <c r="Y559" t="n">
         <v>12</v>
@@ -46394,7 +46394,7 @@
         </is>
       </c>
       <c r="X560" t="n">
-        <v>0.003041199999984201</v>
+        <v>0.004410399999983383</v>
       </c>
       <c r="Y560" t="n">
         <v>13</v>
@@ -46476,7 +46476,7 @@
         </is>
       </c>
       <c r="X561" t="n">
-        <v>0.003865000000018881</v>
+        <v>0.003035299999964991</v>
       </c>
       <c r="Y561" t="n">
         <v>13</v>
@@ -46558,7 +46558,7 @@
         </is>
       </c>
       <c r="X562" t="n">
-        <v>0.001808799999992061</v>
+        <v>0.002020099999981539</v>
       </c>
       <c r="Y562" t="n">
         <v>8</v>
@@ -46640,7 +46640,7 @@
         </is>
       </c>
       <c r="X563" t="n">
-        <v>0.002605599999981223</v>
+        <v>0.001866199999994933</v>
       </c>
       <c r="Y563" t="n">
         <v>8</v>
@@ -46722,7 +46722,7 @@
         </is>
       </c>
       <c r="X564" t="n">
-        <v>0.002765300000021398</v>
+        <v>0.002904800000010255</v>
       </c>
       <c r="Y564" t="n">
         <v>12</v>
@@ -46804,7 +46804,7 @@
         </is>
       </c>
       <c r="X565" t="n">
-        <v>0.00271999999995387</v>
+        <v>0.003912399999990157</v>
       </c>
       <c r="Y565" t="n">
         <v>10</v>
@@ -46886,7 +46886,7 @@
         </is>
       </c>
       <c r="X566" t="n">
-        <v>0.002874500000018543</v>
+        <v>0.003099700000007033</v>
       </c>
       <c r="Y566" t="n">
         <v>13</v>
@@ -46968,7 +46968,7 @@
         </is>
       </c>
       <c r="X567" t="n">
-        <v>0.002913699999965047</v>
+        <v>0.002907100000015816</v>
       </c>
       <c r="Y567" t="n">
         <v>12</v>
@@ -47050,7 +47050,7 @@
         </is>
       </c>
       <c r="X568" t="n">
-        <v>0.002302099999951679</v>
+        <v>0.001870400000029804</v>
       </c>
       <c r="Y568" t="n">
         <v>8</v>
@@ -47132,7 +47132,7 @@
         </is>
       </c>
       <c r="X569" t="n">
-        <v>0.002379000000019005</v>
+        <v>0.002469300000029762</v>
       </c>
       <c r="Y569" t="n">
         <v>10</v>
@@ -47214,7 +47214,7 @@
         </is>
       </c>
       <c r="X570" t="n">
-        <v>0.002035400000011123</v>
+        <v>0.003112100000009832</v>
       </c>
       <c r="Y570" t="n">
         <v>9</v>
@@ -47296,7 +47296,7 @@
         </is>
       </c>
       <c r="X571" t="n">
-        <v>0.002532900000005611</v>
+        <v>0.002686499999981606</v>
       </c>
       <c r="Y571" t="n">
         <v>11</v>
@@ -47378,7 +47378,7 @@
         </is>
       </c>
       <c r="X572" t="n">
-        <v>0.004281600000012986</v>
+        <v>0.002416800000048624</v>
       </c>
       <c r="Y572" t="n">
         <v>10</v>
@@ -47460,7 +47460,7 @@
         </is>
       </c>
       <c r="X573" t="n">
-        <v>0.002737200000012763</v>
+        <v>0.002901799999960986</v>
       </c>
       <c r="Y573" t="n">
         <v>12</v>
@@ -47542,7 +47542,7 @@
         </is>
       </c>
       <c r="X574" t="n">
-        <v>0.002371100000004844</v>
+        <v>0.003314900000020771</v>
       </c>
       <c r="Y574" t="n">
         <v>10</v>
@@ -47624,7 +47624,7 @@
         </is>
       </c>
       <c r="X575" t="n">
-        <v>0.002517399999987902</v>
+        <v>0.004654200000004494</v>
       </c>
       <c r="Y575" t="n">
         <v>10</v>
@@ -47706,7 +47706,7 @@
         </is>
       </c>
       <c r="X576" t="n">
-        <v>0.002734699999962231</v>
+        <v>0.002441099999998642</v>
       </c>
       <c r="Y576" t="n">
         <v>10</v>
@@ -47788,7 +47788,7 @@
         </is>
       </c>
       <c r="X577" t="n">
-        <v>0.003640899999993508</v>
+        <v>0.002328200000022207</v>
       </c>
       <c r="Y577" t="n">
         <v>9</v>
@@ -47870,7 +47870,7 @@
         </is>
       </c>
       <c r="X578" t="n">
-        <v>0.002095899999972062</v>
+        <v>0.002118699999982709</v>
       </c>
       <c r="Y578" t="n">
         <v>9</v>
@@ -47952,7 +47952,7 @@
         </is>
       </c>
       <c r="X579" t="n">
-        <v>0.003604300000006333</v>
+        <v>0.001991700000019136</v>
       </c>
       <c r="Y579" t="n">
         <v>8</v>
@@ -48034,7 +48034,7 @@
         </is>
       </c>
       <c r="X580" t="n">
-        <v>0.003447499999992942</v>
+        <v>0.004263100000002851</v>
       </c>
       <c r="Y580" t="n">
         <v>12</v>
@@ -48116,7 +48116,7 @@
         </is>
       </c>
       <c r="X581" t="n">
-        <v>0.004799000000048181</v>
+        <v>0.002132399999993595</v>
       </c>
       <c r="Y581" t="n">
         <v>9</v>
@@ -48198,7 +48198,7 @@
         </is>
       </c>
       <c r="X582" t="n">
-        <v>0.006205599999987044</v>
+        <v>0.002408399999978883</v>
       </c>
       <c r="Y582" t="n">
         <v>9</v>
@@ -48280,7 +48280,7 @@
         </is>
       </c>
       <c r="X583" t="n">
-        <v>0.002185599999961596</v>
+        <v>0.002074899999968238</v>
       </c>
       <c r="Y583" t="n">
         <v>9</v>
@@ -48362,7 +48362,7 @@
         </is>
       </c>
       <c r="X584" t="n">
-        <v>0.003091100000006008</v>
+        <v>0.002011499999980515</v>
       </c>
       <c r="Y584" t="n">
         <v>8</v>
@@ -48444,7 +48444,7 @@
         </is>
       </c>
       <c r="X585" t="n">
-        <v>0.004142099999967286</v>
+        <v>0.00254810000001271</v>
       </c>
       <c r="Y585" t="n">
         <v>9</v>
@@ -48526,7 +48526,7 @@
         </is>
       </c>
       <c r="X586" t="n">
-        <v>0.003192200000000867</v>
+        <v>0.001982899999973142</v>
       </c>
       <c r="Y586" t="n">
         <v>8</v>
@@ -48608,7 +48608,7 @@
         </is>
       </c>
       <c r="X587" t="n">
-        <v>0.006290400000011687</v>
+        <v>0.004473000000018601</v>
       </c>
       <c r="Y587" t="n">
         <v>13</v>
@@ -48690,7 +48690,7 @@
         </is>
       </c>
       <c r="X588" t="n">
-        <v>0.003668699999991532</v>
+        <v>0.002339199999994435</v>
       </c>
       <c r="Y588" t="n">
         <v>10</v>
@@ -48772,7 +48772,7 @@
         </is>
       </c>
       <c r="X589" t="n">
-        <v>0.002487400000006801</v>
+        <v>0.002460099999950671</v>
       </c>
       <c r="Y589" t="n">
         <v>10</v>
@@ -48854,7 +48854,7 @@
         </is>
       </c>
       <c r="X590" t="n">
-        <v>0.003264000000001488</v>
+        <v>0.003848199999993085</v>
       </c>
       <c r="Y590" t="n">
         <v>12</v>
@@ -48936,7 +48936,7 @@
         </is>
       </c>
       <c r="X591" t="n">
-        <v>0.002215400000011414</v>
+        <v>0.002222599999981867</v>
       </c>
       <c r="Y591" t="n">
         <v>9</v>
@@ -49018,7 +49018,7 @@
         </is>
       </c>
       <c r="X592" t="n">
-        <v>0.001981600000021899</v>
+        <v>0.002057799999988674</v>
       </c>
       <c r="Y592" t="n">
         <v>8</v>
@@ -49100,7 +49100,7 @@
         </is>
       </c>
       <c r="X593" t="n">
-        <v>0.002954099999953996</v>
+        <v>0.001853299999993396</v>
       </c>
       <c r="Y593" t="n">
         <v>8</v>
@@ -49182,7 +49182,7 @@
         </is>
       </c>
       <c r="X594" t="n">
-        <v>0.002252800000007937</v>
+        <v>0.002208699999982855</v>
       </c>
       <c r="Y594" t="n">
         <v>9</v>
@@ -49264,7 +49264,7 @@
         </is>
       </c>
       <c r="X595" t="n">
-        <v>0.003240100000027724</v>
+        <v>0.002754900000013549</v>
       </c>
       <c r="Y595" t="n">
         <v>12</v>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="X596" t="n">
-        <v>0.002497500000004038</v>
+        <v>0.00247949999999264</v>
       </c>
       <c r="Y596" t="n">
         <v>10</v>
@@ -49428,7 +49428,7 @@
         </is>
       </c>
       <c r="X597" t="n">
-        <v>0.003121799999973973</v>
+        <v>0.004501300000015362</v>
       </c>
       <c r="Y597" t="n">
         <v>13</v>
@@ -49510,7 +49510,7 @@
         </is>
       </c>
       <c r="X598" t="n">
-        <v>0.002262800000039533</v>
+        <v>0.002019899999993413</v>
       </c>
       <c r="Y598" t="n">
         <v>8</v>
@@ -49592,7 +49592,7 @@
         </is>
       </c>
       <c r="X599" t="n">
-        <v>0.003947500000037962</v>
+        <v>0.003271300000051269</v>
       </c>
       <c r="Y599" t="n">
         <v>13</v>
@@ -49674,7 +49674,7 @@
         </is>
       </c>
       <c r="X600" t="n">
-        <v>0.004134200000009969</v>
+        <v>0.003883700000017143</v>
       </c>
       <c r="Y600" t="n">
         <v>13</v>
@@ -49756,7 +49756,7 @@
         </is>
       </c>
       <c r="X601" t="n">
-        <v>0.003761900000029073</v>
+        <v>0.00281089999998585</v>
       </c>
       <c r="Y601" t="n">
         <v>11</v>
@@ -49838,7 +49838,7 @@
         </is>
       </c>
       <c r="X602" t="n">
-        <v>0.003172899999981382</v>
+        <v>0.003091799999992872</v>
       </c>
       <c r="Y602" t="n">
         <v>13</v>
@@ -49920,7 +49920,7 @@
         </is>
       </c>
       <c r="X603" t="n">
-        <v>0.003010500000016236</v>
+        <v>0.001918199999977332</v>
       </c>
       <c r="Y603" t="n">
         <v>8</v>
@@ -50002,7 +50002,7 @@
         </is>
       </c>
       <c r="X604" t="n">
-        <v>0.002734799999984716</v>
+        <v>0.001979500000004464</v>
       </c>
       <c r="Y604" t="n">
         <v>8</v>
@@ -50084,7 +50084,7 @@
         </is>
       </c>
       <c r="X605" t="n">
-        <v>0.002837499999998272</v>
+        <v>0.002785600000038357</v>
       </c>
       <c r="Y605" t="n">
         <v>8</v>
@@ -50166,7 +50166,7 @@
         </is>
       </c>
       <c r="X606" t="n">
-        <v>0.003113999999982298</v>
+        <v>0.002676399999984369</v>
       </c>
       <c r="Y606" t="n">
         <v>10</v>
@@ -50248,7 +50248,7 @@
         </is>
       </c>
       <c r="X607" t="n">
-        <v>0.003622100000029604</v>
+        <v>0.002981400000010126</v>
       </c>
       <c r="Y607" t="n">
         <v>12</v>
@@ -50330,7 +50330,7 @@
         </is>
       </c>
       <c r="X608" t="n">
-        <v>0.004882899999984147</v>
+        <v>0.002793999999994412</v>
       </c>
       <c r="Y608" t="n">
         <v>12</v>
@@ -50412,7 +50412,7 @@
         </is>
       </c>
       <c r="X609" t="n">
-        <v>0.001964600000007977</v>
+        <v>0.002033299999993687</v>
       </c>
       <c r="Y609" t="n">
         <v>8</v>
@@ -50494,7 +50494,7 @@
         </is>
       </c>
       <c r="X610" t="n">
-        <v>0.004505999999992127</v>
+        <v>0.003572099999985312</v>
       </c>
       <c r="Y610" t="n">
         <v>10</v>
@@ -50576,7 +50576,7 @@
         </is>
       </c>
       <c r="X611" t="n">
-        <v>0.002054799999996249</v>
+        <v>0.001895999999987907</v>
       </c>
       <c r="Y611" t="n">
         <v>8</v>
@@ -50658,7 +50658,7 @@
         </is>
       </c>
       <c r="X612" t="n">
-        <v>0.002352099999995971</v>
+        <v>0.00330589999998665</v>
       </c>
       <c r="Y612" t="n">
         <v>8</v>
@@ -50740,7 +50740,7 @@
         </is>
       </c>
       <c r="X613" t="n">
-        <v>0.002804299999979776</v>
+        <v>0.001998000000014599</v>
       </c>
       <c r="Y613" t="n">
         <v>8</v>
@@ -50822,7 +50822,7 @@
         </is>
       </c>
       <c r="X614" t="n">
-        <v>0.0030959999999709</v>
+        <v>0.003164500000025328</v>
       </c>
       <c r="Y614" t="n">
         <v>13</v>
@@ -50904,7 +50904,7 @@
         </is>
       </c>
       <c r="X615" t="n">
-        <v>0.003302499999961128</v>
+        <v>0.002139900000031503</v>
       </c>
       <c r="Y615" t="n">
         <v>9</v>
@@ -50986,7 +50986,7 @@
         </is>
       </c>
       <c r="X616" t="n">
-        <v>0.00623489999998128</v>
+        <v>0.002219200000013188</v>
       </c>
       <c r="Y616" t="n">
         <v>9</v>
@@ -51068,7 +51068,7 @@
         </is>
       </c>
       <c r="X617" t="n">
-        <v>0.002005800000006275</v>
+        <v>0.002935999999976957</v>
       </c>
       <c r="Y617" t="n">
         <v>8</v>
@@ -51150,7 +51150,7 @@
         </is>
       </c>
       <c r="X618" t="n">
-        <v>0.001969300000041585</v>
+        <v>0.002172900000005029</v>
       </c>
       <c r="Y618" t="n">
         <v>8</v>
@@ -51232,7 +51232,7 @@
         </is>
       </c>
       <c r="X619" t="n">
-        <v>0.00289789999999357</v>
+        <v>0.00271909999997888</v>
       </c>
       <c r="Y619" t="n">
         <v>11</v>
@@ -51314,7 +51314,7 @@
         </is>
       </c>
       <c r="X620" t="n">
-        <v>0.004024500000014086</v>
+        <v>0.002342499999997472</v>
       </c>
       <c r="Y620" t="n">
         <v>10</v>
@@ -51396,7 +51396,7 @@
         </is>
       </c>
       <c r="X621" t="n">
-        <v>0.002470600000037848</v>
+        <v>0.002453300000013314</v>
       </c>
       <c r="Y621" t="n">
         <v>10</v>
@@ -51478,7 +51478,7 @@
         </is>
       </c>
       <c r="X622" t="n">
-        <v>0.002175200000010591</v>
+        <v>0.002180699999996705</v>
       </c>
       <c r="Y622" t="n">
         <v>9</v>
@@ -51560,7 +51560,7 @@
         </is>
       </c>
       <c r="X623" t="n">
-        <v>0.005594999999971151</v>
+        <v>0.002716899999995803</v>
       </c>
       <c r="Y623" t="n">
         <v>11</v>
@@ -51642,7 +51642,7 @@
         </is>
       </c>
       <c r="X624" t="n">
-        <v>0.002272199999993063</v>
+        <v>0.00230460000000221</v>
       </c>
       <c r="Y624" t="n">
         <v>9</v>
@@ -51724,7 +51724,7 @@
         </is>
       </c>
       <c r="X625" t="n">
-        <v>0.002173900000002504</v>
+        <v>0.002152000000023691</v>
       </c>
       <c r="Y625" t="n">
         <v>9</v>
@@ -51806,7 +51806,7 @@
         </is>
       </c>
       <c r="X626" t="n">
-        <v>0.002109000000018568</v>
+        <v>0.002219799999977567</v>
       </c>
       <c r="Y626" t="n">
         <v>9</v>
@@ -51888,7 +51888,7 @@
         </is>
       </c>
       <c r="X627" t="n">
-        <v>0.002169200000025739</v>
+        <v>0.002151400000002468</v>
       </c>
       <c r="Y627" t="n">
         <v>9</v>
@@ -51970,7 +51970,7 @@
         </is>
       </c>
       <c r="X628" t="n">
-        <v>0.004238299999997253</v>
+        <v>0.002687700000024051</v>
       </c>
       <c r="Y628" t="n">
         <v>11</v>
@@ -52052,7 +52052,7 @@
         </is>
       </c>
       <c r="X629" t="n">
-        <v>0.002828700000009121</v>
+        <v>0.00477309999996578</v>
       </c>
       <c r="Y629" t="n">
         <v>12</v>
@@ -52134,7 +52134,7 @@
         </is>
       </c>
       <c r="X630" t="n">
-        <v>0.002017099999989114</v>
+        <v>0.00187999999997146</v>
       </c>
       <c r="Y630" t="n">
         <v>8</v>
@@ -52216,7 +52216,7 @@
         </is>
       </c>
       <c r="X631" t="n">
-        <v>0.002101900000013757</v>
+        <v>0.002287200000012035</v>
       </c>
       <c r="Y631" t="n">
         <v>9</v>
@@ -52298,7 +52298,7 @@
         </is>
       </c>
       <c r="X632" t="n">
-        <v>0.002896799999973609</v>
+        <v>0.002789600000028258</v>
       </c>
       <c r="Y632" t="n">
         <v>12</v>
@@ -52380,7 +52380,7 @@
         </is>
       </c>
       <c r="X633" t="n">
-        <v>0.002522699999985889</v>
+        <v>0.002655000000004293</v>
       </c>
       <c r="Y633" t="n">
         <v>11</v>
@@ -52462,7 +52462,7 @@
         </is>
       </c>
       <c r="X634" t="n">
-        <v>0.00302870000001576</v>
+        <v>0.005278299999986302</v>
       </c>
       <c r="Y634" t="n">
         <v>13</v>
@@ -52544,7 +52544,7 @@
         </is>
       </c>
       <c r="X635" t="n">
-        <v>0.00268039999997427</v>
+        <v>0.001936100000023089</v>
       </c>
       <c r="Y635" t="n">
         <v>8</v>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="X636" t="n">
-        <v>0.002564599999971051</v>
+        <v>0.002774999999985539</v>
       </c>
       <c r="Y636" t="n">
         <v>11</v>
@@ -52708,7 +52708,7 @@
         </is>
       </c>
       <c r="X637" t="n">
-        <v>0.002177000000017415</v>
+        <v>0.002123199999971348</v>
       </c>
       <c r="Y637" t="n">
         <v>9</v>
@@ -52790,7 +52790,7 @@
         </is>
       </c>
       <c r="X638" t="n">
-        <v>0.001842500000009295</v>
+        <v>0.001994700000011562</v>
       </c>
       <c r="Y638" t="n">
         <v>8</v>
@@ -52872,7 +52872,7 @@
         </is>
       </c>
       <c r="X639" t="n">
-        <v>0.00294539999998733</v>
+        <v>0.004606499999965763</v>
       </c>
       <c r="Y639" t="n">
         <v>12</v>
@@ -52954,7 +52954,7 @@
         </is>
       </c>
       <c r="X640" t="n">
-        <v>0.002565400000037243</v>
+        <v>0.003108199999985573</v>
       </c>
       <c r="Y640" t="n">
         <v>11</v>
@@ -53036,7 +53036,7 @@
         </is>
       </c>
       <c r="X641" t="n">
-        <v>0.003229299999986779</v>
+        <v>0.003443900000036137</v>
       </c>
       <c r="Y641" t="n">
         <v>14</v>
@@ -53118,7 +53118,7 @@
         </is>
       </c>
       <c r="X642" t="n">
-        <v>0.003406799999993382</v>
+        <v>0.003510300000016287</v>
       </c>
       <c r="Y642" t="n">
         <v>10</v>
@@ -53200,7 +53200,7 @@
         </is>
       </c>
       <c r="X643" t="n">
-        <v>0.002919800000029227</v>
+        <v>0.003070300000047155</v>
       </c>
       <c r="Y643" t="n">
         <v>13</v>
@@ -53282,7 +53282,7 @@
         </is>
       </c>
       <c r="X644" t="n">
-        <v>0.00237779999997656</v>
+        <v>0.002252999999996064</v>
       </c>
       <c r="Y644" t="n">
         <v>9</v>
@@ -53364,7 +53364,7 @@
         </is>
       </c>
       <c r="X645" t="n">
-        <v>0.002577700000017558</v>
+        <v>0.002569199999982175</v>
       </c>
       <c r="Y645" t="n">
         <v>11</v>
@@ -53446,7 +53446,7 @@
         </is>
       </c>
       <c r="X646" t="n">
-        <v>0.002227300000015475</v>
+        <v>0.00218649999999343</v>
       </c>
       <c r="Y646" t="n">
         <v>9</v>
@@ -53528,7 +53528,7 @@
         </is>
       </c>
       <c r="X647" t="n">
-        <v>0.004566699999998036</v>
+        <v>0.003556600000024446</v>
       </c>
       <c r="Y647" t="n">
         <v>11</v>
@@ -53610,7 +53610,7 @@
         </is>
       </c>
       <c r="X648" t="n">
-        <v>0.002654099999972459</v>
+        <v>0.002601799999979448</v>
       </c>
       <c r="Y648" t="n">
         <v>11</v>
@@ -53692,7 +53692,7 @@
         </is>
       </c>
       <c r="X649" t="n">
-        <v>0.002321800000004259</v>
+        <v>0.002568699999983437</v>
       </c>
       <c r="Y649" t="n">
         <v>9</v>
@@ -53774,7 +53774,7 @@
         </is>
       </c>
       <c r="X650" t="n">
-        <v>0.001893300000006093</v>
+        <v>0.001930600000036975</v>
       </c>
       <c r="Y650" t="n">
         <v>8</v>
@@ -53856,7 +53856,7 @@
         </is>
       </c>
       <c r="X651" t="n">
-        <v>0.002346500000044216</v>
+        <v>0.00220009999998183</v>
       </c>
       <c r="Y651" t="n">
         <v>9</v>
@@ -53938,7 +53938,7 @@
         </is>
       </c>
       <c r="X652" t="n">
-        <v>0.00518520000002809</v>
+        <v>0.003542400000014823</v>
       </c>
       <c r="Y652" t="n">
         <v>11</v>
@@ -54020,7 +54020,7 @@
         </is>
       </c>
       <c r="X653" t="n">
-        <v>0.003025700000023335</v>
+        <v>0.002939099999991868</v>
       </c>
       <c r="Y653" t="n">
         <v>13</v>
@@ -54102,7 +54102,7 @@
         </is>
       </c>
       <c r="X654" t="n">
-        <v>0.002651400000047488</v>
+        <v>0.002640000000042164</v>
       </c>
       <c r="Y654" t="n">
         <v>11</v>
@@ -54184,7 +54184,7 @@
         </is>
       </c>
       <c r="X655" t="n">
-        <v>0.004392300000006344</v>
+        <v>0.001838899999995647</v>
       </c>
       <c r="Y655" t="n">
         <v>8</v>
@@ -54266,7 +54266,7 @@
         </is>
       </c>
       <c r="X656" t="n">
-        <v>0.002963299999976243</v>
+        <v>0.00291260000000193</v>
       </c>
       <c r="Y656" t="n">
         <v>12</v>
@@ -54348,7 +54348,7 @@
         </is>
       </c>
       <c r="X657" t="n">
-        <v>0.003406600000005255</v>
+        <v>0.004473600000039823</v>
       </c>
       <c r="Y657" t="n">
         <v>14</v>
@@ -54430,7 +54430,7 @@
         </is>
       </c>
       <c r="X658" t="n">
-        <v>0.001862899999991896</v>
+        <v>0.001892600000019229</v>
       </c>
       <c r="Y658" t="n">
         <v>8</v>
@@ -54512,7 +54512,7 @@
         </is>
       </c>
       <c r="X659" t="n">
-        <v>0.002472799999964082</v>
+        <v>0.002644300000042676</v>
       </c>
       <c r="Y659" t="n">
         <v>10</v>
@@ -54594,7 +54594,7 @@
         </is>
       </c>
       <c r="X660" t="n">
-        <v>0.005648600000029091</v>
+        <v>0.002859499999999571</v>
       </c>
       <c r="Y660" t="n">
         <v>12</v>
@@ -54676,7 +54676,7 @@
         </is>
       </c>
       <c r="X661" t="n">
-        <v>0.002740000000017062</v>
+        <v>0.003019300000005387</v>
       </c>
       <c r="Y661" t="n">
         <v>12</v>
@@ -54758,7 +54758,7 @@
         </is>
       </c>
       <c r="X662" t="n">
-        <v>0.00220880000000534</v>
+        <v>0.003566999999975451</v>
       </c>
       <c r="Y662" t="n">
         <v>9</v>
@@ -54840,7 +54840,7 @@
         </is>
       </c>
       <c r="X663" t="n">
-        <v>0.001874999999984084</v>
+        <v>0.001896999999985383</v>
       </c>
       <c r="Y663" t="n">
         <v>8</v>
@@ -54922,7 +54922,7 @@
         </is>
       </c>
       <c r="X664" t="n">
-        <v>0.002958800000044448</v>
+        <v>0.002613800000005995</v>
       </c>
       <c r="Y664" t="n">
         <v>10</v>
@@ -55004,7 +55004,7 @@
         </is>
       </c>
       <c r="X665" t="n">
-        <v>0.003435899999999492</v>
+        <v>0.00262529999997696</v>
       </c>
       <c r="Y665" t="n">
         <v>11</v>
@@ -55086,7 +55086,7 @@
         </is>
       </c>
       <c r="X666" t="n">
-        <v>0.002260700000022098</v>
+        <v>0.00225820000002841</v>
       </c>
       <c r="Y666" t="n">
         <v>9</v>
@@ -55168,7 +55168,7 @@
         </is>
       </c>
       <c r="X667" t="n">
-        <v>0.002253800000005413</v>
+        <v>0.002792099999965103</v>
       </c>
       <c r="Y667" t="n">
         <v>9</v>
@@ -55250,7 +55250,7 @@
         </is>
       </c>
       <c r="X668" t="n">
-        <v>0.002563000000009197</v>
+        <v>0.00264980000002879</v>
       </c>
       <c r="Y668" t="n">
         <v>11</v>
@@ -55332,7 +55332,7 @@
         </is>
       </c>
       <c r="X669" t="n">
-        <v>0.002170499999976983</v>
+        <v>0.002261599999997088</v>
       </c>
       <c r="Y669" t="n">
         <v>9</v>
@@ -55414,7 +55414,7 @@
         </is>
       </c>
       <c r="X670" t="n">
-        <v>0.002931699999976445</v>
+        <v>0.002371700000026067</v>
       </c>
       <c r="Y670" t="n">
         <v>10</v>
@@ -55496,7 +55496,7 @@
         </is>
       </c>
       <c r="X671" t="n">
-        <v>0.002670099999988906</v>
+        <v>0.002734900000007201</v>
       </c>
       <c r="Y671" t="n">
         <v>11</v>
@@ -55578,7 +55578,7 @@
         </is>
       </c>
       <c r="X672" t="n">
-        <v>0.003614499999969212</v>
+        <v>0.001893800000004831</v>
       </c>
       <c r="Y672" t="n">
         <v>8</v>
@@ -55660,7 +55660,7 @@
         </is>
       </c>
       <c r="X673" t="n">
-        <v>0.00307700000001887</v>
+        <v>0.003562499999986812</v>
       </c>
       <c r="Y673" t="n">
         <v>13</v>
@@ -55742,7 +55742,7 @@
         </is>
       </c>
       <c r="X674" t="n">
-        <v>0.003118400000005295</v>
+        <v>0.003583800000001247</v>
       </c>
       <c r="Y674" t="n">
         <v>13</v>
@@ -55824,7 +55824,7 @@
         </is>
       </c>
       <c r="X675" t="n">
-        <v>0.001927099999988968</v>
+        <v>0.001967799999988529</v>
       </c>
       <c r="Y675" t="n">
         <v>8</v>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="X676" t="n">
-        <v>0.002661100000011629</v>
+        <v>0.002866199999971286</v>
       </c>
       <c r="Y676" t="n">
         <v>11</v>
@@ -55988,7 +55988,7 @@
         </is>
       </c>
       <c r="X677" t="n">
-        <v>0.003351000000009208</v>
+        <v>0.004594800000006671</v>
       </c>
       <c r="Y677" t="n">
         <v>13</v>
@@ -56070,7 +56070,7 @@
         </is>
       </c>
       <c r="X678" t="n">
-        <v>0.003045799999995324</v>
+        <v>0.003050599999994574</v>
       </c>
       <c r="Y678" t="n">
         <v>13</v>
@@ -56152,7 +56152,7 @@
         </is>
       </c>
       <c r="X679" t="n">
-        <v>0.002182399999981044</v>
+        <v>0.002303999999980988</v>
       </c>
       <c r="Y679" t="n">
         <v>9</v>
@@ -56234,7 +56234,7 @@
         </is>
       </c>
       <c r="X680" t="n">
-        <v>0.005589700000030007</v>
+        <v>0.003018700000041008</v>
       </c>
       <c r="Y680" t="n">
         <v>13</v>
@@ -56316,7 +56316,7 @@
         </is>
       </c>
       <c r="X681" t="n">
-        <v>0.00326460000002271</v>
+        <v>0.002677000000005592</v>
       </c>
       <c r="Y681" t="n">
         <v>11</v>
@@ -56398,7 +56398,7 @@
         </is>
       </c>
       <c r="X682" t="n">
-        <v>0.00220179999996617</v>
+        <v>0.00358160000001817</v>
       </c>
       <c r="Y682" t="n">
         <v>9</v>
@@ -56480,7 +56480,7 @@
         </is>
       </c>
       <c r="X683" t="n">
-        <v>0.004959400000018377</v>
+        <v>0.003061599999966802</v>
       </c>
       <c r="Y683" t="n">
         <v>13</v>
@@ -56562,7 +56562,7 @@
         </is>
       </c>
       <c r="X684" t="n">
-        <v>0.002988600000037422</v>
+        <v>0.002465200000017376</v>
       </c>
       <c r="Y684" t="n">
         <v>10</v>
@@ -56644,7 +56644,7 @@
         </is>
       </c>
       <c r="X685" t="n">
-        <v>0.002305100000000948</v>
+        <v>0.002063800000030369</v>
       </c>
       <c r="Y685" t="n">
         <v>9</v>
@@ -56726,7 +56726,7 @@
         </is>
       </c>
       <c r="X686" t="n">
-        <v>0.005363299999999072</v>
+        <v>0.002710999999976593</v>
       </c>
       <c r="Y686" t="n">
         <v>11</v>
@@ -56808,7 +56808,7 @@
         </is>
       </c>
       <c r="X687" t="n">
-        <v>0.002223000000014963</v>
+        <v>0.004450099999985468</v>
       </c>
       <c r="Y687" t="n">
         <v>9</v>
@@ -56890,7 +56890,7 @@
         </is>
       </c>
       <c r="X688" t="n">
-        <v>0.002011100000004262</v>
+        <v>0.001876800000047751</v>
       </c>
       <c r="Y688" t="n">
         <v>8</v>
@@ -56972,7 +56972,7 @@
         </is>
       </c>
       <c r="X689" t="n">
-        <v>0.001954200000000128</v>
+        <v>0.002132899999992333</v>
       </c>
       <c r="Y689" t="n">
         <v>8</v>
@@ -57054,7 +57054,7 @@
         </is>
       </c>
       <c r="X690" t="n">
-        <v>0.002395700000022316</v>
+        <v>0.002236200000027111</v>
       </c>
       <c r="Y690" t="n">
         <v>9</v>
@@ -57136,7 +57136,7 @@
         </is>
       </c>
       <c r="X691" t="n">
-        <v>0.002219599999989441</v>
+        <v>0.002266200000008212</v>
       </c>
       <c r="Y691" t="n">
         <v>9</v>
@@ -57218,7 +57218,7 @@
         </is>
       </c>
       <c r="X692" t="n">
-        <v>0.002859300000011444</v>
+        <v>0.004476799999963532</v>
       </c>
       <c r="Y692" t="n">
         <v>12</v>
@@ -57300,7 +57300,7 @@
         </is>
       </c>
       <c r="X693" t="n">
-        <v>0.003144999999960874</v>
+        <v>0.002886999999986983</v>
       </c>
       <c r="Y693" t="n">
         <v>12</v>
@@ -57382,7 +57382,7 @@
         </is>
       </c>
       <c r="X694" t="n">
-        <v>0.00420859999996992</v>
+        <v>0.00310780000000932</v>
       </c>
       <c r="Y694" t="n">
         <v>13</v>
@@ -57464,7 +57464,7 @@
         </is>
       </c>
       <c r="X695" t="n">
-        <v>0.003065600000013546</v>
+        <v>0.003448100000014165</v>
       </c>
       <c r="Y695" t="n">
         <v>12</v>
@@ -57546,7 +57546,7 @@
         </is>
       </c>
       <c r="X696" t="n">
-        <v>0.00305380000003197</v>
+        <v>0.00311349999998356</v>
       </c>
       <c r="Y696" t="n">
         <v>13</v>
@@ -57628,7 +57628,7 @@
         </is>
       </c>
       <c r="X697" t="n">
-        <v>0.003953899999999066</v>
+        <v>0.003286899999977777</v>
       </c>
       <c r="Y697" t="n">
         <v>12</v>
@@ -57710,7 +57710,7 @@
         </is>
       </c>
       <c r="X698" t="n">
-        <v>0.002178200000003017</v>
+        <v>0.002152500000022428</v>
       </c>
       <c r="Y698" t="n">
         <v>9</v>
@@ -57792,7 +57792,7 @@
         </is>
       </c>
       <c r="X699" t="n">
-        <v>0.003170300000022053</v>
+        <v>0.003253899999947407</v>
       </c>
       <c r="Y699" t="n">
         <v>12</v>
@@ -57874,7 +57874,7 @@
         </is>
       </c>
       <c r="X700" t="n">
-        <v>0.003073800000038318</v>
+        <v>0.00458859999997685</v>
       </c>
       <c r="Y700" t="n">
         <v>12</v>
@@ -57956,7 +57956,7 @@
         </is>
       </c>
       <c r="X701" t="n">
-        <v>0.0070276000000149</v>
+        <v>0.003140200000018467</v>
       </c>
       <c r="Y701" t="n">
         <v>13</v>
@@ -58038,7 +58038,7 @@
         </is>
       </c>
       <c r="X702" t="n">
-        <v>0.00204639999998335</v>
+        <v>0.00204329999996844</v>
       </c>
       <c r="Y702" t="n">
         <v>8</v>
@@ -58120,7 +58120,7 @@
         </is>
       </c>
       <c r="X703" t="n">
-        <v>0.002929699999981494</v>
+        <v>0.00256280000002107</v>
       </c>
       <c r="Y703" t="n">
         <v>11</v>
@@ -58202,7 +58202,7 @@
         </is>
       </c>
       <c r="X704" t="n">
-        <v>0.003091299999994135</v>
+        <v>0.002891499999975622</v>
       </c>
       <c r="Y704" t="n">
         <v>12</v>
@@ -58284,7 +58284,7 @@
         </is>
       </c>
       <c r="X705" t="n">
-        <v>0.001906999999960135</v>
+        <v>0.002406100000030165</v>
       </c>
       <c r="Y705" t="n">
         <v>8</v>
@@ -58366,7 +58366,7 @@
         </is>
       </c>
       <c r="X706" t="n">
-        <v>0.002136300000017854</v>
+        <v>0.001962200000036773</v>
       </c>
       <c r="Y706" t="n">
         <v>8</v>
@@ -58448,7 +58448,7 @@
         </is>
       </c>
       <c r="X707" t="n">
-        <v>0.003055099999983213</v>
+        <v>0.002499199999988377</v>
       </c>
       <c r="Y707" t="n">
         <v>9</v>
@@ -58530,7 +58530,7 @@
         </is>
       </c>
       <c r="X708" t="n">
-        <v>0.003181999999981144</v>
+        <v>0.003017800000009174</v>
       </c>
       <c r="Y708" t="n">
         <v>13</v>
@@ -58612,7 +58612,7 @@
         </is>
       </c>
       <c r="X709" t="n">
-        <v>0.001850900000022193</v>
+        <v>0.001754000000005362</v>
       </c>
       <c r="Y709" t="n">
         <v>7</v>
@@ -58694,7 +58694,7 @@
         </is>
       </c>
       <c r="X710" t="n">
-        <v>0.003593799999976</v>
+        <v>0.004645399999958499</v>
       </c>
       <c r="Y710" t="n">
         <v>13</v>
@@ -58776,7 +58776,7 @@
         </is>
       </c>
       <c r="X711" t="n">
-        <v>0.003745499999979529</v>
+        <v>0.003080199999999422</v>
       </c>
       <c r="Y711" t="n">
         <v>13</v>
@@ -58858,7 +58858,7 @@
         </is>
       </c>
       <c r="X712" t="n">
-        <v>0.003720099999952708</v>
+        <v>0.00296459999998433</v>
       </c>
       <c r="Y712" t="n">
         <v>12</v>
@@ -58940,7 +58940,7 @@
         </is>
       </c>
       <c r="X713" t="n">
-        <v>0.003229200000021137</v>
+        <v>0.005193499999961659</v>
       </c>
       <c r="Y713" t="n">
         <v>12</v>
@@ -59022,7 +59022,7 @@
         </is>
       </c>
       <c r="X714" t="n">
-        <v>0.002384399999982634</v>
+        <v>0.002360800000019481</v>
       </c>
       <c r="Y714" t="n">
         <v>10</v>
@@ -59104,7 +59104,7 @@
         </is>
       </c>
       <c r="X715" t="n">
-        <v>0.00193309999997382</v>
+        <v>0.002129400000001169</v>
       </c>
       <c r="Y715" t="n">
         <v>8</v>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="X716" t="n">
-        <v>0.001668300000005729</v>
+        <v>0.001799699999992299</v>
       </c>
       <c r="Y716" t="n">
         <v>7</v>
@@ -59268,7 +59268,7 @@
         </is>
       </c>
       <c r="X717" t="n">
-        <v>0.00258769999999231</v>
+        <v>0.002783199999953467</v>
       </c>
       <c r="Y717" t="n">
         <v>11</v>
@@ -59350,7 +59350,7 @@
         </is>
       </c>
       <c r="X718" t="n">
-        <v>0.003090799999995397</v>
+        <v>0.004619599999955426</v>
       </c>
       <c r="Y718" t="n">
         <v>12</v>
@@ -59432,7 +59432,7 @@
         </is>
       </c>
       <c r="X719" t="n">
-        <v>0.002189100000009603</v>
+        <v>0.002332299999977749</v>
       </c>
       <c r="Y719" t="n">
         <v>9</v>
@@ -59514,7 +59514,7 @@
         </is>
       </c>
       <c r="X720" t="n">
-        <v>0.003370099999983722</v>
+        <v>0.002347700000029818</v>
       </c>
       <c r="Y720" t="n">
         <v>9</v>
@@ -59596,7 +59596,7 @@
         </is>
       </c>
       <c r="X721" t="n">
-        <v>0.002662799999995968</v>
+        <v>0.00200179999995953</v>
       </c>
       <c r="Y721" t="n">
         <v>8</v>
@@ -59678,7 +59678,7 @@
         </is>
       </c>
       <c r="X722" t="n">
-        <v>0.002380300000027091</v>
+        <v>0.002465100000051734</v>
       </c>
       <c r="Y722" t="n">
         <v>10</v>
@@ -59760,7 +59760,7 @@
         </is>
       </c>
       <c r="X723" t="n">
-        <v>0.003055099999983213</v>
+        <v>0.00361609999998791</v>
       </c>
       <c r="Y723" t="n">
         <v>13</v>
@@ -59842,7 +59842,7 @@
         </is>
       </c>
       <c r="X724" t="n">
-        <v>0.003149899999982608</v>
+        <v>0.003162700000018503</v>
       </c>
       <c r="Y724" t="n">
         <v>13</v>
@@ -59924,7 +59924,7 @@
         </is>
       </c>
       <c r="X725" t="n">
-        <v>0.004147699999975885</v>
+        <v>0.002954799999997704</v>
       </c>
       <c r="Y725" t="n">
         <v>12</v>
@@ -60006,7 +60006,7 @@
         </is>
       </c>
       <c r="X726" t="n">
-        <v>0.002700000000004366</v>
+        <v>0.002715599999987717</v>
       </c>
       <c r="Y726" t="n">
         <v>11</v>
@@ -60088,7 +60088,7 @@
         </is>
       </c>
       <c r="X727" t="n">
-        <v>0.002461000000039348</v>
+        <v>0.002518600000030347</v>
       </c>
       <c r="Y727" t="n">
         <v>10</v>
@@ -60170,7 +60170,7 @@
         </is>
       </c>
       <c r="X728" t="n">
-        <v>0.001897799999994731</v>
+        <v>0.003749699999957556</v>
       </c>
       <c r="Y728" t="n">
         <v>8</v>
@@ -60252,7 +60252,7 @@
         </is>
       </c>
       <c r="X729" t="n">
-        <v>0.002592899999967813</v>
+        <v>0.002394299999991745</v>
       </c>
       <c r="Y729" t="n">
         <v>10</v>
@@ -60334,7 +60334,7 @@
         </is>
       </c>
       <c r="X730" t="n">
-        <v>0.002151099999991857</v>
+        <v>0.00228820000000951</v>
       </c>
       <c r="Y730" t="n">
         <v>9</v>
@@ -60416,7 +60416,7 @@
         </is>
       </c>
       <c r="X731" t="n">
-        <v>0.00286909999999807</v>
+        <v>0.002866900000014994</v>
       </c>
       <c r="Y731" t="n">
         <v>12</v>
@@ -60498,7 +60498,7 @@
         </is>
       </c>
       <c r="X732" t="n">
-        <v>0.004634600000031242</v>
+        <v>0.002919100000042363</v>
       </c>
       <c r="Y732" t="n">
         <v>12</v>
@@ -60580,7 +60580,7 @@
         </is>
       </c>
       <c r="X733" t="n">
-        <v>0.002285499999970853</v>
+        <v>0.002386199999989458</v>
       </c>
       <c r="Y733" t="n">
         <v>8</v>
@@ -60662,7 +60662,7 @@
         </is>
       </c>
       <c r="X734" t="n">
-        <v>0.002509099999997488</v>
+        <v>0.002427299999965271</v>
       </c>
       <c r="Y734" t="n">
         <v>10</v>
@@ -60744,7 +60744,7 @@
         </is>
       </c>
       <c r="X735" t="n">
-        <v>0.00187799999997651</v>
+        <v>0.002180100000032326</v>
       </c>
       <c r="Y735" t="n">
         <v>8</v>
@@ -60826,7 +60826,7 @@
         </is>
       </c>
       <c r="X736" t="n">
-        <v>0.002637199999981021</v>
+        <v>0.00251709999997729</v>
       </c>
       <c r="Y736" t="n">
         <v>11</v>
@@ -60908,7 +60908,7 @@
         </is>
       </c>
       <c r="X737" t="n">
-        <v>0.002409400000033202</v>
+        <v>0.002070000000003347</v>
       </c>
       <c r="Y737" t="n">
         <v>8</v>
@@ -60990,7 +60990,7 @@
         </is>
       </c>
       <c r="X738" t="n">
-        <v>0.002158300000019153</v>
+        <v>0.003408799999988332</v>
       </c>
       <c r="Y738" t="n">
         <v>9</v>
@@ -61072,7 +61072,7 @@
         </is>
       </c>
       <c r="X739" t="n">
-        <v>0.002529499999980089</v>
+        <v>0.00208810000003723</v>
       </c>
       <c r="Y739" t="n">
         <v>8</v>
@@ -61154,7 +61154,7 @@
         </is>
       </c>
       <c r="X740" t="n">
-        <v>0.002099199999975099</v>
+        <v>0.002798500000039894</v>
       </c>
       <c r="Y740" t="n">
         <v>9</v>
@@ -61236,7 +61236,7 @@
         </is>
       </c>
       <c r="X741" t="n">
-        <v>0.003461899999990692</v>
+        <v>0.001969400000007226</v>
       </c>
       <c r="Y741" t="n">
         <v>8</v>
@@ -61318,7 +61318,7 @@
         </is>
       </c>
       <c r="X742" t="n">
-        <v>0.003300799999976789</v>
+        <v>0.003207400000007965</v>
       </c>
       <c r="Y742" t="n">
         <v>13</v>
@@ -61400,7 +61400,7 @@
         </is>
       </c>
       <c r="X743" t="n">
-        <v>0.002372700000023542</v>
+        <v>0.002787300000022697</v>
       </c>
       <c r="Y743" t="n">
         <v>9</v>
@@ -61482,7 +61482,7 @@
         </is>
       </c>
       <c r="X744" t="n">
-        <v>0.004143599999963499</v>
+        <v>0.002064899999993486</v>
       </c>
       <c r="Y744" t="n">
         <v>8</v>
@@ -61564,7 +61564,7 @@
         </is>
       </c>
       <c r="X745" t="n">
-        <v>0.002382699999998295</v>
+        <v>0.002783999999962816</v>
       </c>
       <c r="Y745" t="n">
         <v>9</v>
@@ -61646,7 +61646,7 @@
         </is>
       </c>
       <c r="X746" t="n">
-        <v>0.002131700000006731</v>
+        <v>0.001905499999963922</v>
       </c>
       <c r="Y746" t="n">
         <v>8</v>
@@ -61728,7 +61728,7 @@
         </is>
       </c>
       <c r="X747" t="n">
-        <v>0.001931200000001354</v>
+        <v>0.001984999999990578</v>
       </c>
       <c r="Y747" t="n">
         <v>8</v>
@@ -61810,7 +61810,7 @@
         </is>
       </c>
       <c r="X748" t="n">
-        <v>0.002204500000004828</v>
+        <v>0.002129700000011781</v>
       </c>
       <c r="Y748" t="n">
         <v>9</v>
@@ -61892,7 +61892,7 @@
         </is>
       </c>
       <c r="X749" t="n">
-        <v>0.002165000000047712</v>
+        <v>0.002289500000017597</v>
       </c>
       <c r="Y749" t="n">
         <v>9</v>
@@ -61974,7 +61974,7 @@
         </is>
       </c>
       <c r="X750" t="n">
-        <v>0.002784500000018397</v>
+        <v>0.004238299999997253</v>
       </c>
       <c r="Y750" t="n">
         <v>11</v>
@@ -62056,7 +62056,7 @@
         </is>
       </c>
       <c r="X751" t="n">
-        <v>0.004787200000009761</v>
+        <v>0.00281510000002072</v>
       </c>
       <c r="Y751" t="n">
         <v>11</v>
@@ -62138,7 +62138,7 @@
         </is>
       </c>
       <c r="X752" t="n">
-        <v>0.00273069999997233</v>
+        <v>0.002959999999973206</v>
       </c>
       <c r="Y752" t="n">
         <v>12</v>
@@ -62220,7 +62220,7 @@
         </is>
       </c>
       <c r="X753" t="n">
-        <v>0.002216500000031374</v>
+        <v>0.002074800000002597</v>
       </c>
       <c r="Y753" t="n">
         <v>8</v>
@@ -62302,7 +62302,7 @@
         </is>
       </c>
       <c r="X754" t="n">
-        <v>0.002980400000012651</v>
+        <v>0.003145700000004581</v>
       </c>
       <c r="Y754" t="n">
         <v>13</v>
@@ -62384,7 +62384,7 @@
         </is>
       </c>
       <c r="X755" t="n">
-        <v>0.002791400000035082</v>
+        <v>0.004542200000003049</v>
       </c>
       <c r="Y755" t="n">
         <v>12</v>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="X756" t="n">
-        <v>0.003454399999952784</v>
+        <v>0.00326630000000705</v>
       </c>
       <c r="Y756" t="n">
         <v>13</v>
@@ -62548,7 +62548,7 @@
         </is>
       </c>
       <c r="X757" t="n">
-        <v>0.003008100000045033</v>
+        <v>0.003349299999968025</v>
       </c>
       <c r="Y757" t="n">
         <v>13</v>
@@ -62630,7 +62630,7 @@
         </is>
       </c>
       <c r="X758" t="n">
-        <v>0.003444899999976769</v>
+        <v>0.002171399999951973</v>
       </c>
       <c r="Y758" t="n">
         <v>8</v>
@@ -62712,7 +62712,7 @@
         </is>
       </c>
       <c r="X759" t="n">
-        <v>0.002497199999993427</v>
+        <v>0.002757700000017849</v>
       </c>
       <c r="Y759" t="n">
         <v>11</v>
@@ -62794,7 +62794,7 @@
         </is>
       </c>
       <c r="X760" t="n">
-        <v>0.004169300000000931</v>
+        <v>0.002813800000012634</v>
       </c>
       <c r="Y760" t="n">
         <v>11</v>
@@ -62876,7 +62876,7 @@
         </is>
       </c>
       <c r="X761" t="n">
-        <v>0.006472799999983181</v>
+        <v>0.004730899999970006</v>
       </c>
       <c r="Y761" t="n">
         <v>13</v>
@@ -62958,7 +62958,7 @@
         </is>
       </c>
       <c r="X762" t="n">
-        <v>0.002054900000018733</v>
+        <v>0.001978000000008251</v>
       </c>
       <c r="Y762" t="n">
         <v>8</v>
@@ -63040,7 +63040,7 @@
         </is>
       </c>
       <c r="X763" t="n">
-        <v>0.002793699999983801</v>
+        <v>0.002901199999996606</v>
       </c>
       <c r="Y763" t="n">
         <v>12</v>
@@ -63122,7 +63122,7 @@
         </is>
       </c>
       <c r="X764" t="n">
-        <v>0.002598999999975149</v>
+        <v>0.001912800000013704</v>
       </c>
       <c r="Y764" t="n">
         <v>8</v>
@@ -63204,7 +63204,7 @@
         </is>
       </c>
       <c r="X765" t="n">
-        <v>0.002192699999966408</v>
+        <v>0.00198929999999109</v>
       </c>
       <c r="Y765" t="n">
         <v>8</v>
@@ -63286,7 +63286,7 @@
         </is>
       </c>
       <c r="X766" t="n">
-        <v>0.002861999999993259</v>
+        <v>0.004197799999985818</v>
       </c>
       <c r="Y766" t="n">
         <v>11</v>
@@ -63368,7 +63368,7 @@
         </is>
       </c>
       <c r="X767" t="n">
-        <v>0.002306500000031519</v>
+        <v>0.002434300000004441</v>
       </c>
       <c r="Y767" t="n">
         <v>10</v>
@@ -63450,7 +63450,7 @@
         </is>
       </c>
       <c r="X768" t="n">
-        <v>0.002825699999959852</v>
+        <v>0.002893199999959961</v>
       </c>
       <c r="Y768" t="n">
         <v>12</v>
@@ -63532,7 +63532,7 @@
         </is>
       </c>
       <c r="X769" t="n">
-        <v>0.002633099999968636</v>
+        <v>0.00260150000002568</v>
       </c>
       <c r="Y769" t="n">
         <v>11</v>
@@ -63614,7 +63614,7 @@
         </is>
       </c>
       <c r="X770" t="n">
-        <v>0.002183899999977257</v>
+        <v>0.002198600000042461</v>
       </c>
       <c r="Y770" t="n">
         <v>9</v>
@@ -63696,7 +63696,7 @@
         </is>
       </c>
       <c r="X771" t="n">
-        <v>0.002090599999974074</v>
+        <v>0.00253039999995508</v>
       </c>
       <c r="Y771" t="n">
         <v>9</v>
@@ -63778,7 +63778,7 @@
         </is>
       </c>
       <c r="X772" t="n">
-        <v>0.002665499999977783</v>
+        <v>0.002683200000035413</v>
       </c>
       <c r="Y772" t="n">
         <v>11</v>
@@ -63860,7 +63860,7 @@
         </is>
       </c>
       <c r="X773" t="n">
-        <v>0.003274399999952493</v>
+        <v>0.002493200000003526</v>
       </c>
       <c r="Y773" t="n">
         <v>10</v>
@@ -63942,7 +63942,7 @@
         </is>
       </c>
       <c r="X774" t="n">
-        <v>0.002887799999996332</v>
+        <v>0.004157899999995607</v>
       </c>
       <c r="Y774" t="n">
         <v>13</v>
@@ -64024,7 +64024,7 @@
         </is>
       </c>
       <c r="X775" t="n">
-        <v>0.003465699999992466</v>
+        <v>0.003043499999989763</v>
       </c>
       <c r="Y775" t="n">
         <v>13</v>
@@ -64106,7 +64106,7 @@
         </is>
       </c>
       <c r="X776" t="n">
-        <v>0.002525399999967703</v>
+        <v>0.002693299999975807</v>
       </c>
       <c r="Y776" t="n">
         <v>11</v>
@@ -64188,7 +64188,7 @@
         </is>
       </c>
       <c r="X777" t="n">
-        <v>0.001729899999986628</v>
+        <v>0.001664699999992081</v>
       </c>
       <c r="Y777" t="n">
         <v>7</v>
@@ -64270,7 +64270,7 @@
         </is>
       </c>
       <c r="X778" t="n">
-        <v>0.002441700000019864</v>
+        <v>0.002479600000015125</v>
       </c>
       <c r="Y778" t="n">
         <v>10</v>
@@ -64352,7 +64352,7 @@
         </is>
       </c>
       <c r="X779" t="n">
-        <v>0.002521299999955318</v>
+        <v>0.002653699999996206</v>
       </c>
       <c r="Y779" t="n">
         <v>9</v>
@@ -64434,7 +64434,7 @@
         </is>
       </c>
       <c r="X780" t="n">
-        <v>0.005050700000026609</v>
+        <v>0.002096199999982673</v>
       </c>
       <c r="Y780" t="n">
         <v>9</v>
@@ -64516,7 +64516,7 @@
         </is>
       </c>
       <c r="X781" t="n">
-        <v>0.03832829999998921</v>
+        <v>0.004883800000015981</v>
       </c>
       <c r="Y781" t="n">
         <v>13</v>
@@ -64598,7 +64598,7 @@
         </is>
       </c>
       <c r="X782" t="n">
-        <v>0.002466000000026725</v>
+        <v>0.002153799999973671</v>
       </c>
       <c r="Y782" t="n">
         <v>9</v>
@@ -64680,7 +64680,7 @@
         </is>
       </c>
       <c r="X783" t="n">
-        <v>0.00343839999999318</v>
+        <v>0.002794699999981276</v>
       </c>
       <c r="Y783" t="n">
         <v>11</v>
@@ -64762,7 +64762,7 @@
         </is>
       </c>
       <c r="X784" t="n">
-        <v>0.003428399999961584</v>
+        <v>0.002751999999986765</v>
       </c>
       <c r="Y784" t="n">
         <v>12</v>
@@ -64844,7 +64844,7 @@
         </is>
       </c>
       <c r="X785" t="n">
-        <v>0.001977199999998902</v>
+        <v>0.001961900000026162</v>
       </c>
       <c r="Y785" t="n">
         <v>8</v>
@@ -64926,7 +64926,7 @@
         </is>
       </c>
       <c r="X786" t="n">
-        <v>0.002177400000050511</v>
+        <v>0.002936200000021927</v>
       </c>
       <c r="Y786" t="n">
         <v>8</v>
@@ -65008,7 +65008,7 @@
         </is>
       </c>
       <c r="X787" t="n">
-        <v>0.002952399999969657</v>
+        <v>0.002901500000007218</v>
       </c>
       <c r="Y787" t="n">
         <v>12</v>
@@ -65090,7 +65090,7 @@
         </is>
       </c>
       <c r="X788" t="n">
-        <v>0.003453200000024026</v>
+        <v>0.00298669999995127</v>
       </c>
       <c r="Y788" t="n">
         <v>12</v>
@@ -65172,7 +65172,7 @@
         </is>
       </c>
       <c r="X789" t="n">
-        <v>0.004115599999977348</v>
+        <v>0.00358049999999821</v>
       </c>
       <c r="Y789" t="n">
         <v>13</v>
@@ -65254,7 +65254,7 @@
         </is>
       </c>
       <c r="X790" t="n">
-        <v>0.007880299999953877</v>
+        <v>0.001970900000003439</v>
       </c>
       <c r="Y790" t="n">
         <v>8</v>
@@ -65336,7 +65336,7 @@
         </is>
       </c>
       <c r="X791" t="n">
-        <v>0.002904099999966547</v>
+        <v>0.004161100000033002</v>
       </c>
       <c r="Y791" t="n">
         <v>11</v>
@@ -65418,7 +65418,7 @@
         </is>
       </c>
       <c r="X792" t="n">
-        <v>0.002848299999982373</v>
+        <v>0.00294450000001234</v>
       </c>
       <c r="Y792" t="n">
         <v>12</v>
@@ -65500,7 +65500,7 @@
         </is>
       </c>
       <c r="X793" t="n">
-        <v>0.008611700000017208</v>
+        <v>0.003245099999958256</v>
       </c>
       <c r="Y793" t="n">
         <v>13</v>
@@ -65582,7 +65582,7 @@
         </is>
       </c>
       <c r="X794" t="n">
-        <v>0.002718299999969531</v>
+        <v>0.003354999999999109</v>
       </c>
       <c r="Y794" t="n">
         <v>10</v>
@@ -65664,7 +65664,7 @@
         </is>
       </c>
       <c r="X795" t="n">
-        <v>0.002408800000011979</v>
+        <v>0.002431800000010753</v>
       </c>
       <c r="Y795" t="n">
         <v>10</v>
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="X796" t="n">
-        <v>0.001727099999982329</v>
+        <v>0.00203169999997499</v>
       </c>
       <c r="Y796" t="n">
         <v>7</v>
@@ -65828,7 +65828,7 @@
         </is>
       </c>
       <c r="X797" t="n">
-        <v>0.004252500000006876</v>
+        <v>0.002686999999980344</v>
       </c>
       <c r="Y797" t="n">
         <v>11</v>
@@ -65910,7 +65910,7 @@
         </is>
       </c>
       <c r="X798" t="n">
-        <v>0.002638500000045951</v>
+        <v>0.002805799999975989</v>
       </c>
       <c r="Y798" t="n">
         <v>11</v>
@@ -65992,7 +65992,7 @@
         </is>
       </c>
       <c r="X799" t="n">
-        <v>0.007531900000003589</v>
+        <v>0.002780599999994138</v>
       </c>
       <c r="Y799" t="n">
         <v>8</v>
@@ -66074,7 +66074,7 @@
         </is>
       </c>
       <c r="X800" t="n">
-        <v>0.003537499999993088</v>
+        <v>0.002508599999998751</v>
       </c>
       <c r="Y800" t="n">
         <v>10</v>
@@ -66156,7 +66156,7 @@
         </is>
       </c>
       <c r="X801" t="n">
-        <v>0.002202299999964907</v>
+        <v>0.002268899999990026</v>
       </c>
       <c r="Y801" t="n">
         <v>9</v>
@@ -66238,7 +66238,7 @@
         </is>
       </c>
       <c r="X802" t="n">
-        <v>0.003312100000016471</v>
+        <v>0.002535899999998037</v>
       </c>
       <c r="Y802" t="n">
         <v>11</v>
@@ -66320,7 +66320,7 @@
         </is>
       </c>
       <c r="X803" t="n">
-        <v>0.008711399999981495</v>
+        <v>0.002734000000032211</v>
       </c>
       <c r="Y803" t="n">
         <v>11</v>
@@ -66402,7 +66402,7 @@
         </is>
       </c>
       <c r="X804" t="n">
-        <v>0.003442600000028051</v>
+        <v>0.004405600000040977</v>
       </c>
       <c r="Y804" t="n">
         <v>13</v>
@@ -66484,7 +66484,7 @@
         </is>
       </c>
       <c r="X805" t="n">
-        <v>0.003099799999972674</v>
+        <v>0.002236199999970268</v>
       </c>
       <c r="Y805" t="n">
         <v>9</v>
@@ -66566,7 +66566,7 @@
         </is>
       </c>
       <c r="X806" t="n">
-        <v>0.002387199999986933</v>
+        <v>0.002438499999982469</v>
       </c>
       <c r="Y806" t="n">
         <v>10</v>
@@ -66648,7 +66648,7 @@
         </is>
       </c>
       <c r="X807" t="n">
-        <v>0.009261200000025838</v>
+        <v>0.002616299999999683</v>
       </c>
       <c r="Y807" t="n">
         <v>11</v>
@@ -66730,7 +66730,7 @@
         </is>
       </c>
       <c r="X808" t="n">
-        <v>0.004409399999985908</v>
+        <v>0.002245700000003126</v>
       </c>
       <c r="Y808" t="n">
         <v>9</v>
@@ -66812,7 +66812,7 @@
         </is>
       </c>
       <c r="X809" t="n">
-        <v>0.002699699999993754</v>
+        <v>0.003474399999959132</v>
       </c>
       <c r="Y809" t="n">
         <v>11</v>
@@ -66894,7 +66894,7 @@
         </is>
       </c>
       <c r="X810" t="n">
-        <v>0.002181299999961084</v>
+        <v>0.002200700000003053</v>
       </c>
       <c r="Y810" t="n">
         <v>9</v>
@@ -66976,7 +66976,7 @@
         </is>
       </c>
       <c r="X811" t="n">
-        <v>0.002865100000008169</v>
+        <v>0.002987200000006851</v>
       </c>
       <c r="Y811" t="n">
         <v>12</v>
@@ -67058,7 +67058,7 @@
         </is>
       </c>
       <c r="X812" t="n">
-        <v>0.003350799999964238</v>
+        <v>0.003284799999960342</v>
       </c>
       <c r="Y812" t="n">
         <v>14</v>
@@ -67140,7 +67140,7 @@
         </is>
       </c>
       <c r="X813" t="n">
-        <v>0.003286199999990913</v>
+        <v>0.003137099999946713</v>
       </c>
       <c r="Y813" t="n">
         <v>13</v>
@@ -67222,7 +67222,7 @@
         </is>
       </c>
       <c r="X814" t="n">
-        <v>0.004305899999963003</v>
+        <v>0.0043266999999787</v>
       </c>
       <c r="Y814" t="n">
         <v>12</v>
@@ -67304,7 +67304,7 @@
         </is>
       </c>
       <c r="X815" t="n">
-        <v>0.00217910000003485</v>
+        <v>0.002119900000025154</v>
       </c>
       <c r="Y815" t="n">
         <v>9</v>
@@ -67386,7 +67386,7 @@
         </is>
       </c>
       <c r="X816" t="n">
-        <v>0.00448430000000144</v>
+        <v>0.003214200000002165</v>
       </c>
       <c r="Y816" t="n">
         <v>13</v>
@@ -67468,7 +67468,7 @@
         </is>
       </c>
       <c r="X817" t="n">
-        <v>0.00193419999999378</v>
+        <v>0.001893699999982346</v>
       </c>
       <c r="Y817" t="n">
         <v>8</v>
@@ -67550,7 +67550,7 @@
         </is>
       </c>
       <c r="X818" t="n">
-        <v>0.00244249999997237</v>
+        <v>0.002399400000001606</v>
       </c>
       <c r="Y818" t="n">
         <v>10</v>
@@ -67632,7 +67632,7 @@
         </is>
       </c>
       <c r="X819" t="n">
-        <v>0.001865599999973711</v>
+        <v>0.001731500000005326</v>
       </c>
       <c r="Y819" t="n">
         <v>7</v>
@@ -67714,7 +67714,7 @@
         </is>
       </c>
       <c r="X820" t="n">
-        <v>0.002168299999993906</v>
+        <v>0.002136100000029728</v>
       </c>
       <c r="Y820" t="n">
         <v>9</v>
@@ -67796,7 +67796,7 @@
         </is>
       </c>
       <c r="X821" t="n">
-        <v>0.003066400000022895</v>
+        <v>0.003328500000009171</v>
       </c>
       <c r="Y821" t="n">
         <v>11</v>
@@ -67878,7 +67878,7 @@
         </is>
       </c>
       <c r="X822" t="n">
-        <v>0.00338019999998096</v>
+        <v>0.002961499999969419</v>
       </c>
       <c r="Y822" t="n">
         <v>12</v>
@@ -67960,7 +67960,7 @@
         </is>
       </c>
       <c r="X823" t="n">
-        <v>0.002878199999997832</v>
+        <v>0.002969900000039161</v>
       </c>
       <c r="Y823" t="n">
         <v>12</v>
@@ -68042,7 +68042,7 @@
         </is>
       </c>
       <c r="X824" t="n">
-        <v>0.002943899999991118</v>
+        <v>0.005283399999996163</v>
       </c>
       <c r="Y824" t="n">
         <v>12</v>
@@ -68124,7 +68124,7 @@
         </is>
       </c>
       <c r="X825" t="n">
-        <v>0.003416000000015629</v>
+        <v>0.003412099999991369</v>
       </c>
       <c r="Y825" t="n">
         <v>14</v>
@@ -68206,7 +68206,7 @@
         </is>
       </c>
       <c r="X826" t="n">
-        <v>0.002631699999994908</v>
+        <v>0.002737899999999627</v>
       </c>
       <c r="Y826" t="n">
         <v>11</v>
@@ -68288,7 +68288,7 @@
         </is>
       </c>
       <c r="X827" t="n">
-        <v>0.002941300000031788</v>
+        <v>0.003918099999964397</v>
       </c>
       <c r="Y827" t="n">
         <v>12</v>
@@ -68370,7 +68370,7 @@
         </is>
       </c>
       <c r="X828" t="n">
-        <v>0.002835200000049554</v>
+        <v>0.002849299999979849</v>
       </c>
       <c r="Y828" t="n">
         <v>12</v>
@@ -68452,7 +68452,7 @@
         </is>
       </c>
       <c r="X829" t="n">
-        <v>0.004516799999976229</v>
+        <v>0.003653299999996307</v>
       </c>
       <c r="Y829" t="n">
         <v>12</v>
@@ -68534,7 +68534,7 @@
         </is>
       </c>
       <c r="X830" t="n">
-        <v>0.002154500000017379</v>
+        <v>0.002180500000008578</v>
       </c>
       <c r="Y830" t="n">
         <v>9</v>
@@ -68616,7 +68616,7 @@
         </is>
       </c>
       <c r="X831" t="n">
-        <v>0.002305100000000948</v>
+        <v>0.002249600000027385</v>
       </c>
       <c r="Y831" t="n">
         <v>9</v>
@@ -68698,7 +68698,7 @@
         </is>
       </c>
       <c r="X832" t="n">
-        <v>0.00238960000001498</v>
+        <v>0.002718600000036986</v>
       </c>
       <c r="Y832" t="n">
         <v>9</v>
@@ -68780,7 +68780,7 @@
         </is>
       </c>
       <c r="X833" t="n">
-        <v>0.002628899999990608</v>
+        <v>0.003000600000007125</v>
       </c>
       <c r="Y833" t="n">
         <v>11</v>
@@ -68862,7 +68862,7 @@
         </is>
       </c>
       <c r="X834" t="n">
-        <v>0.002857899999980873</v>
+        <v>0.002878000000009706</v>
       </c>
       <c r="Y834" t="n">
         <v>11</v>
@@ -68944,7 +68944,7 @@
         </is>
       </c>
       <c r="X835" t="n">
-        <v>0.002971300000012889</v>
+        <v>0.00285270000000537</v>
       </c>
       <c r="Y835" t="n">
         <v>12</v>
@@ -69026,7 +69026,7 @@
         </is>
       </c>
       <c r="X836" t="n">
-        <v>0.002761300000031497</v>
+        <v>0.002485900000010588</v>
       </c>
       <c r="Y836" t="n">
         <v>10</v>
@@ -69108,7 +69108,7 @@
         </is>
       </c>
       <c r="X837" t="n">
-        <v>0.00223199999999224</v>
+        <v>0.003262299999960305</v>
       </c>
       <c r="Y837" t="n">
         <v>9</v>
@@ -69190,7 +69190,7 @@
         </is>
       </c>
       <c r="X838" t="n">
-        <v>0.001942299999996067</v>
+        <v>0.002111599999977898</v>
       </c>
       <c r="Y838" t="n">
         <v>8</v>
@@ -69272,7 +69272,7 @@
         </is>
       </c>
       <c r="X839" t="n">
-        <v>0.003089100000011058</v>
+        <v>0.003136100000006081</v>
       </c>
       <c r="Y839" t="n">
         <v>12</v>
@@ -69354,7 +69354,7 @@
         </is>
       </c>
       <c r="X840" t="n">
-        <v>0.003091399999959776</v>
+        <v>0.003044799999997849</v>
       </c>
       <c r="Y840" t="n">
         <v>13</v>
@@ -69436,7 +69436,7 @@
         </is>
       </c>
       <c r="X841" t="n">
-        <v>0.003867099999979473</v>
+        <v>0.003088900000022932</v>
       </c>
       <c r="Y841" t="n">
         <v>13</v>
@@ -69518,7 +69518,7 @@
         </is>
       </c>
       <c r="X842" t="n">
-        <v>0.002664000000038413</v>
+        <v>0.005167299999982333</v>
       </c>
       <c r="Y842" t="n">
         <v>11</v>
@@ -69600,7 +69600,7 @@
         </is>
       </c>
       <c r="X843" t="n">
-        <v>0.003051900000002661</v>
+        <v>0.003088899999966088</v>
       </c>
       <c r="Y843" t="n">
         <v>13</v>
@@ -69682,7 +69682,7 @@
         </is>
       </c>
       <c r="X844" t="n">
-        <v>0.003001700000027085</v>
+        <v>0.003048699999965265</v>
       </c>
       <c r="Y844" t="n">
         <v>13</v>
@@ -69764,7 +69764,7 @@
         </is>
       </c>
       <c r="X845" t="n">
-        <v>0.002153000000021166</v>
+        <v>0.003651300000001356</v>
       </c>
       <c r="Y845" t="n">
         <v>9</v>
@@ -69846,7 +69846,7 @@
         </is>
       </c>
       <c r="X846" t="n">
-        <v>0.003951299999982893</v>
+        <v>0.001887399999986883</v>
       </c>
       <c r="Y846" t="n">
         <v>8</v>
@@ -69928,7 +69928,7 @@
         </is>
       </c>
       <c r="X847" t="n">
-        <v>0.001900500000033389</v>
+        <v>0.002234999999984666</v>
       </c>
       <c r="Y847" t="n">
         <v>8</v>
@@ -70010,7 +70010,7 @@
         </is>
       </c>
       <c r="X848" t="n">
-        <v>0.002981400000010126</v>
+        <v>0.002916499999969346</v>
       </c>
       <c r="Y848" t="n">
         <v>12</v>
@@ -70092,7 +70092,7 @@
         </is>
       </c>
       <c r="X849" t="n">
-        <v>0.002913699999965047</v>
+        <v>0.002778399999954217</v>
       </c>
       <c r="Y849" t="n">
         <v>11</v>
@@ -70174,7 +70174,7 @@
         </is>
       </c>
       <c r="X850" t="n">
-        <v>0.002902099999971597</v>
+        <v>0.005221700000049623</v>
       </c>
       <c r="Y850" t="n">
         <v>12</v>
@@ -70256,7 +70256,7 @@
         </is>
       </c>
       <c r="X851" t="n">
-        <v>0.003476499999976568</v>
+        <v>0.002557899999999336</v>
       </c>
       <c r="Y851" t="n">
         <v>11</v>
@@ -70338,7 +70338,7 @@
         </is>
       </c>
       <c r="X852" t="n">
-        <v>0.00195760000002565</v>
+        <v>0.001987600000006751</v>
       </c>
       <c r="Y852" t="n">
         <v>8</v>
@@ -70420,7 +70420,7 @@
         </is>
       </c>
       <c r="X853" t="n">
-        <v>0.002737200000012763</v>
+        <v>0.003055200000005698</v>
       </c>
       <c r="Y853" t="n">
         <v>9</v>
@@ -70502,7 +70502,7 @@
         </is>
       </c>
       <c r="X854" t="n">
-        <v>0.002239599999995789</v>
+        <v>0.002343800000005558</v>
       </c>
       <c r="Y854" t="n">
         <v>9</v>
@@ -70584,7 +70584,7 @@
         </is>
       </c>
       <c r="X855" t="n">
-        <v>0.001948400000003403</v>
+        <v>0.003382600000009006</v>
       </c>
       <c r="Y855" t="n">
         <v>8</v>
@@ -70666,7 +70666,7 @@
         </is>
       </c>
       <c r="X856" t="n">
-        <v>0.002130899999997382</v>
+        <v>0.00216640000002144</v>
       </c>
       <c r="Y856" t="n">
         <v>9</v>
@@ -70748,7 +70748,7 @@
         </is>
       </c>
       <c r="X857" t="n">
-        <v>0.002217699999960132</v>
+        <v>0.002247600000032435</v>
       </c>
       <c r="Y857" t="n">
         <v>9</v>
@@ -70830,7 +70830,7 @@
         </is>
       </c>
       <c r="X858" t="n">
-        <v>0.003697600000009515</v>
+        <v>0.002830800000026557</v>
       </c>
       <c r="Y858" t="n">
         <v>12</v>
@@ -70912,7 +70912,7 @@
         </is>
       </c>
       <c r="X859" t="n">
-        <v>0.002079299999991235</v>
+        <v>0.001989600000001701</v>
       </c>
       <c r="Y859" t="n">
         <v>8</v>
@@ -70994,7 +70994,7 @@
         </is>
       </c>
       <c r="X860" t="n">
-        <v>0.002000599999973929</v>
+        <v>0.002497900000037134</v>
       </c>
       <c r="Y860" t="n">
         <v>8</v>
@@ -71076,7 +71076,7 @@
         </is>
       </c>
       <c r="X861" t="n">
-        <v>0.004937699999970846</v>
+        <v>0.003160600000001068</v>
       </c>
       <c r="Y861" t="n">
         <v>13</v>
@@ -71158,7 +71158,7 @@
         </is>
       </c>
       <c r="X862" t="n">
-        <v>0.003038399999979902</v>
+        <v>0.003179700000032426</v>
       </c>
       <c r="Y862" t="n">
         <v>13</v>
@@ -71240,7 +71240,7 @@
         </is>
       </c>
       <c r="X863" t="n">
-        <v>0.002641000000039639</v>
+        <v>0.002513300000032359</v>
       </c>
       <c r="Y863" t="n">
         <v>11</v>
@@ -71322,7 +71322,7 @@
         </is>
       </c>
       <c r="X864" t="n">
-        <v>0.003301399999998011</v>
+        <v>0.00310079999997015</v>
       </c>
       <c r="Y864" t="n">
         <v>13</v>
@@ -71404,7 +71404,7 @@
         </is>
       </c>
       <c r="X865" t="n">
-        <v>0.002852499999960401</v>
+        <v>0.003976599999987229</v>
       </c>
       <c r="Y865" t="n">
         <v>12</v>
@@ -71486,7 +71486,7 @@
         </is>
       </c>
       <c r="X866" t="n">
-        <v>0.002752200000031735</v>
+        <v>0.001943299999993542</v>
       </c>
       <c r="Y866" t="n">
         <v>8</v>
@@ -71568,7 +71568,7 @@
         </is>
       </c>
       <c r="X867" t="n">
-        <v>0.002860699999985172</v>
+        <v>0.002989799999966181</v>
       </c>
       <c r="Y867" t="n">
         <v>12</v>
@@ -71650,7 +71650,7 @@
         </is>
       </c>
       <c r="X868" t="n">
-        <v>0.002916799999979958</v>
+        <v>0.001887699999997494</v>
       </c>
       <c r="Y868" t="n">
         <v>8</v>
@@ -71732,7 +71732,7 @@
         </is>
       </c>
       <c r="X869" t="n">
-        <v>0.002974899999969693</v>
+        <v>0.002907999999990807</v>
       </c>
       <c r="Y869" t="n">
         <v>12</v>
@@ -71814,7 +71814,7 @@
         </is>
       </c>
       <c r="X870" t="n">
-        <v>0.002539299999966715</v>
+        <v>0.003845899999987523</v>
       </c>
       <c r="Y870" t="n">
         <v>9</v>
@@ -71896,7 +71896,7 @@
         </is>
       </c>
       <c r="X871" t="n">
-        <v>0.003570599999989099</v>
+        <v>0.002704999999991742</v>
       </c>
       <c r="Y871" t="n">
         <v>11</v>
@@ -71978,7 +71978,7 @@
         </is>
       </c>
       <c r="X872" t="n">
-        <v>0.002408800000011979</v>
+        <v>0.002524400000027072</v>
       </c>
       <c r="Y872" t="n">
         <v>10</v>
@@ -72060,7 +72060,7 @@
         </is>
       </c>
       <c r="X873" t="n">
-        <v>0.002394700000024841</v>
+        <v>0.002355899999997746</v>
       </c>
       <c r="Y873" t="n">
         <v>10</v>
@@ -72142,7 +72142,7 @@
         </is>
       </c>
       <c r="X874" t="n">
-        <v>0.002024900000037633</v>
+        <v>0.001713100000017675</v>
       </c>
       <c r="Y874" t="n">
         <v>7</v>
@@ -72224,7 +72224,7 @@
         </is>
       </c>
       <c r="X875" t="n">
-        <v>0.002308400000003985</v>
+        <v>0.003639200000009168</v>
       </c>
       <c r="Y875" t="n">
         <v>9</v>
@@ -72306,7 +72306,7 @@
         </is>
       </c>
       <c r="X876" t="n">
-        <v>0.003081699999995635</v>
+        <v>0.00313469999997551</v>
       </c>
       <c r="Y876" t="n">
         <v>13</v>
@@ -72388,7 +72388,7 @@
         </is>
       </c>
       <c r="X877" t="n">
-        <v>0.003438299999970695</v>
+        <v>0.002247099999976854</v>
       </c>
       <c r="Y877" t="n">
         <v>8</v>
@@ -72470,7 +72470,7 @@
         </is>
       </c>
       <c r="X878" t="n">
-        <v>0.001933900000040012</v>
+        <v>0.001938899999970545</v>
       </c>
       <c r="Y878" t="n">
         <v>8</v>
@@ -72552,7 +72552,7 @@
         </is>
       </c>
       <c r="X879" t="n">
-        <v>0.001965100000006714</v>
+        <v>0.001972600000044622</v>
       </c>
       <c r="Y879" t="n">
         <v>8</v>
@@ -72634,7 +72634,7 @@
         </is>
       </c>
       <c r="X880" t="n">
-        <v>0.004034600000011324</v>
+        <v>0.003917699999988145</v>
       </c>
       <c r="Y880" t="n">
         <v>11</v>
@@ -72716,7 +72716,7 @@
         </is>
       </c>
       <c r="X881" t="n">
-        <v>0.002188000000046486</v>
+        <v>0.002159300000016628</v>
       </c>
       <c r="Y881" t="n">
         <v>9</v>
@@ -72798,7 +72798,7 @@
         </is>
       </c>
       <c r="X882" t="n">
-        <v>0.002272099999970578</v>
+        <v>0.002263499999969554</v>
       </c>
       <c r="Y882" t="n">
         <v>9</v>
@@ -72880,7 +72880,7 @@
         </is>
       </c>
       <c r="X883" t="n">
-        <v>0.003558699999985038</v>
+        <v>0.002618900000015856</v>
       </c>
       <c r="Y883" t="n">
         <v>11</v>
@@ -72962,7 +72962,7 @@
         </is>
       </c>
       <c r="X884" t="n">
-        <v>0.003380800000002182</v>
+        <v>0.003006200000015724</v>
       </c>
       <c r="Y884" t="n">
         <v>12</v>
@@ -73044,7 +73044,7 @@
         </is>
       </c>
       <c r="X885" t="n">
-        <v>0.003524900000002162</v>
+        <v>0.003491800000006151</v>
       </c>
       <c r="Y885" t="n">
         <v>11</v>
@@ -73126,7 +73126,7 @@
         </is>
       </c>
       <c r="X886" t="n">
-        <v>0.005068300000004911</v>
+        <v>0.003046100000005936</v>
       </c>
       <c r="Y886" t="n">
         <v>13</v>
@@ -73208,7 +73208,7 @@
         </is>
       </c>
       <c r="X887" t="n">
-        <v>0.00521979999996347</v>
+        <v>0.002223299999968731</v>
       </c>
       <c r="Y887" t="n">
         <v>9</v>
@@ -73290,7 +73290,7 @@
         </is>
       </c>
       <c r="X888" t="n">
-        <v>0.002340500000002521</v>
+        <v>0.002916699999957473</v>
       </c>
       <c r="Y888" t="n">
         <v>9</v>
@@ -73372,7 +73372,7 @@
         </is>
       </c>
       <c r="X889" t="n">
-        <v>0.001961600000015551</v>
+        <v>0.00198649999998679</v>
       </c>
       <c r="Y889" t="n">
         <v>8</v>
@@ -73454,7 +73454,7 @@
         </is>
       </c>
       <c r="X890" t="n">
-        <v>0.002329200000019682</v>
+        <v>0.002594100000010258</v>
       </c>
       <c r="Y890" t="n">
         <v>9</v>
@@ -73536,7 +73536,7 @@
         </is>
       </c>
       <c r="X891" t="n">
-        <v>0.00416709999996101</v>
+        <v>0.002822600000001785</v>
       </c>
       <c r="Y891" t="n">
         <v>12</v>
@@ -73618,7 +73618,7 @@
         </is>
       </c>
       <c r="X892" t="n">
-        <v>0.003703800000039337</v>
+        <v>0.003279399999996713</v>
       </c>
       <c r="Y892" t="n">
         <v>12</v>
@@ -73700,7 +73700,7 @@
         </is>
       </c>
       <c r="X893" t="n">
-        <v>0.002406300000018291</v>
+        <v>0.003628100000014456</v>
       </c>
       <c r="Y893" t="n">
         <v>10</v>
@@ -73782,7 +73782,7 @@
         </is>
       </c>
       <c r="X894" t="n">
-        <v>0.002233999999987191</v>
+        <v>0.001957800000013776</v>
       </c>
       <c r="Y894" t="n">
         <v>8</v>
@@ -73864,7 +73864,7 @@
         </is>
       </c>
       <c r="X895" t="n">
-        <v>0.002183300000012878</v>
+        <v>0.002417499999978645</v>
       </c>
       <c r="Y895" t="n">
         <v>9</v>
@@ -73946,7 +73946,7 @@
         </is>
       </c>
       <c r="X896" t="n">
-        <v>0.004184099999974933</v>
+        <v>0.002123900000015055</v>
       </c>
       <c r="Y896" t="n">
         <v>9</v>
@@ -74028,7 +74028,7 @@
         </is>
       </c>
       <c r="X897" t="n">
-        <v>0.00252100000000155</v>
+        <v>0.00272479999995312</v>
       </c>
       <c r="Y897" t="n">
         <v>10</v>
@@ -74110,7 +74110,7 @@
         </is>
       </c>
       <c r="X898" t="n">
-        <v>0.002395700000022316</v>
+        <v>0.002374500000030366</v>
       </c>
       <c r="Y898" t="n">
         <v>10</v>
@@ -74192,7 +74192,7 @@
         </is>
       </c>
       <c r="X899" t="n">
-        <v>0.003083900000035555</v>
+        <v>0.003112999999984822</v>
       </c>
       <c r="Y899" t="n">
         <v>13</v>
@@ -74274,7 +74274,7 @@
         </is>
       </c>
       <c r="X900" t="n">
-        <v>0.002583099999981187</v>
+        <v>0.002820700000029319</v>
       </c>
       <c r="Y900" t="n">
         <v>11</v>
@@ -74356,7 +74356,7 @@
         </is>
       </c>
       <c r="X901" t="n">
-        <v>0.003669000000002143</v>
+        <v>0.003041599999960454</v>
       </c>
       <c r="Y901" t="n">
         <v>13</v>
@@ -74438,7 +74438,7 @@
         </is>
       </c>
       <c r="X902" t="n">
-        <v>0.002601400000003196</v>
+        <v>0.002667500000029577</v>
       </c>
       <c r="Y902" t="n">
         <v>11</v>
@@ -74520,7 +74520,7 @@
         </is>
       </c>
       <c r="X903" t="n">
-        <v>0.001943799999992279</v>
+        <v>0.003767100000004575</v>
       </c>
       <c r="Y903" t="n">
         <v>8</v>
@@ -74602,7 +74602,7 @@
         </is>
       </c>
       <c r="X904" t="n">
-        <v>0.002922500000011041</v>
+        <v>0.002406399999983933</v>
       </c>
       <c r="Y904" t="n">
         <v>10</v>
@@ -74684,7 +74684,7 @@
         </is>
       </c>
       <c r="X905" t="n">
-        <v>0.002135899999984758</v>
+        <v>0.00223900000003141</v>
       </c>
       <c r="Y905" t="n">
         <v>9</v>
@@ -74766,7 +74766,7 @@
         </is>
       </c>
       <c r="X906" t="n">
-        <v>0.004067700000007335</v>
+        <v>0.003177499999992506</v>
       </c>
       <c r="Y906" t="n">
         <v>13</v>
@@ -74848,7 +74848,7 @@
         </is>
       </c>
       <c r="X907" t="n">
-        <v>0.003313200000036431</v>
+        <v>0.003425300000003517</v>
       </c>
       <c r="Y907" t="n">
         <v>14</v>
@@ -74930,7 +74930,7 @@
         </is>
       </c>
       <c r="X908" t="n">
-        <v>0.003096299999981511</v>
+        <v>0.004726899999980105</v>
       </c>
       <c r="Y908" t="n">
         <v>12</v>
@@ -75012,7 +75012,7 @@
         </is>
       </c>
       <c r="X909" t="n">
-        <v>0.00350700000001325</v>
+        <v>0.002586000000007971</v>
       </c>
       <c r="Y909" t="n">
         <v>10</v>
@@ -75094,7 +75094,7 @@
         </is>
       </c>
       <c r="X910" t="n">
-        <v>0.003736900000035348</v>
+        <v>0.003266499999995176</v>
       </c>
       <c r="Y910" t="n">
         <v>13</v>
@@ -75176,7 +75176,7 @@
         </is>
       </c>
       <c r="X911" t="n">
-        <v>0.001880799999980809</v>
+        <v>0.002652099999977509</v>
       </c>
       <c r="Y911" t="n">
         <v>8</v>
@@ -75258,7 +75258,7 @@
         </is>
       </c>
       <c r="X912" t="n">
-        <v>0.002173800000036863</v>
+        <v>0.002331200000014633</v>
       </c>
       <c r="Y912" t="n">
         <v>9</v>
@@ -75340,7 +75340,7 @@
         </is>
       </c>
       <c r="X913" t="n">
-        <v>0.001934600000026876</v>
+        <v>0.003053599999987</v>
       </c>
       <c r="Y913" t="n">
         <v>8</v>
@@ -75422,7 +75422,7 @@
         </is>
       </c>
       <c r="X914" t="n">
-        <v>0.004241900000010901</v>
+        <v>0.003268199999979515</v>
       </c>
       <c r="Y914" t="n">
         <v>13</v>
@@ -75504,7 +75504,7 @@
         </is>
       </c>
       <c r="X915" t="n">
-        <v>0.003105800000014369</v>
+        <v>0.003189699999950335</v>
       </c>
       <c r="Y915" t="n">
         <v>13</v>
@@ -75586,7 +75586,7 @@
         </is>
       </c>
       <c r="X916" t="n">
-        <v>0.002342800000008083</v>
+        <v>0.002734199999963494</v>
       </c>
       <c r="Y916" t="n">
         <v>9</v>
@@ -75668,7 +75668,7 @@
         </is>
       </c>
       <c r="X917" t="n">
-        <v>0.002158599999972921</v>
+        <v>0.002311600000041381</v>
       </c>
       <c r="Y917" t="n">
         <v>9</v>
@@ -75750,7 +75750,7 @@
         </is>
       </c>
       <c r="X918" t="n">
-        <v>0.002971000000002277</v>
+        <v>0.0043758999999568</v>
       </c>
       <c r="Y918" t="n">
         <v>12</v>
@@ -75832,7 +75832,7 @@
         </is>
       </c>
       <c r="X919" t="n">
-        <v>0.003357400000027155</v>
+        <v>0.002873500000021068</v>
       </c>
       <c r="Y919" t="n">
         <v>12</v>
@@ -75914,7 +75914,7 @@
         </is>
       </c>
       <c r="X920" t="n">
-        <v>0.002358500000013919</v>
+        <v>0.002439799999990555</v>
       </c>
       <c r="Y920" t="n">
         <v>10</v>
@@ -75996,7 +75996,7 @@
         </is>
       </c>
       <c r="X921" t="n">
-        <v>0.0032711000000063</v>
+        <v>0.004279300000007424</v>
       </c>
       <c r="Y921" t="n">
         <v>11</v>
@@ -76078,7 +76078,7 @@
         </is>
       </c>
       <c r="X922" t="n">
-        <v>0.00241390000002184</v>
+        <v>0.002381599999978334</v>
       </c>
       <c r="Y922" t="n">
         <v>10</v>
@@ -76160,7 +76160,7 @@
         </is>
       </c>
       <c r="X923" t="n">
-        <v>0.002353500000026543</v>
+        <v>0.002461799999991854</v>
       </c>
       <c r="Y923" t="n">
         <v>8</v>
@@ -76242,7 +76242,7 @@
         </is>
       </c>
       <c r="X924" t="n">
-        <v>0.002890600000000632</v>
+        <v>0.002826400000003559</v>
       </c>
       <c r="Y924" t="n">
         <v>12</v>
@@ -76324,7 +76324,7 @@
         </is>
       </c>
       <c r="X925" t="n">
-        <v>0.002135199999997894</v>
+        <v>0.002357200000005832</v>
       </c>
       <c r="Y925" t="n">
         <v>9</v>
@@ -76406,7 +76406,7 @@
         </is>
       </c>
       <c r="X926" t="n">
-        <v>0.002957300000048235</v>
+        <v>0.00351010000002816</v>
       </c>
       <c r="Y926" t="n">
         <v>13</v>
@@ -76488,7 +76488,7 @@
         </is>
       </c>
       <c r="X927" t="n">
-        <v>0.003041099999961716</v>
+        <v>0.003294700000026296</v>
       </c>
       <c r="Y927" t="n">
         <v>13</v>
@@ -76570,7 +76570,7 @@
         </is>
       </c>
       <c r="X928" t="n">
-        <v>0.003226400000016838</v>
+        <v>0.002290400000049431</v>
       </c>
       <c r="Y928" t="n">
         <v>9</v>
@@ -76652,7 +76652,7 @@
         </is>
       </c>
       <c r="X929" t="n">
-        <v>0.002190899999959584</v>
+        <v>0.002179800000021714</v>
       </c>
       <c r="Y929" t="n">
         <v>9</v>
@@ -76734,7 +76734,7 @@
         </is>
       </c>
       <c r="X930" t="n">
-        <v>0.002184699999986606</v>
+        <v>0.002292500000010023</v>
       </c>
       <c r="Y930" t="n">
         <v>9</v>
@@ -76816,7 +76816,7 @@
         </is>
       </c>
       <c r="X931" t="n">
-        <v>0.002366999999992458</v>
+        <v>0.002342100000021219</v>
       </c>
       <c r="Y931" t="n">
         <v>10</v>
@@ -76898,7 +76898,7 @@
         </is>
       </c>
       <c r="X932" t="n">
-        <v>0.002173900000002504</v>
+        <v>0.002244700000005651</v>
       </c>
       <c r="Y932" t="n">
         <v>9</v>
@@ -76980,7 +76980,7 @@
         </is>
       </c>
       <c r="X933" t="n">
-        <v>0.00165810000004285</v>
+        <v>0.002696299999968232</v>
       </c>
       <c r="Y933" t="n">
         <v>7</v>
@@ -77062,7 +77062,7 @@
         </is>
       </c>
       <c r="X934" t="n">
-        <v>0.003059099999973114</v>
+        <v>0.00323350000002165</v>
       </c>
       <c r="Y934" t="n">
         <v>13</v>
@@ -77144,7 +77144,7 @@
         </is>
       </c>
       <c r="X935" t="n">
-        <v>0.002761399999997138</v>
+        <v>0.002998400000024048</v>
       </c>
       <c r="Y935" t="n">
         <v>12</v>
@@ -77226,7 +77226,7 @@
         </is>
       </c>
       <c r="X936" t="n">
-        <v>0.002992400000039197</v>
+        <v>0.004256399999974292</v>
       </c>
       <c r="Y936" t="n">
         <v>13</v>
@@ -77308,7 +77308,7 @@
         </is>
       </c>
       <c r="X937" t="n">
-        <v>0.003104199999995672</v>
+        <v>0.002454199999988305</v>
       </c>
       <c r="Y937" t="n">
         <v>10</v>
@@ -77390,7 +77390,7 @@
         </is>
       </c>
       <c r="X938" t="n">
-        <v>0.003360000000043328</v>
+        <v>0.002963200000010602</v>
       </c>
       <c r="Y938" t="n">
         <v>12</v>
@@ -77472,7 +77472,7 @@
         </is>
       </c>
       <c r="X939" t="n">
-        <v>0.002184999999997217</v>
+        <v>0.002289099999984501</v>
       </c>
       <c r="Y939" t="n">
         <v>9</v>
@@ -77554,7 +77554,7 @@
         </is>
       </c>
       <c r="X940" t="n">
-        <v>0.001963100000011764</v>
+        <v>0.001982199999986278</v>
       </c>
       <c r="Y940" t="n">
         <v>8</v>
@@ -77636,7 +77636,7 @@
         </is>
       </c>
       <c r="X941" t="n">
-        <v>0.004318099999977676</v>
+        <v>0.002619799999990846</v>
       </c>
       <c r="Y941" t="n">
         <v>11</v>
@@ -77718,7 +77718,7 @@
         </is>
       </c>
       <c r="X942" t="n">
-        <v>0.001927299999977095</v>
+        <v>0.002065200000004097</v>
       </c>
       <c r="Y942" t="n">
         <v>8</v>
@@ -77800,7 +77800,7 @@
         </is>
       </c>
       <c r="X943" t="n">
-        <v>0.002360099999975773</v>
+        <v>0.003453700000022764</v>
       </c>
       <c r="Y943" t="n">
         <v>10</v>
@@ -77882,7 +77882,7 @@
         </is>
       </c>
       <c r="X944" t="n">
-        <v>0.002196500000025026</v>
+        <v>0.002222200000005614</v>
       </c>
       <c r="Y944" t="n">
         <v>9</v>
@@ -77964,7 +77964,7 @@
         </is>
       </c>
       <c r="X945" t="n">
-        <v>0.00472810000002255</v>
+        <v>0.003323599999987437</v>
       </c>
       <c r="Y945" t="n">
         <v>13</v>
@@ -78046,7 +78046,7 @@
         </is>
       </c>
       <c r="X946" t="n">
-        <v>0.001918200000034176</v>
+        <v>0.002042500000015934</v>
       </c>
       <c r="Y946" t="n">
         <v>8</v>
@@ -78128,7 +78128,7 @@
         </is>
       </c>
       <c r="X947" t="n">
-        <v>0.002638499999989108</v>
+        <v>0.002965800000026775</v>
       </c>
       <c r="Y947" t="n">
         <v>11</v>
@@ -78210,7 +78210,7 @@
         </is>
       </c>
       <c r="X948" t="n">
-        <v>0.001950399999998353</v>
+        <v>0.002083599999991748</v>
       </c>
       <c r="Y948" t="n">
         <v>8</v>
@@ -78292,7 +78292,7 @@
         </is>
       </c>
       <c r="X949" t="n">
-        <v>0.001961400000027425</v>
+        <v>0.002024699999992663</v>
       </c>
       <c r="Y949" t="n">
         <v>8</v>
@@ -78374,7 +78374,7 @@
         </is>
       </c>
       <c r="X950" t="n">
-        <v>0.005295600000010836</v>
+        <v>0.002244299999972554</v>
       </c>
       <c r="Y950" t="n">
         <v>9</v>
@@ -78456,7 +78456,7 @@
         </is>
       </c>
       <c r="X951" t="n">
-        <v>0.00231050000002142</v>
+        <v>0.00199499999996533</v>
       </c>
       <c r="Y951" t="n">
         <v>8</v>
@@ -78538,7 +78538,7 @@
         </is>
       </c>
       <c r="X952" t="n">
-        <v>0.002193599999998241</v>
+        <v>0.001968000000033499</v>
       </c>
       <c r="Y952" t="n">
         <v>8</v>
@@ -78620,7 +78620,7 @@
         </is>
       </c>
       <c r="X953" t="n">
-        <v>0.001694799999995666</v>
+        <v>0.002837399999975787</v>
       </c>
       <c r="Y953" t="n">
         <v>7</v>
@@ -78702,7 +78702,7 @@
         </is>
       </c>
       <c r="X954" t="n">
-        <v>0.002478200000041397</v>
+        <v>0.002323600000011083</v>
       </c>
       <c r="Y954" t="n">
         <v>10</v>
@@ -78784,7 +78784,7 @@
         </is>
       </c>
       <c r="X955" t="n">
-        <v>0.004663000000050488</v>
+        <v>0.003198100000020077</v>
       </c>
       <c r="Y955" t="n">
         <v>13</v>
@@ -78866,7 +78866,7 @@
         </is>
       </c>
       <c r="X956" t="n">
-        <v>0.009536400000001777</v>
+        <v>0.002864400000021305</v>
       </c>
       <c r="Y956" t="n">
         <v>12</v>
@@ -78948,7 +78948,7 @@
         </is>
       </c>
       <c r="X957" t="n">
-        <v>0.005414499999972122</v>
+        <v>0.002070299999957115</v>
       </c>
       <c r="Y957" t="n">
         <v>8</v>
@@ -79030,7 +79030,7 @@
         </is>
       </c>
       <c r="X958" t="n">
-        <v>0.002903300000014042</v>
+        <v>0.004360799999972187</v>
       </c>
       <c r="Y958" t="n">
         <v>12</v>
@@ -79112,7 +79112,7 @@
         </is>
       </c>
       <c r="X959" t="n">
-        <v>0.003088499999989835</v>
+        <v>0.003151600000023791</v>
       </c>
       <c r="Y959" t="n">
         <v>13</v>
@@ -79194,7 +79194,7 @@
         </is>
       </c>
       <c r="X960" t="n">
-        <v>0.003039199999989251</v>
+        <v>0.001975800000025174</v>
       </c>
       <c r="Y960" t="n">
         <v>8</v>
@@ -79276,7 +79276,7 @@
         </is>
       </c>
       <c r="X961" t="n">
-        <v>0.006278699999995752</v>
+        <v>0.002563500000007934</v>
       </c>
       <c r="Y961" t="n">
         <v>11</v>
@@ -79358,7 +79358,7 @@
         </is>
       </c>
       <c r="X962" t="n">
-        <v>0.005045600000016748</v>
+        <v>0.002940899999998692</v>
       </c>
       <c r="Y962" t="n">
         <v>12</v>
@@ -79440,7 +79440,7 @@
         </is>
       </c>
       <c r="X963" t="n">
-        <v>0.0140711999999894</v>
+        <v>0.002809000000013384</v>
       </c>
       <c r="Y963" t="n">
         <v>8</v>
@@ -79522,7 +79522,7 @@
         </is>
       </c>
       <c r="X964" t="n">
-        <v>0.00277789999995548</v>
+        <v>0.001934000000005653</v>
       </c>
       <c r="Y964" t="n">
         <v>8</v>
@@ -79604,7 +79604,7 @@
         </is>
       </c>
       <c r="X965" t="n">
-        <v>0.001953399999990779</v>
+        <v>0.002133000000014817</v>
       </c>
       <c r="Y965" t="n">
         <v>8</v>
@@ -79686,7 +79686,7 @@
         </is>
       </c>
       <c r="X966" t="n">
-        <v>0.002642299999990882</v>
+        <v>0.002572899999961464</v>
       </c>
       <c r="Y966" t="n">
         <v>11</v>
@@ -79768,7 +79768,7 @@
         </is>
       </c>
       <c r="X967" t="n">
-        <v>0.002131500000018605</v>
+        <v>0.002211600000009639</v>
       </c>
       <c r="Y967" t="n">
         <v>9</v>
@@ -79850,7 +79850,7 @@
         </is>
       </c>
       <c r="X968" t="n">
-        <v>0.002186999999992167</v>
+        <v>0.002158399999984795</v>
       </c>
       <c r="Y968" t="n">
         <v>9</v>
@@ -79932,7 +79932,7 @@
         </is>
       </c>
       <c r="X969" t="n">
-        <v>0.005491199999994478</v>
+        <v>0.002646000000027016</v>
       </c>
       <c r="Y969" t="n">
         <v>11</v>
@@ -80014,7 +80014,7 @@
         </is>
       </c>
       <c r="X970" t="n">
-        <v>0.002355200000010882</v>
+        <v>0.003430500000035863</v>
       </c>
       <c r="Y970" t="n">
         <v>10</v>
@@ -80096,7 +80096,7 @@
         </is>
       </c>
       <c r="X971" t="n">
-        <v>0.002414799999996831</v>
+        <v>0.002079299999991235</v>
       </c>
       <c r="Y971" t="n">
         <v>9</v>
@@ -80178,7 +80178,7 @@
         </is>
       </c>
       <c r="X972" t="n">
-        <v>0.002532099999996262</v>
+        <v>0.002757900000005975</v>
       </c>
       <c r="Y972" t="n">
         <v>10</v>
@@ -80260,7 +80260,7 @@
         </is>
       </c>
       <c r="X973" t="n">
-        <v>0.002441499999974894</v>
+        <v>0.002349100000003546</v>
       </c>
       <c r="Y973" t="n">
         <v>10</v>
@@ -80342,7 +80342,7 @@
         </is>
       </c>
       <c r="X974" t="n">
-        <v>0.002812300000016421</v>
+        <v>0.002252100000021073</v>
       </c>
       <c r="Y974" t="n">
         <v>9</v>
@@ -80424,7 +80424,7 @@
         </is>
       </c>
       <c r="X975" t="n">
-        <v>0.004680800000016916</v>
+        <v>0.003543700000022909</v>
       </c>
       <c r="Y975" t="n">
         <v>12</v>
@@ -80506,7 +80506,7 @@
         </is>
       </c>
       <c r="X976" t="n">
-        <v>0.003296400000010635</v>
+        <v>0.002703499999995529</v>
       </c>
       <c r="Y976" t="n">
         <v>11</v>
@@ -80588,7 +80588,7 @@
         </is>
       </c>
       <c r="X977" t="n">
-        <v>0.002386299999955099</v>
+        <v>0.002971300000012889</v>
       </c>
       <c r="Y977" t="n">
         <v>10</v>
@@ -80670,7 +80670,7 @@
         </is>
       </c>
       <c r="X978" t="n">
-        <v>0.002386199999989458</v>
+        <v>0.002465200000017376</v>
       </c>
       <c r="Y978" t="n">
         <v>10</v>
@@ -80752,7 +80752,7 @@
         </is>
       </c>
       <c r="X979" t="n">
-        <v>0.002191799999991417</v>
+        <v>0.002214200000025812</v>
       </c>
       <c r="Y979" t="n">
         <v>9</v>
@@ -80834,7 +80834,7 @@
         </is>
       </c>
       <c r="X980" t="n">
-        <v>0.002389499999992495</v>
+        <v>0.001683200000002216</v>
       </c>
       <c r="Y980" t="n">
         <v>7</v>
@@ -80916,7 +80916,7 @@
         </is>
       </c>
       <c r="X981" t="n">
-        <v>0.002659600000015416</v>
+        <v>0.002648600000043189</v>
       </c>
       <c r="Y981" t="n">
         <v>11</v>
@@ -80998,7 +80998,7 @@
         </is>
       </c>
       <c r="X982" t="n">
-        <v>0.0027704999999969</v>
+        <v>0.0043786999999611</v>
       </c>
       <c r="Y982" t="n">
         <v>10</v>
@@ -81080,7 +81080,7 @@
         </is>
       </c>
       <c r="X983" t="n">
-        <v>0.003118000000029042</v>
+        <v>0.002971800000011626</v>
       </c>
       <c r="Y983" t="n">
         <v>13</v>
@@ -81162,7 +81162,7 @@
         </is>
       </c>
       <c r="X984" t="n">
-        <v>0.001960899999971843</v>
+        <v>0.002027699999985089</v>
       </c>
       <c r="Y984" t="n">
         <v>8</v>
@@ -81244,7 +81244,7 @@
         </is>
       </c>
       <c r="X985" t="n">
-        <v>0.003348000000016782</v>
+        <v>0.003083200000048691</v>
       </c>
       <c r="Y985" t="n">
         <v>13</v>
@@ -81326,7 +81326,7 @@
         </is>
       </c>
       <c r="X986" t="n">
-        <v>0.002851000000021031</v>
+        <v>0.002879700000050889</v>
       </c>
       <c r="Y986" t="n">
         <v>12</v>
@@ -81408,7 +81408,7 @@
         </is>
       </c>
       <c r="X987" t="n">
-        <v>0.003287699999987126</v>
+        <v>0.002862600000014481</v>
       </c>
       <c r="Y987" t="n">
         <v>10</v>
@@ -81490,7 +81490,7 @@
         </is>
       </c>
       <c r="X988" t="n">
-        <v>0.002976499999988391</v>
+        <v>0.003112100000009832</v>
       </c>
       <c r="Y988" t="n">
         <v>13</v>
@@ -81572,7 +81572,7 @@
         </is>
       </c>
       <c r="X989" t="n">
-        <v>0.002792699999986326</v>
+        <v>0.002960599999994429</v>
       </c>
       <c r="Y989" t="n">
         <v>12</v>
@@ -81654,7 +81654,7 @@
         </is>
       </c>
       <c r="X990" t="n">
-        <v>0.00186100000001943</v>
+        <v>0.001902900000004593</v>
       </c>
       <c r="Y990" t="n">
         <v>8</v>
@@ -81736,7 +81736,7 @@
         </is>
       </c>
       <c r="X991" t="n">
-        <v>0.002370899999959875</v>
+        <v>0.002193200000021989</v>
       </c>
       <c r="Y991" t="n">
         <v>9</v>
@@ -81818,7 +81818,7 @@
         </is>
       </c>
       <c r="X992" t="n">
-        <v>0.002132599999981721</v>
+        <v>0.003443599999968683</v>
       </c>
       <c r="Y992" t="n">
         <v>9</v>
@@ -81900,7 +81900,7 @@
         </is>
       </c>
       <c r="X993" t="n">
-        <v>0.003125000000011369</v>
+        <v>0.002571999999986474</v>
       </c>
       <c r="Y993" t="n">
         <v>11</v>
@@ -81982,7 +81982,7 @@
         </is>
       </c>
       <c r="X994" t="n">
-        <v>0.005614100000002509</v>
+        <v>0.002957400000013877</v>
       </c>
       <c r="Y994" t="n">
         <v>12</v>
@@ -82064,7 +82064,7 @@
         </is>
       </c>
       <c r="X995" t="n">
-        <v>0.001777600000025359</v>
+        <v>0.002763000000015836</v>
       </c>
       <c r="Y995" t="n">
         <v>7</v>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="X996" t="n">
-        <v>0.003551300000026458</v>
+        <v>0.002670000000023265</v>
       </c>
       <c r="Y996" t="n">
         <v>11</v>
@@ -82228,7 +82228,7 @@
         </is>
       </c>
       <c r="X997" t="n">
-        <v>0.002406399999983933</v>
+        <v>0.002122799999995095</v>
       </c>
       <c r="Y997" t="n">
         <v>8</v>
@@ -82310,7 +82310,7 @@
         </is>
       </c>
       <c r="X998" t="n">
-        <v>0.0028456999999662</v>
+        <v>0.002984500000025037</v>
       </c>
       <c r="Y998" t="n">
         <v>12</v>
@@ -82392,7 +82392,7 @@
         </is>
       </c>
       <c r="X999" t="n">
-        <v>0.002743500000008225</v>
+        <v>0.002066399999989699</v>
       </c>
       <c r="Y999" t="n">
         <v>8</v>
@@ -82474,7 +82474,7 @@
         </is>
       </c>
       <c r="X1000" t="n">
-        <v>0.004466299999990042</v>
+        <v>0.003867100000036316</v>
       </c>
       <c r="Y1000" t="n">
         <v>11</v>
@@ -82556,7 +82556,7 @@
         </is>
       </c>
       <c r="X1001" t="n">
-        <v>0.00239529999998922</v>
+        <v>0.002357300000028317</v>
       </c>
       <c r="Y1001" t="n">
         <v>10</v>
